--- a/aoc/inputs.xlsx
+++ b/aoc/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa_\Desktop\advent-of-code-2020\aoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7693BC50-3B3E-4B38-9F6F-0066D263F4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A93712E-BB8F-41C8-A0D9-9093A61D41E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46139,8 +46140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8EC1C9-C67F-4278-B164-13BDE002CFB2}">
   <dimension ref="A1:G631"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49339,4 +49340,5088 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B96CCD1-CCBB-4BF0-98B9-CB014E96C1FB}">
+  <dimension ref="A1:G1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" t="str">
+        <f>+""""&amp;_xlfn.TEXTJOIN(""", """,FALSE,A1:A1000)&amp;""""</f>
+        <v>"13", "41", "12", "29", "40", "27", "22", "38", "4", "8", "33", "39", "16", "45", "47", "23", "37", "31", "1", "10", "24", "20", "9", "32", "46", "5", "11", "17", "6", "21", "7", "18", "22", "40", "44", "8", "15", "12", "25", "64", "13", "16", "14", "19", "29", "28", "26", "20", "23", "38", "24", "30", "27", "35", "31", "21", "32", "34", "39", "61", "22", "33", "36", "37", "40", "41", "42", "63", "55", "43", "44", "45", "50", "51", "53", "66", "78", "73", "52", "54", "56", "96", "58", "59", "65", "62", "75", "95", "80", "81", "83", "85", "101", "102", "87", "89", "97", "105", "103", "106", "108", "111", "170", "110", "193", "141", "117", "120", "121", "140", "294", "155", "197", "198", "186", "182", "172", "176", "184", "391", "211", "200", "218", "275", "214", "290", "221", "231", "227", "237", "238", "403", "241", "569", "398", "360", "407", "348", "383", "356", "801", "372", "376", "402", "411", "682", "414", "439", "435", "441", "452", "759", "597", "464", "817", "794", "589", "724", "736", "704", "720", "728", "731", "1134", "732", "748", "787", "778", "841", "1139", "849", "853", "1293", "887", "1200", "916", "1305", "1053", "1460", "1309", "1367", "1455", "1467", "2029", "2087", "1448", "1459", "1463", "2427", "1480", "1601", "1565", "1619", "1690", "2316", "1702", "3003", "2335", "2362", "3484", "2764", "2513", "2420", "4693", "3170", "3886", "4629", "2907", "2911", "2922", "4203", "2939", "5588", "3045", "5683", "3220", "7393", "3309", "3392", "5273", "4037", "4697", "4848", "8089", "4933", "5184", "5327", "5331", "6142", "5818", "6612", "5829", "5861", "5833", "5967", "5984", "10815", "6265", "6354", "6529", "6701", "11974", "7346", "11813", "10558", "8734", "10664", "10117", "10260", "12094", "10511", "10658", "11192", "12445", "11647", "23460", "11662", "11800", "12098", "16080", "12249", "17457", "12619", "12883", "13230", "14047", "17463", "17606", "20377", "20771", "18851", "20628", "20775", "21452", "21169", "21703", "21850", "33686", "23309", "23447", "32428", "30836", "25847", "24981", "24868", "25132", "25502", "44075", "34335", "30693", "31510", "35069", "36457", "59188", "43937", "40554", "60916", "65527", "42621", "61589", "47550", "56378", "58554", "46756", "48315", "49849", "56540", "84690", "50370", "50000", "110192", "94257", "84184", "71247", "83213", "66579", "75623", "77011", "83175", "97920", "87310", "132836", "116949", "90171", "94306", "95071", "158798", "98164", "122379", "146870", "137159", "100370", "121247", "116579", "125623", "161195", "143590", "153889", "148258", "152634", "286725", "264837", "252053", "222749", "182381", "181616", "184477", "188335", "185242", "189377", "193235", "198534", "214743", "247240", "318858", "216949", "237826", "242202", "269213", "273881", "291848", "296224", "333500", "378477", "453172", "363997", "367623", "396359", "387911", "366093", "386869", "369719", "382612", "374619", "391769", "581146", "413277", "452569", "459151", "480028", "454775", "507039", "516083", "543094", "565729", "769481", "750866", "898808", "730090", "748705", "731620", "754492", "735812", "740712", "744338", "752331", "1127581", "1144100", "1059177", "1493043", "865846", "920316", "975234", "934803", "1683508", "961814", "1072768", "1291799", "1108823", "1295819", "1461710", "1669021", "1467432", "1472332", "3145218", "1475958", "1476524", "1672647", "2020991", "1496669", "1618177", "2435899", "2168000", "2396274", "1786162", "1800649", "1910037", "2368587", "1896617", "3455183", "3145545", "2181591", "2400622", "2404642", "2757529", "5891082", "2939764", "2943390", "2948290", "2952482", "2972627", "2973193", "3114846", "3393286", "3406706", "5807328", "5730156", "5120482", "8755618", "12162324", "3697266", "6098027", "7626773", "5705819", "4582213", "4586233", "4805264", "5352932", "10599400", "8068772", "11828183", "5883154", "9212873", "5900772", "8198550", "7920110", "6088039", "10389541", "20231096", "7103972", "11435975", "8279479", "12865712", "11617376", "8283499", "8502530", "13551482", "9168446", "9387477", "10688418", "9391497", "32059279", "19938505", "14081704", "11783926", "15024082", "11971193", "11988811", "13004744", "13192011", "14008149", "15606502", "21825516", "15383451", "22472344", "25792075", "21171403", "17890007", "24809387", "22360457", "27273715", "18555923", "18559943", "33160762", "20079915", "32914089", "23755119", "23772737", "23960004", "24788670", "29391600", "30989953", "36480493", "30894751", "23278925", "36554854", "33943394", "33273458", "33939374", "38635838", "63904042", "36445930", "42699394", "37115866", "38639858", "47238929", "59759418", "48543789", "69534609", "48748674", "47034044", "47051662", "47732741", "54180270", "48067595", "64168209", "69753951", "57218299", "118084312", "56552383", "67882768", "95188221", "67212832", "81672115", "101214314", "93664229", "79815260", "75755724", "103604045", "95595451", "123927627", "104619978", "115280427", "96816269", "94766785", "104269961", "94784403", "101913011", "102247865", "105285894", "113770682", "123765215", "220332177", "199808199", "124435151", "135095600", "142968556", "174582045", "155570984", "172571993", "170522509", "199404381", "170540127", "189551188", "190362236", "191600672", "191583054", "218532000", "293830919", "229862385", "196697414", "207198905", "301652246", "366182717", "219056576", "237535897", "248200366", "290666584", "418340199", "367219923", "345933220", "298539540", "326093493", "326111111", "388280468", "362123181", "528401925", "360091315", "379913424", "381945290", "383183726", "403896319", "425730905", "579881140", "426255481", "415753990", "908315349", "538866950", "686202426", "467256942", "563629390", "636480834", "693331034", "624633033", "708056401", "989360295", "1006578323", "944155915", "814011373", "795667414", "722214496", "808914631", "1005612045", "1075276324", "1147945401", "787080045", "819650309", "893512423", "883010932", "1430270897", "1030886332", "1006123892", "1091889975", "1642604726", "1188262423", "1200110224", "1814526676", "1655519365", "1702661241", "1503723815", "1509294541", "2649183049", "1697022305", "1517881910", "1582747459", "2386734747", "1888622977", "2522311550", "1606730354", "2019760533", "2590534728", "1713162732", "2230996556", "1889134824", "2673491058", "2709404765", "2509847707", "2280152398", "2691986238", "3323821217", "2703834039", "3086471274", "3013018356", "3279769764", "3021605725", "3027176451", "3214904215", "3886882752", "3100629369", "5603973615", "4099897479", "3319893086", "4707359723", "4303697460", "6332911442", "8818877830", "4398982531", "4581121062", "6987512121", "4953643456", "4790000105", "5213681746", "4972138636", "7613886746", "5716852395", "5725439764", "6034624081", "9661003179", "6048782176", "7404326829", "6127805820", "6315533584", "9288480785", "10338321541", "7419790565", "8889897584", "11546593188", "8702679991", "12201193867", "9371121167", "8980103593", "11853245584", "9534764518", "9743643561", "9762138741", "18178378369", "10185820382", "10688991031", "11442292159", "15013920549", "19195767697", "12162429901", "15709785355", "18905885685", "12443339404", "15017703404", "15018213575", "16122470556", "16309688149", "16399894158", "18446323552", "17682783584", "18073801158", "22131283190", "18351224760", "18723747154", "19947959123", "19296903259", "20451129772", "35305779843", "20874811413", "28259621540", "22851420932", "31327391553", "24605769305", "33741450558", "27180133305", "37149496765", "35468833176", "27461042808", "51424234142", "53657004603", "32432158705", "32709582307", "46983368694", "35756584742", "36034008344", "36425025918", "56631396155", "37074971914", "38020650413", "54641176113", "45480580718", "41325941185", "53584393720", "50031554237", "47457190237", "50312463740", "89063554860", "58347219863", "60921583863", "74054658757", "60170625115", "87849260060", "63217627550", "106486817462", "103615947957", "129175201245", "68743590651", "91605044133", "71790593086", "77359949529", "79346591598", "98191275528", "154822671683", "83501231131", "94910334905", "86806521903", "105804410100", "97488744474", "97769653977", "116200780888", "110483088855", "118517844978", "119268803726", "129665174514", "156706541127", "139517216713", "131961218201", "135008220636", "234066490656", "180975897486", "189796319661", "223018447844", "189305641231", "149150542615", "162847822729", "177537867126", "170307753034", "266969438837", "199702012019", "203007302791", "184295266377", "195258398451", "207971833329", "378279586363", "226683869743", "237786648704", "248183019492", "261626392715", "264673395150", "288667759328", "271478434914", "315984118122", "365566151485", "434326257643", "330126440101", "311998365344", "319458295649", "347845620160", "604634010677", "361833133503", "354603019411", "387302569168", "464375407169", "503753562026", "398265701242", "550294152043", "403230231780", "753784553292", "464470518447", "526299787865", "576671760494", "780454636569", "666601384755", "553341154478", "706760864817", "583476800258", "627982483466", "677972060261", "649584735750", "966467144180", "674061315060", "709678753663", "702448639571", "716436152914", "741905588579", "752868720653", "785568270410", "1126965912537", "801495933022", "1041142278941", "867700750227", "929530019645", "1175884523615", "990770306312", "1079640942343", "1130012914972", "1277567219216", "1502004423324", "1136817954736", "1211459283724", "1233061536008", "1776338576722", "1323646050810", "1352033375321", "1376509954631", "1843402065451", "1782089581914", "1418884792485", "1458341741493", "2287572693734", "1538436991063", "1587064203432", "1842638211963", "1669196683249", "2252601562665", "1858471056539", "1920300325957", "2862083041873", "3166284262773", "2209653857315", "2348277238460", "3363402780154", "3991743439229", "2488851330057", "4720554098412", "3512598748700", "4638421618595", "5350934371930", "3005948995917", "2795394747116", "2877226533978", "2957321783548", "2996778732556", "4464290737410", "3125501194495", "3207633674312", "3256260886681", "4653865803655", "3527667739788", "6848075475910", "5345055971016", "4129954183272", "4557931095775", "4698505187372", "4837128568517", "5604538125141", "8347713104486", "5284246077173", "5366077864035", "6524446472344", "5672621281094", "5752716530664", "7657621923060", "5792173479672", "5834548317526", "9844854208466", "8409747271668", "6253039619237", "7824006381867", "14182261422012", "11200626181561", "7954766074053", "10162469220916", "10654400655616", "8687885279047", "8828459370644", "8967082751789", "9256436283147", "9535633755889", "10970615989176", "10650323941208", "10956867358267", "14077046001104", "11038699145129", "24027115630478", "15517475489560", "11544890010336", "13910661542297", "11626721797198", "12087587936763", "14207805693290", "20460845312527", "14940924898284", "19923950110056", "16642651353100", "16783225444697", "16921848825842", "17516344649691", "17944321562194", "17654968030836", "17795542122433", "18223519034936", "18792070039036", "20185957697097", "27681350498229", "21607191299475", "22583589155465", "22665420942327", "23126287081892", "28548570623040", "23171611807534", "50852962305763", "33705074270539", "33564500178942", "26295393630053", "29148730591574", "31583576251384", "31724150342981", "40642631731583", "33425876797797", "34438193475533", "39123535949166", "45791708024219", "35450510153269", "45476892620662", "36019061157369", "38409476732033", "38978027736133", "41793148996572", "44190780454940", "57057701452744", "58602650312834", "54709863333276", "62104314818025", "49467005437587", "52320342399108", "55444124221627", "60000467900592", "58019543973034", "57878969881437", "60732306842958", "69888703628802", "65150027140778", "75080825207116", "68876386951066", "93687891069409", "128491353941636", "73859986885302"</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2" t="str">
+        <f>+""""&amp;_xlfn.TEXTJOIN(""", """,FALSE,E1:E20)&amp;""""</f>
+        <v>"35", "20", "15", "25", "47", "40", "62", "55", "65", "95", "102", "117", "150", "182", "127", "219", "299", "277", "309", "576"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="2">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="2">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="2">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="2">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="2">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="2">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="2">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="2">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="2">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="2">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="2">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="2">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="2">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="2">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="2">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="2">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="2">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="2">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="2">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="2">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="2">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="2">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="2">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="2">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="2">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="2">
+        <v>5588</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="2">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="2">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="2">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="2">
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="2">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="2">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="2">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="2">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="2">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="2">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="2">
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="2">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="2">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="2">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="2">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="2">
+        <v>6142</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="2">
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="2">
+        <v>6612</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="2">
+        <v>5829</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="2">
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="2">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="2">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="2">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="2">
+        <v>10815</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="2">
+        <v>6265</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="2">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="2">
+        <v>6529</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="2">
+        <v>6701</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="2">
+        <v>11974</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="2">
+        <v>7346</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="2">
+        <v>11813</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="2">
+        <v>10558</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="2">
+        <v>8734</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="2">
+        <v>10664</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="2">
+        <v>10117</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="2">
+        <v>10260</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="2">
+        <v>12094</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="2">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="2">
+        <v>10658</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="2">
+        <v>11192</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="2">
+        <v>12445</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="2">
+        <v>11647</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="2">
+        <v>23460</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="2">
+        <v>11662</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="2">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="2">
+        <v>12098</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="2">
+        <v>16080</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="2">
+        <v>12249</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="2">
+        <v>17457</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="2">
+        <v>12619</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="2">
+        <v>12883</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="2">
+        <v>13230</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="2">
+        <v>14047</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="2">
+        <v>17463</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="2">
+        <v>17606</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="2">
+        <v>20377</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="2">
+        <v>20771</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="2">
+        <v>18851</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="2">
+        <v>20628</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="2">
+        <v>20775</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="2">
+        <v>21452</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="2">
+        <v>21169</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="2">
+        <v>21703</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="2">
+        <v>21850</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="2">
+        <v>33686</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="2">
+        <v>23309</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="2">
+        <v>23447</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="2">
+        <v>32428</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="2">
+        <v>30836</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="2">
+        <v>25847</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="2">
+        <v>24981</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="2">
+        <v>24868</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="2">
+        <v>25132</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="2">
+        <v>25502</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="2">
+        <v>34335</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="2">
+        <v>30693</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="2">
+        <v>31510</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="2">
+        <v>35069</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="2">
+        <v>36457</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="2">
+        <v>59188</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="2">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="2">
+        <v>40554</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="2">
+        <v>60916</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="2">
+        <v>65527</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="2">
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="2">
+        <v>61589</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="2">
+        <v>47550</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="2">
+        <v>56378</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="2">
+        <v>58554</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="2">
+        <v>46756</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="2">
+        <v>48315</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="2">
+        <v>49849</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="2">
+        <v>56540</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="2">
+        <v>84690</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="2">
+        <v>50370</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="2">
+        <v>110192</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="2">
+        <v>94257</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="2">
+        <v>84184</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="2">
+        <v>71247</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="2">
+        <v>83213</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="2">
+        <v>66579</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="2">
+        <v>75623</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="2">
+        <v>77011</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="2">
+        <v>83175</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="2">
+        <v>97920</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="2">
+        <v>87310</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="2">
+        <v>132836</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="2">
+        <v>116949</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="2">
+        <v>90171</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="2">
+        <v>94306</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="2">
+        <v>95071</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="2">
+        <v>158798</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="2">
+        <v>98164</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="2">
+        <v>122379</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="2">
+        <v>146870</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="2">
+        <v>137159</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="2">
+        <v>100370</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="2">
+        <v>121247</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="2">
+        <v>116579</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="2">
+        <v>125623</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="2">
+        <v>161195</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="2">
+        <v>143590</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="2">
+        <v>153889</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="2">
+        <v>148258</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="2">
+        <v>152634</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="2">
+        <v>286725</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="2">
+        <v>264837</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="2">
+        <v>252053</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="2">
+        <v>222749</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="2">
+        <v>182381</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="2">
+        <v>181616</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="2">
+        <v>184477</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="2">
+        <v>188335</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="2">
+        <v>185242</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="2">
+        <v>189377</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="2">
+        <v>193235</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="2">
+        <v>198534</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="2">
+        <v>214743</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="2">
+        <v>247240</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="2">
+        <v>318858</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="2">
+        <v>216949</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="2">
+        <v>237826</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="2">
+        <v>242202</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="2">
+        <v>269213</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="2">
+        <v>273881</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="2">
+        <v>291848</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="2">
+        <v>296224</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="2">
+        <v>333500</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="2">
+        <v>378477</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="2">
+        <v>453172</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="2">
+        <v>363997</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="2">
+        <v>367623</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="2">
+        <v>396359</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="2">
+        <v>387911</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="2">
+        <v>366093</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="2">
+        <v>386869</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="2">
+        <v>369719</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="2">
+        <v>382612</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="2">
+        <v>374619</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="2">
+        <v>391769</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="2">
+        <v>581146</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="2">
+        <v>413277</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="2">
+        <v>452569</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="2">
+        <v>459151</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="2">
+        <v>480028</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="2">
+        <v>454775</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="2">
+        <v>507039</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="2">
+        <v>516083</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="2">
+        <v>543094</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="2">
+        <v>565729</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="2">
+        <v>769481</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="2">
+        <v>750866</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="2">
+        <v>898808</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="2">
+        <v>730090</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="2">
+        <v>748705</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="2">
+        <v>731620</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="2">
+        <v>754492</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="2">
+        <v>735812</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="2">
+        <v>740712</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="2">
+        <v>744338</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="2">
+        <v>752331</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="2">
+        <v>1127581</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="2">
+        <v>1144100</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="2">
+        <v>1059177</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="2">
+        <v>1493043</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="2">
+        <v>865846</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="2">
+        <v>920316</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="2">
+        <v>975234</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="2">
+        <v>934803</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="2">
+        <v>1683508</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="2">
+        <v>961814</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="2">
+        <v>1072768</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="2">
+        <v>1291799</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="2">
+        <v>1108823</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="2">
+        <v>1295819</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="2">
+        <v>1461710</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="2">
+        <v>1669021</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="2">
+        <v>1467432</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="2">
+        <v>1472332</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="2">
+        <v>3145218</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="2">
+        <v>1475958</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="2">
+        <v>1476524</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="2">
+        <v>1672647</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="2">
+        <v>2020991</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="2">
+        <v>1496669</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="2">
+        <v>1618177</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="2">
+        <v>2435899</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="2">
+        <v>2168000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="2">
+        <v>2396274</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="2">
+        <v>1786162</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="2">
+        <v>1800649</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="2">
+        <v>1910037</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="2">
+        <v>2368587</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="2">
+        <v>1896617</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="2">
+        <v>3455183</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="2">
+        <v>3145545</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="2">
+        <v>2181591</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="2">
+        <v>2400622</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="2">
+        <v>2404642</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="2">
+        <v>2757529</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="2">
+        <v>5891082</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="2">
+        <v>2939764</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="2">
+        <v>2943390</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="2">
+        <v>2948290</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="2">
+        <v>2952482</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="2">
+        <v>2972627</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="2">
+        <v>2973193</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="2">
+        <v>3114846</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="2">
+        <v>3393286</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="2">
+        <v>3406706</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="2">
+        <v>5807328</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="2">
+        <v>5730156</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="2">
+        <v>5120482</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="2">
+        <v>8755618</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="2">
+        <v>12162324</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="2">
+        <v>3697266</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="2">
+        <v>6098027</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="2">
+        <v>7626773</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="2">
+        <v>5705819</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="2">
+        <v>4582213</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="2">
+        <v>4586233</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="2">
+        <v>4805264</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="2">
+        <v>5352932</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="2">
+        <v>10599400</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="2">
+        <v>8068772</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="2">
+        <v>11828183</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="2">
+        <v>5883154</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="2">
+        <v>9212873</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="2">
+        <v>5900772</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="2">
+        <v>8198550</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="2">
+        <v>7920110</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="2">
+        <v>6088039</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="2">
+        <v>10389541</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="2">
+        <v>20231096</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="2">
+        <v>7103972</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="2">
+        <v>11435975</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="2">
+        <v>8279479</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="2">
+        <v>12865712</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="2">
+        <v>11617376</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="2">
+        <v>8283499</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="2">
+        <v>8502530</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="2">
+        <v>13551482</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="2">
+        <v>9168446</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="2">
+        <v>9387477</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="2">
+        <v>10688418</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="2">
+        <v>9391497</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="2">
+        <v>32059279</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="2">
+        <v>19938505</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="2">
+        <v>14081704</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="2">
+        <v>11783926</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="2">
+        <v>15024082</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="2">
+        <v>11971193</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="2">
+        <v>11988811</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="2">
+        <v>13004744</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="2">
+        <v>13192011</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="2">
+        <v>14008149</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="2">
+        <v>15606502</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="2">
+        <v>21825516</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="2">
+        <v>15383451</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="2">
+        <v>22472344</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="2">
+        <v>25792075</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="2">
+        <v>21171403</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="2">
+        <v>17890007</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="2">
+        <v>24809387</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="2">
+        <v>22360457</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="2">
+        <v>27273715</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="2">
+        <v>18555923</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="2">
+        <v>18559943</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="2">
+        <v>33160762</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="2">
+        <v>20079915</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="2">
+        <v>32914089</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="2">
+        <v>23755119</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="2">
+        <v>23772737</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="2">
+        <v>23960004</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="2">
+        <v>24788670</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="2">
+        <v>29391600</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="2">
+        <v>30989953</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="2">
+        <v>36480493</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="2">
+        <v>30894751</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="2">
+        <v>23278925</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="2">
+        <v>36554854</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="2">
+        <v>33943394</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="2">
+        <v>33273458</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="2">
+        <v>33939374</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="2">
+        <v>38635838</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="2">
+        <v>63904042</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="2">
+        <v>36445930</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="2">
+        <v>42699394</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="2">
+        <v>37115866</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="2">
+        <v>38639858</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="2">
+        <v>47238929</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="2">
+        <v>59759418</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="2">
+        <v>48543789</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="2">
+        <v>69534609</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="2">
+        <v>48748674</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="2">
+        <v>47034044</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="2">
+        <v>47051662</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="2">
+        <v>47732741</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="2">
+        <v>54180270</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="2">
+        <v>48067595</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="2">
+        <v>64168209</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="2">
+        <v>69753951</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="2">
+        <v>57218299</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="2">
+        <v>118084312</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="2">
+        <v>56552383</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="2">
+        <v>67882768</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="2">
+        <v>95188221</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="2">
+        <v>67212832</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="2">
+        <v>81672115</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="2">
+        <v>101214314</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="2">
+        <v>93664229</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="2">
+        <v>79815260</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="2">
+        <v>75755724</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="2">
+        <v>103604045</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="2">
+        <v>95595451</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="2">
+        <v>123927627</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="2">
+        <v>104619978</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="2">
+        <v>115280427</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="2">
+        <v>96816269</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="2">
+        <v>94766785</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="2">
+        <v>104269961</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="2">
+        <v>94784403</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="2">
+        <v>101913011</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="2">
+        <v>102247865</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="2">
+        <v>105285894</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="2">
+        <v>113770682</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="2">
+        <v>123765215</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="2">
+        <v>220332177</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="2">
+        <v>199808199</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="2">
+        <v>124435151</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="2">
+        <v>135095600</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="2">
+        <v>142968556</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="2">
+        <v>174582045</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="2">
+        <v>155570984</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="2">
+        <v>172571993</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="2">
+        <v>170522509</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="2">
+        <v>199404381</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="2">
+        <v>170540127</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="2">
+        <v>189551188</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="2">
+        <v>190362236</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="2">
+        <v>191600672</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="2">
+        <v>191583054</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="2">
+        <v>218532000</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="2">
+        <v>293830919</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="2">
+        <v>229862385</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="2">
+        <v>196697414</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="2">
+        <v>207198905</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="2">
+        <v>301652246</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="2">
+        <v>366182717</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="2">
+        <v>219056576</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="2">
+        <v>237535897</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="2">
+        <v>248200366</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" s="2">
+        <v>290666584</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="2">
+        <v>418340199</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="2">
+        <v>367219923</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="2">
+        <v>345933220</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="2">
+        <v>298539540</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="2">
+        <v>326093493</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="2">
+        <v>326111111</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="2">
+        <v>388280468</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="2">
+        <v>362123181</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="2">
+        <v>528401925</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="2">
+        <v>360091315</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="2">
+        <v>379913424</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="2">
+        <v>381945290</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="2">
+        <v>383183726</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="2">
+        <v>403896319</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="2">
+        <v>425730905</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="2">
+        <v>579881140</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="2">
+        <v>426255481</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="2">
+        <v>415753990</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" s="2">
+        <v>908315349</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" s="2">
+        <v>538866950</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" s="2">
+        <v>686202426</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" s="2">
+        <v>467256942</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="2">
+        <v>563629390</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" s="2">
+        <v>636480834</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" s="2">
+        <v>693331034</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" s="2">
+        <v>624633033</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="2">
+        <v>708056401</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="2">
+        <v>989360295</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="2">
+        <v>1006578323</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="2">
+        <v>944155915</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="2">
+        <v>814011373</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="2">
+        <v>795667414</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="2">
+        <v>722214496</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="2">
+        <v>808914631</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="2">
+        <v>1005612045</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" s="2">
+        <v>1075276324</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="2">
+        <v>1147945401</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="2">
+        <v>787080045</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="2">
+        <v>819650309</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" s="2">
+        <v>893512423</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" s="2">
+        <v>883010932</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="2">
+        <v>1430270897</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="2">
+        <v>1030886332</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="2">
+        <v>1006123892</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="2">
+        <v>1091889975</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="2">
+        <v>1642604726</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="2">
+        <v>1188262423</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="2">
+        <v>1200110224</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="2">
+        <v>1814526676</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="2">
+        <v>1655519365</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="2">
+        <v>1702661241</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="2">
+        <v>1503723815</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="2">
+        <v>1509294541</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="2">
+        <v>2649183049</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="2">
+        <v>1697022305</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="2">
+        <v>1517881910</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="2">
+        <v>1582747459</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="2">
+        <v>2386734747</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" s="2">
+        <v>1888622977</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" s="2">
+        <v>2522311550</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="2">
+        <v>1606730354</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="2">
+        <v>2019760533</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" s="2">
+        <v>2590534728</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="2">
+        <v>1713162732</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="2">
+        <v>2230996556</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="2">
+        <v>1889134824</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="2">
+        <v>2673491058</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="2">
+        <v>2709404765</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="2">
+        <v>2509847707</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" s="2">
+        <v>2280152398</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="2">
+        <v>2691986238</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="2">
+        <v>3323821217</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" s="2">
+        <v>2703834039</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" s="2">
+        <v>3086471274</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" s="2">
+        <v>3013018356</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" s="2">
+        <v>3279769764</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" s="2">
+        <v>3021605725</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" s="2">
+        <v>3027176451</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" s="2">
+        <v>3214904215</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" s="2">
+        <v>3886882752</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" s="2">
+        <v>3100629369</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" s="2">
+        <v>5603973615</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" s="2">
+        <v>4099897479</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" s="2">
+        <v>3319893086</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" s="2">
+        <v>4707359723</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="2">
+        <v>4303697460</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="2">
+        <v>6332911442</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="2">
+        <v>8818877830</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="2">
+        <v>4398982531</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" s="2">
+        <v>4581121062</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" s="2">
+        <v>6987512121</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" s="2">
+        <v>4953643456</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" s="2">
+        <v>4790000105</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" s="2">
+        <v>5213681746</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="2">
+        <v>4972138636</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" s="2">
+        <v>7613886746</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" s="2">
+        <v>5716852395</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" s="2">
+        <v>5725439764</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" s="2">
+        <v>6034624081</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" s="2">
+        <v>9661003179</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="2">
+        <v>6048782176</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" s="2">
+        <v>7404326829</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" s="2">
+        <v>6127805820</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" s="2">
+        <v>6315533584</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" s="2">
+        <v>9288480785</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" s="2">
+        <v>10338321541</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="2">
+        <v>7419790565</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" s="2">
+        <v>8889897584</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" s="2">
+        <v>11546593188</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" s="2">
+        <v>8702679991</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="2">
+        <v>12201193867</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="2">
+        <v>9371121167</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="2">
+        <v>8980103593</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" s="2">
+        <v>11853245584</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" s="2">
+        <v>9534764518</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" s="2">
+        <v>9743643561</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" s="2">
+        <v>9762138741</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" s="2">
+        <v>18178378369</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" s="2">
+        <v>10185820382</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" s="2">
+        <v>10688991031</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" s="2">
+        <v>11442292159</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="2">
+        <v>15013920549</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" s="2">
+        <v>19195767697</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" s="2">
+        <v>12162429901</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" s="2">
+        <v>15709785355</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="2">
+        <v>18905885685</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" s="2">
+        <v>12443339404</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" s="2">
+        <v>15017703404</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" s="2">
+        <v>15018213575</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" s="2">
+        <v>16122470556</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" s="2">
+        <v>16309688149</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" s="2">
+        <v>16399894158</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="2">
+        <v>18446323552</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" s="2">
+        <v>17682783584</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="2">
+        <v>18073801158</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" s="2">
+        <v>22131283190</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" s="2">
+        <v>18351224760</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" s="2">
+        <v>18723747154</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" s="2">
+        <v>19947959123</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" s="2">
+        <v>19296903259</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" s="2">
+        <v>20451129772</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" s="2">
+        <v>35305779843</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="2">
+        <v>20874811413</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" s="2">
+        <v>28259621540</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" s="2">
+        <v>22851420932</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" s="2">
+        <v>31327391553</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="2">
+        <v>24605769305</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" s="2">
+        <v>33741450558</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" s="2">
+        <v>27180133305</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" s="2">
+        <v>37149496765</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" s="2">
+        <v>35468833176</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" s="2">
+        <v>27461042808</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" s="2">
+        <v>51424234142</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" s="2">
+        <v>53657004603</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" s="2">
+        <v>32432158705</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" s="2">
+        <v>32709582307</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" s="2">
+        <v>46983368694</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" s="2">
+        <v>35756584742</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" s="2">
+        <v>36034008344</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" s="2">
+        <v>36425025918</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" s="2">
+        <v>56631396155</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" s="2">
+        <v>37074971914</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" s="2">
+        <v>38020650413</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" s="2">
+        <v>54641176113</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" s="2">
+        <v>45480580718</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" s="2">
+        <v>41325941185</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" s="2">
+        <v>53584393720</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" s="2">
+        <v>50031554237</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" s="2">
+        <v>47457190237</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" s="2">
+        <v>50312463740</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" s="2">
+        <v>89063554860</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" s="2">
+        <v>58347219863</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" s="2">
+        <v>60921583863</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" s="2">
+        <v>74054658757</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" s="2">
+        <v>60170625115</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" s="2">
+        <v>87849260060</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" s="2">
+        <v>63217627550</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="2">
+        <v>106486817462</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" s="2">
+        <v>103615947957</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" s="2">
+        <v>129175201245</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" s="2">
+        <v>68743590651</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" s="2">
+        <v>91605044133</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" s="2">
+        <v>71790593086</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" s="2">
+        <v>77359949529</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" s="2">
+        <v>79346591598</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" s="2">
+        <v>98191275528</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" s="2">
+        <v>154822671683</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" s="2">
+        <v>83501231131</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" s="2">
+        <v>94910334905</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" s="2">
+        <v>86806521903</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" s="2">
+        <v>105804410100</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" s="2">
+        <v>97488744474</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="2">
+        <v>97769653977</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" s="2">
+        <v>116200780888</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" s="2">
+        <v>110483088855</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" s="2">
+        <v>118517844978</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" s="2">
+        <v>119268803726</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" s="2">
+        <v>129665174514</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" s="2">
+        <v>156706541127</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" s="2">
+        <v>139517216713</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" s="2">
+        <v>131961218201</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" s="2">
+        <v>135008220636</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791" s="2">
+        <v>234066490656</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" s="2">
+        <v>180975897486</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" s="2">
+        <v>189796319661</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" s="2">
+        <v>223018447844</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" s="2">
+        <v>189305641231</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" s="2">
+        <v>149150542615</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" s="2">
+        <v>162847822729</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" s="2">
+        <v>177537867126</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" s="2">
+        <v>170307753034</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" s="2">
+        <v>266969438837</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" s="2">
+        <v>199702012019</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" s="2">
+        <v>203007302791</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" s="2">
+        <v>184295266377</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" s="2">
+        <v>195258398451</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" s="2">
+        <v>207971833329</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" s="2">
+        <v>378279586363</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807" s="2">
+        <v>226683869743</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" s="2">
+        <v>237786648704</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" s="2">
+        <v>248183019492</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810" s="2">
+        <v>261626392715</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" s="2">
+        <v>264673395150</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812" s="2">
+        <v>288667759328</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813" s="2">
+        <v>271478434914</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" s="2">
+        <v>315984118122</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815" s="2">
+        <v>365566151485</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816" s="2">
+        <v>434326257643</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" s="2">
+        <v>330126440101</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" s="2">
+        <v>311998365344</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819" s="2">
+        <v>319458295649</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" s="2">
+        <v>347845620160</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" s="2">
+        <v>604634010677</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" s="2">
+        <v>361833133503</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" s="2">
+        <v>354603019411</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" s="2">
+        <v>387302569168</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" s="2">
+        <v>464375407169</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" s="2">
+        <v>503753562026</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" s="2">
+        <v>398265701242</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" s="2">
+        <v>550294152043</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" s="2">
+        <v>403230231780</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" s="2">
+        <v>753784553292</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" s="2">
+        <v>464470518447</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" s="2">
+        <v>526299787865</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" s="2">
+        <v>576671760494</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" s="2">
+        <v>780454636569</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" s="2">
+        <v>666601384755</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" s="2">
+        <v>553341154478</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837" s="2">
+        <v>706760864817</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" s="2">
+        <v>583476800258</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" s="2">
+        <v>627982483466</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840" s="2">
+        <v>677972060261</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841" s="2">
+        <v>649584735750</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842" s="2">
+        <v>966467144180</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843" s="2">
+        <v>674061315060</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" s="2">
+        <v>709678753663</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" s="2">
+        <v>702448639571</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846" s="2">
+        <v>716436152914</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847" s="2">
+        <v>741905588579</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" s="2">
+        <v>752868720653</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" s="2">
+        <v>785568270410</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" s="2">
+        <v>1126965912537</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" s="2">
+        <v>801495933022</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852" s="2">
+        <v>1041142278941</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853" s="2">
+        <v>867700750227</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854" s="2">
+        <v>929530019645</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855" s="2">
+        <v>1175884523615</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856" s="2">
+        <v>990770306312</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857" s="2">
+        <v>1079640942343</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858" s="2">
+        <v>1130012914972</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859" s="2">
+        <v>1277567219216</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860" s="2">
+        <v>1502004423324</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861" s="2">
+        <v>1136817954736</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862" s="2">
+        <v>1211459283724</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" s="2">
+        <v>1233061536008</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864" s="2">
+        <v>1776338576722</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" s="2">
+        <v>1323646050810</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" s="2">
+        <v>1352033375321</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" s="2">
+        <v>1376509954631</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" s="2">
+        <v>1843402065451</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" s="2">
+        <v>1782089581914</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870" s="2">
+        <v>1418884792485</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" s="2">
+        <v>1458341741493</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" s="2">
+        <v>2287572693734</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" s="2">
+        <v>1538436991063</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874" s="2">
+        <v>1587064203432</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" s="2">
+        <v>1842638211963</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" s="2">
+        <v>1669196683249</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877" s="2">
+        <v>2252601562665</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" s="2">
+        <v>1858471056539</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879" s="2">
+        <v>1920300325957</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" s="2">
+        <v>2862083041873</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" s="2">
+        <v>3166284262773</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" s="2">
+        <v>2209653857315</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883" s="2">
+        <v>2348277238460</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" s="2">
+        <v>3363402780154</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885" s="2">
+        <v>3991743439229</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886" s="2">
+        <v>2488851330057</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" s="2">
+        <v>4720554098412</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888" s="2">
+        <v>3512598748700</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889" s="2">
+        <v>4638421618595</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890" s="2">
+        <v>5350934371930</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891" s="2">
+        <v>3005948995917</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892" s="2">
+        <v>2795394747116</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893" s="2">
+        <v>2877226533978</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894" s="2">
+        <v>2957321783548</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895" s="2">
+        <v>2996778732556</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896" s="2">
+        <v>4464290737410</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897" s="2">
+        <v>3125501194495</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898" s="2">
+        <v>3207633674312</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899" s="2">
+        <v>3256260886681</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900" s="2">
+        <v>4653865803655</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901" s="2">
+        <v>3527667739788</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902" s="2">
+        <v>6848075475910</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903" s="2">
+        <v>5345055971016</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904" s="2">
+        <v>4129954183272</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905" s="2">
+        <v>4557931095775</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906" s="2">
+        <v>4698505187372</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907" s="2">
+        <v>4837128568517</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908" s="2">
+        <v>5604538125141</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909" s="2">
+        <v>8347713104486</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910" s="2">
+        <v>5284246077173</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911" s="2">
+        <v>5366077864035</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912" s="2">
+        <v>6524446472344</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913" s="2">
+        <v>5672621281094</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914" s="2">
+        <v>5752716530664</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915" s="2">
+        <v>7657621923060</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916" s="2">
+        <v>5792173479672</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917" s="2">
+        <v>5834548317526</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918" s="2">
+        <v>9844854208466</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919" s="2">
+        <v>8409747271668</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920" s="2">
+        <v>6253039619237</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921" s="2">
+        <v>7824006381867</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922" s="2">
+        <v>14182261422012</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923" s="2">
+        <v>11200626181561</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924" s="2">
+        <v>7954766074053</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925" s="2">
+        <v>10162469220916</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926" s="2">
+        <v>10654400655616</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927" s="2">
+        <v>8687885279047</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928" s="2">
+        <v>8828459370644</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929" s="2">
+        <v>8967082751789</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930" s="2">
+        <v>9256436283147</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931" s="2">
+        <v>9535633755889</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932" s="2">
+        <v>10970615989176</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933" s="2">
+        <v>10650323941208</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934" s="2">
+        <v>10956867358267</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935" s="2">
+        <v>14077046001104</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936" s="2">
+        <v>11038699145129</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937" s="2">
+        <v>24027115630478</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938" s="2">
+        <v>15517475489560</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939" s="2">
+        <v>11544890010336</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940" s="2">
+        <v>13910661542297</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941" s="2">
+        <v>11626721797198</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942" s="2">
+        <v>12087587936763</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943" s="2">
+        <v>14207805693290</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944" s="2">
+        <v>20460845312527</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945" s="2">
+        <v>14940924898284</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946" s="2">
+        <v>19923950110056</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947" s="2">
+        <v>16642651353100</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948" s="2">
+        <v>16783225444697</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949" s="2">
+        <v>16921848825842</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950" s="2">
+        <v>17516344649691</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951" s="2">
+        <v>17944321562194</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952" s="2">
+        <v>17654968030836</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953" s="2">
+        <v>17795542122433</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954" s="2">
+        <v>18223519034936</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955" s="2">
+        <v>18792070039036</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956" s="2">
+        <v>20185957697097</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957" s="2">
+        <v>27681350498229</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958" s="2">
+        <v>21607191299475</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959" s="2">
+        <v>22583589155465</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960" s="2">
+        <v>22665420942327</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961" s="2">
+        <v>23126287081892</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962" s="2">
+        <v>28548570623040</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963" s="2">
+        <v>23171611807534</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964" s="2">
+        <v>50852962305763</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965" s="2">
+        <v>33705074270539</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966" s="2">
+        <v>33564500178942</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967" s="2">
+        <v>26295393630053</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968" s="2">
+        <v>29148730591574</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" s="2">
+        <v>31583576251384</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" s="2">
+        <v>31724150342981</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" s="2">
+        <v>40642631731583</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972" s="2">
+        <v>33425876797797</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973" s="2">
+        <v>34438193475533</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" s="2">
+        <v>39123535949166</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975" s="2">
+        <v>45791708024219</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976" s="2">
+        <v>35450510153269</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977" s="2">
+        <v>45476892620662</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" s="2">
+        <v>36019061157369</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979" s="2">
+        <v>38409476732033</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980" s="2">
+        <v>38978027736133</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" s="2">
+        <v>41793148996572</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982" s="2">
+        <v>44190780454940</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" s="2">
+        <v>57057701452744</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984" s="2">
+        <v>58602650312834</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985" s="2">
+        <v>54709863333276</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986" s="2">
+        <v>62104314818025</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987" s="2">
+        <v>49467005437587</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988" s="2">
+        <v>52320342399108</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" s="2">
+        <v>55444124221627</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990" s="2">
+        <v>60000467900592</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991" s="2">
+        <v>58019543973034</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992" s="2">
+        <v>57878969881437</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993" s="2">
+        <v>60732306842958</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" s="2">
+        <v>69888703628802</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995" s="2">
+        <v>65150027140778</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996" s="2">
+        <v>75080825207116</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997" s="2">
+        <v>68876386951066</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998" s="2">
+        <v>93687891069409</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999" s="2">
+        <v>128491353941636</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000" s="2">
+        <v>73859986885302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/aoc/inputs.xlsx
+++ b/aoc/inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa_\Desktop\advent-of-code-2020\aoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A93712E-BB8F-41C8-A0D9-9093A61D41E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27A7FC1-7F21-4967-ABC5-359E6291EB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -15946,14 +15947,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -17375,6 +17369,630 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8E2E9F-5538-49E4-B8EC-EF6595692CE0}">
+  <dimension ref="A1:K94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
+        <v>91</v>
+      </c>
+      <c r="C2" t="str">
+        <f>+_xlfn.TEXTJOIN(", ",FALSE,A1:A94)</f>
+        <v>54, 91, 137, 156, 31, 70, 143, 51, 50, 18, 1, 149, 129, 151, 95, 148, 41, 144, 7, 125, 155, 14, 114, 108, 57, 118, 147, 24, 25, 73, 26, 8, 115, 44, 12, 47, 106, 120, 132, 121, 35, 105, 60, 9, 6, 65, 111, 133, 38, 138, 101, 126, 39, 78, 92, 53, 119, 136, 154, 140, 52, 15, 90, 30, 40, 64, 67, 139, 76, 32, 98, 113, 80, 13, 104, 86, 27, 61, 157, 79, 122, 59, 150, 89, 158, 107, 77, 112, 5, 83, 58, 21, 2, 66</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="str">
+        <f>+_xlfn.TEXTJOIN(", ",FALSE,E1:E11)</f>
+        <v>16, 10, 15, 5, 1, 11, 7, 19, 6, 12, 4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>33</v>
+      </c>
+      <c r="K2" t="str">
+        <f>+_xlfn.TEXTJOIN(", ",FALSE,I1:I31)</f>
+        <v>28, 33, 18, 42, 31, 14, 46, 20, 48, 47, 24, 23, 49, 45, 19, 38, 39, 11, 1, 32, 25, 35, 8, 17, 7, 9, 4, 2, 34, 10, 3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>137</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>156</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>143</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>149</v>
+      </c>
+      <c r="I12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
+        <v>129</v>
+      </c>
+      <c r="I13" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>151</v>
+      </c>
+      <c r="I14" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
+        <v>95</v>
+      </c>
+      <c r="I15" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
+        <v>148</v>
+      </c>
+      <c r="I16" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
+        <v>41</v>
+      </c>
+      <c r="I17" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2">
+        <v>144</v>
+      </c>
+      <c r="I18" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2">
+        <v>125</v>
+      </c>
+      <c r="I20" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>155</v>
+      </c>
+      <c r="I21" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
+        <v>114</v>
+      </c>
+      <c r="I23" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2">
+        <v>108</v>
+      </c>
+      <c r="I24" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2">
+        <v>57</v>
+      </c>
+      <c r="I25" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2">
+        <v>118</v>
+      </c>
+      <c r="I26" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2">
+        <v>147</v>
+      </c>
+      <c r="I27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="I29" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2">
+        <v>73</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>26</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7439C419-B875-4E55-AA43-F141E7E7B0CE}">
   <dimension ref="A1:G1000"/>
@@ -34452,7 +35070,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Q22">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>NOT(B1048555="")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43006,22 +43624,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>NOT(G1048555="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>NOT(A1048554="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>NOT(C1048555="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>NOT(E1048554="")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46092,37 +46710,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>NOT(C1048555="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>NOT(D1048555="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>NOT(E1048555="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>NOT(F1048555="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>NOT(G1048555="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>NOT(H1048555="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>NOT(H1048559="")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49346,8 +49964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B96CCD1-CCBB-4BF0-98B9-CB014E96C1FB}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/aoc/inputs.xlsx
+++ b/aoc/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa_\Desktop\advent-of-code-2020\aoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27A7FC1-7F21-4967-ABC5-359E6291EB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD58CE2-B6B7-4B8D-89C1-F1CFACC18934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5881" uniqueCount="5282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5981" uniqueCount="5380">
   <si>
     <t>2-4 r: prrmspx</t>
   </si>
@@ -15889,6 +15890,300 @@
   </si>
   <si>
     <t>jmp -4</t>
+  </si>
+  <si>
+    <t>L.LL.LL.LL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LL</t>
+  </si>
+  <si>
+    <t>L.L.L..L..</t>
+  </si>
+  <si>
+    <t>LLLL.LL.LL</t>
+  </si>
+  <si>
+    <t>L.LLLLL.LL</t>
+  </si>
+  <si>
+    <t>..L.L.....</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>L.LLLLLL.L</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLLL.LL.L.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLLL.LLL..LLLLLLLLLLLLLLLLLLLLLLL..LLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLLLLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLL.LLLLLLLLLLLLLLLLLL.LLLL.LLLLLLLLLLL.LLLLLLLLLLLLLLLL.LLLLL.LLLLLLLL.LLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.L.LLLLLLLL.L.LLLLLL.LLLLLL.LL.LLLLL.LLLLLLLLLLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>.L.....L...L.....LL..L...LLL.L.LL..LLL..LL.LLL...LLLL..L......L..........L...L..LL..LLL.L...L</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLL.LLLLLLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL.L.LLLLLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLLLLL.LL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLL.LL.LLLLLL.LLLL.LLLLL.LLLLL.LLLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LL.LLLLL.LLLLLLLLL.LLLL.</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL..LLL.LLLLLL.L.LLLLLLLLL.LLLL..LLLLLLL.L.L.LLLLL.LLLLLLLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLL.LLL.LLLLLLLLLL.L.LLLL..LLLLLLLLLL.LL.LL.LLLLLL.LLLLL.LLLLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLL.L.LLLLL.LLLLLLL.LL.LLLLLLLLLLL.LLLLL.LLLLLLLLLLLL.</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>L...L..LLL.....L.LL..L.LLLL....LLLL.....L.L.LLL..L.L...LL.LL....L..LLLL..L..L.LL...L.L.....L.</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLLLLLLLL.LLLLLLLL.LLLLLLLLL.LLL.L.LLLLLLLLLLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLLLLLLLL.LLL.LLLLLLL.LLLLLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLLL.LLLL.LLLL.LLL.LLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL.L.LL.LLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL..LLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLLLLLLL.LLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>.........LL..LL..LL..LL.....L..L..LL.............L...L....LLLL...LL...LLL..L...LLL.....L....L</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLL.LLLLL..LLLLLL.L.LLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLL.LLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LL.LLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL.LLLLLLLLL.LLL.LLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLL.LLLLLLLLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLL.LL.LL..LLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLLL.LLLL.LLLLLLLLLL.LLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLL.L.LLLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>...L.L..L.L.L....L....L.LLL.L.L.L..L..L...L....L......L.......L..L.L.L..L..LL...L....L....LL.</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.L.LL.LL.LL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLL.L.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL..LLL..LLLL.LLLL.LL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLL.LLLLLLLLL.LLLLL.L.LLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLLLLLLLLL..LLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LL.LLLLLLLLLL.LLLLLLLLL.LLLLLLLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>..LLLLL...LL...L..L.....L.LL.L....L.L..LL.L......L.L.L..L...L.L..L..L..L.LL..L.L.L..L.....L..</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLL.L.LLLL.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLL.LL.LLLLL.LLLL.LLLLLLLL.LLLLLL.LL.LLLL..LLLLLL.LLLLLLLLLL.LLLL..LLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLLLLLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>.LLLLLL.LLLLLL.LLLLL.LLLLLLLLL.LLL.LLLLLLL.L.LLLLLLLLLLLLLLLL.LLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLLLLLLL.LLLLLLLL.LLLLLLLLL.LLLL.LLLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLL.LL.LLLLLLLLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLL.LL.LL.LLLLLLLLLLLLLL.LL.LLLL.LL.LLLL.</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLLLLLLL.L..LLLLLLLLLLLLLLL.LLLLLLLLLLLL.LLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LL......LLL...L.LL...LL..LLLL.L..L.........L..L.....L..L......L..L...LLL.....LL.......LL.....</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL.L.LL.LLLLLLLL.LLLL.LLLLL.L.LLLLLLLLLL.LLLLLLLLL.LLLLLLLLL..LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.L.LLLL.LLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLL.LLLL.LL.LL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLLLLLLL..LLLLLLLLLLLLLLLLLLLLLLL.L.LLLLL.LLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.L.LLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL.LLLL.LLL.LLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLLL.LLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL.LLL.LLLLLLLLLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLL.L.LLLL.LLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>L....L.L..L.L....L..L.L...L.....L..LL...L.L.L.L.LL..L....LL..LL....L.L.......LLL..LLL...LL..L</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLL.LLLLLLL.LLLLLLLLLLLLLL..LLLLLLLLL.LLLL..LLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLLL.LLLLLLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLL..LLLLL.LLLLLLLLLLLLL.LLLLLL.LL..LLLLLLLLLLLLLLLLLLLLLL.LLLL.LLLLL.LLLLLLLLL.LLL</t>
+  </si>
+  <si>
+    <t>L.L.LLLLLLLLLL.LLLLL.LLLL.LLLLL.LL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLL.LLL.LLLL.LLLLLLLLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLL.LLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLLL.LLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLLLLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.L.LLLLLLLLLL.LLLLL.LLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLL.LLLL.LLLL.LLLLLLLLLLLLLLLLLL.</t>
+  </si>
+  <si>
+    <t>LL.L.LLLLLLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLLLLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>...L..L..L..L....LLL..L.LL....L........L.......L.L.LL.L........L...LLLL....LL.......L.LL..L.L</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LL.LL.LLLLLLLLLL.LL.LLLLLLLLL.LLLLL.LLL..LLLLLLLLLLLL.LLLL..LL.L.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLLL.LLLL.LLLLLLLL.LLLLLLL.L.LL.LL.LLLLLLL.LLLLLLLLLL.LLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLL.LL.L.LLL.LLLL.LLLLLLL..LLLLLLLLL.LLLLLL.LLLLLLLLLLLLLLLL.LLLL..LLLLLLLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLLLLLLLLLLLLL.LLLLL.L.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLLLLLLL.LLLLLLLL.L.LLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLL.LLLL.L.LLL.LLLLLLL..LLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL.L.LL.L.LLL.LLLLLLL.LLLL.</t>
+  </si>
+  <si>
+    <t>....LLLL.L..L....LL..L.....LL..........LL.....L.L..LL.LL......L.L.L.L....L.LL.L.L..L......L..</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLL.LLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLL.LLLLLLLL.LLLL.LLLLLLLL.LLL.LLLLL.LLLL..LLLLLLLLLLLLLLLLL.LLLL.LLLLL..LLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLLLLLLLLL.LL.LLLLL.LLLLLLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LL.LL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLLL.LLLLLLLLLL.</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLL..LLLLLL.LLLLLLL.LL.LLLLLLLLLLLLLLLLLLLLLLLLL.L.LLLLL..LLLL</t>
+  </si>
+  <si>
+    <t>LLL.LLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLL.LL.LLLLLLL.LLLLLLL.L.LLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLL.LLLL.LLLL.LLLLL.LLLL.LLLLLLLLLLLL.LLLLLLLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLL..LLLLLLLLLL.L.LLLL.LLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL.LLLLLLLLLL.LLLLLLL.L.LLL</t>
+  </si>
+  <si>
+    <t>LLLLLLLLLL.LLLLLLLLL.LL.L.LLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLL.LLL.LLLLL</t>
+  </si>
+  <si>
+    <t>L.L...L....LL.L....LL..L...L...LL.L.............LLLLL..LL........LLL.L....L.L...L.L...LLL.LL.</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLLLLLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLL.LLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LL.LLLL.LLLLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLL.LLLLL.LLLLLLL.L.LLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLLLLLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLL.LLLL.LLL.LLLLLLLLLLL.LLL</t>
+  </si>
+  <si>
+    <t>.LLL..LL.L.LL.L...L.L..L...L....L.L................L....L.......L..L.....L...LLL....L....LL..</t>
+  </si>
+  <si>
+    <t>LLLLL.LLLLLLLL.LLLLL.L.LL.LLLLLLLL.LLLLLLLLL..LLLLLLLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLLLLLLL.LL.L.LLL.LLLLLL.LL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLL.LLLLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLLLL.L.LLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLL..LLLLLLLLLLLLLLLLL.LLLLLLLL.L.LLL.LLL.LLLLL.LLLLLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLL.L.LLL.LLLLLLLLLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLL.LLLLLLLL</t>
+  </si>
+  <si>
+    <t>LLLLLLL.LLLLLLLLLLLL..LLL.LLLLLLLL..LLLLLLLLLLLLLL.LLLLLLLLLLL.LLLLLLL.LLLLLLLL.LLLLLLL.LLLLL</t>
   </si>
 </sst>
 </file>
@@ -17373,7 +17668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8E2E9F-5538-49E4-B8EC-EF6595692CE0}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -17985,6 +18280,515 @@
     <row r="94" spans="1:1">
       <c r="A94" s="2">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14A6A99-4FE9-4530-9131-9732C4BC18B5}">
+  <dimension ref="A1:G90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="95.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="107.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>5290</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C2" t="str">
+        <f>+""""&amp;_xlfn.TEXTJOIN(""", """,FALSE,A1:A90)&amp;""""</f>
+        <v>"LLLLLLL.LLLLLLLLLLLL.LL.L.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL", "LLLLLLL.LLLLLLLLLLLL.LLL..LLLLLLLLLLLLLLLLLLLLLLL..LLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLL", "LLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLLLLLLLLLLLLLLL", "LLLLLLLLLLLLLL.LLLLL.LLLLLLLLLLLLLLLLLL.LLLL.LLLLLLLLLLL.LLLLLLLLLLLLLLLL.LLLLL.LLLLLLLL.LLLL", "LLLLLLL.LLLLLL.LLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLL.LLLLLL.L.LLLLLLLL.L.LLLLLL.LLLLLL.LL.LLLLL.LLLLLLLLLLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL", ".L.....L...L.....LL..L...LLL.L.LL..LLL..LL.LLL...LLLL..L......L..........L...L..LL..LLL.L...L", "LLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLL.LLLLLLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLL.LLLLLL.LLLLL.L.LLLLLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLLLLL.LL.LLLLLLLLLLLLL", "LLLL.LL.LLLLLL.LLLL.LLLLL.LLLLL.LLLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LL.LLLLL.LLLLLLLLL.LLLL.", "LLLLLLL.LLLLLL.LLLLL..LLL.LLLLLL.L.LLLLLLLLL.LLLL..LLLLLLL.L.L.LLLLL.LLLLLLLLLL.LLLLLLLLLLLLL", "LLL.LLL.LLLLLLLLLL.L.LLLL..LLLLLLLLLL.LL.LL.LLLLLL.LLLLL.LLLLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLL.L.LLLLL.LLLLLLL.LL.LLLLLLLLLLL.LLLLL.LLLLLLLLLLLL.", "LLLLLLL.LLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLL", "L...L..LLL.....L.LL..L.LLLL....LLLL.....L.L.LLL..L.L...LL.LL....L..LLLL..L..L.LL...L.L.....L.", "LLLLLLL.LLLLLLLLLLLLLLLLL.LLLLLLLL.LLLLLLLLL.LLL.L.LLLLLLLLLLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLLLLLLLL.LLL.LLLLLLL.LLLLLLLLLL.LLLLL", "LLLLLLL.LLLLLLLLLLLL.LLLL.LLLL.LLL.LLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL.L.LL.LLLLL.LLLLLLLLLLLLL", "LLLLLLL..LLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLLLLLLL.LLLLL.LLLLLLLLLLLLL", ".........LL..LL..LL..LL.....L..L..LL.............L...L....LLLL...LL...LLL..L...LLL.....L....L", "LLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLL.LLLLL..LLLLLL.L.LLL", "LLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLL.LLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL", "LLLLLLL.LL.LLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL.LLLLLLLLL.LLL.LLLLLLLLLL", "LLLLLLL.LLLLLLLLLLL.LLLLLLLLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLL.LL.LL..LLLLLLLLLLLL", "LLLLLLL.LLLLLLLLLLLL.LLLL.LLLLLLLLLL.LLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLLLLLL.L.LLLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLL", "...L.L..L.L.L....L....L.LLL.L.L.L..L..L...L....L......L.......L..L.L.L..L..LL...L....L....LL.", "LLLLLLL.LLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.L.LL.LL.LL.LLLLLLLLLLLLL", "LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLL.L.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL..LLL..LLLL.LLLL.LL.LLLLL", "LLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLL.LLLLLLLLL.LLLLL.L.LLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLL", "LLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLLLLLLLLL..LLLL", "LLLLLLL.LLLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LL.LLLLLLLLLL.LLLLLLLLL.LLLLLLLLLL.LLLLLLL.LLLLL", "..LLLLL...LL...L..L.....L.LL.L....L.L..LL.L......L.L.L..L...L.L..L..L..L.LL..L.L.L..L.....L..", "LLLLLLL.LLLLLL.LLL.L.LLLL.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLL.LLL.LL.LLLLL.LLLL.LLLLLLLL.LLLLLL.LL.LLLL..LLLLLL.LLLLLLLLLL.LLLL..LLLL.LLLLLLL.LLLLL", "LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLLLLLLLL.LLLLLLL.LLLLL", ".LLLLLL.LLLLLL.LLLLL.LLLLLLLLL.LLL.LLLLLLL.L.LLLLLLLLLLLLLLLL.LLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLL.LLLLLL.LLLLLLLLLL.LLLLLLLL.LLLLLLLLL.LLLL.LLLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL", "LLLLLLL.LLL.LL.LLLLLLLLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLL.LL.LL.LLLLLLLLLLLLLL.LL.LLLL.LL.LLLL.", "LLLLLLL.LLLLLL.LLLLLLLLLL.L..LLLLLLLLLLLLLLL.LLLLLLLLLLLL.LLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLL", "LL......LLL...L.LL...LL..LLLL.L..L.........L..L.....L..L......L..L...LLL.....LL.......LL.....", "LLLLLLL.LLLLLL.LLLLL.L.LL.LLLLLLLL.LLLL.LLLLL.L.LLLLLLLLLL.LLLLLLLLL.LLLLLLLLL..LLLLLLLLLLLLL", "LLLLLLL.L.LLLL.LLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLL.LLLL.LL.LL.LLLLLLLLLLLLL", "LLLLLLL.LLLLLL.LLLLLLLLLL..LLLLLLLLLLLLLLLLLLLLLLL.L.LLLLL.LLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLL", "LLLLLLL.LLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.L.LLLLLLLLLLL", "LLLLLLL.LLLLLL.LLLLL.LLLL.LLL.LLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL", "LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLLL.LLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL.LLL.LLLLLLLLLLLLLLLLLLLL", "LLLLLLL.LLLLLL.LLL.L.LLLL.LLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL", "L....L.L..L.L....L..L.L...L.....L..LL...L.L.L.L.LL..L....LL..LL....L.L.......LLL..LLL...LL..L", "LLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLL.LLLLLLL.LLLLLLLLLLLLLL..LLLLLLLLL.LLLL..LLLL.LLLLLLLLLLLLL", "LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLLL.LLLLLLLLL.LLLLLLL.LLLLL", "LLLLLLL.LLLLL..LLLLL.LLLLLLLLLLLLL.LLLLLL.LL..LLLLLLLLLLLLLLLLLLLLLL.LLLL.LLLLL.LLLLLLLLL.LLL", "L.L.LLLLLLLLLL.LLLLL.LLLL.LLLLL.LL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLL.LLL.LLLL.LLLLLLLLLLLLLLLLLLL", "LLLLLLL.LLLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLL.LLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLL.LLLLLLLLLLLL.LLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLLLLLLLLL.LLLLL", "LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLL.L.LLLLLLLLLL.LLLLL.LLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLL.LLLL.LLLL.LLLLLLLLLLLLLLLLLL.", "LL.L.LLLLLLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLLLLLLLLL.LLLLL", "...L..L..L..L....LLL..L.LL....L........L.......L.L.LL.L........L...LLLL....LL.......L.LL..L.L", "LLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLL", "LLLLLLL.LLLLLL.LL.LL.LLLLLLLLLL.LL.LLLLLLLLL.LLLLL.LLL..LLLLLLLLLLLL.LLLL..LL.L.LLLLLLL.LLLLL", "LLLLLLL.LLLLLLLLLLLL.LLLL.LLLLLLLL.LLLLLLL.L.LL.LL.LLLLLLL.LLLLLLLLLL.LLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLLLLLL.LL.L.LLL.LLLL.LLLLLLL..LLLLLLLLL.LLLLLL.LLLLLLLLLLLLLLLL.LLLL..LLLLLLLLLLLL.LLLLL", "LLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLLLLLLLLLLLLL.LLLLL.L.LLLLL", "LLLLLLL.LLLLLL.LLLLLLLLLL.LLLLLLLL.L.LLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL", "LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLL.LLLL.L.LLL.LLLLLLL..LLLL", "LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL.L.LL.L.LLL.LLLLLLL.LLLL.", "....LLLL.L..L....LL..L.....LL..........LL.....L.L..LL.LL......L.L.L.L....L.LL.L.L..L......L..", "LLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLL.LLLLLLL", "LLLLLLLLLLL.LLLLLLLL.LLLL.LLLLLLLL.LLL.LLLLL.LLLL..LLLLLLLLLLLLLLLLL.LLLL.LLLLL..LLLLLL.LLLLL", "LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLLLLLLLLL.LL.LLLLL.LLLLLLLLLLLLLLLLLLLLLL.LLLLL.LLLLLLL.LL.LL", "LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLL.LLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLLL.LLLLLLLLLL.", "LLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLL..LLLLLL.LLLLLLL.LL.LLLLLLLLLLLLLLLLLLLLLLLLL.L.LLLLL..LLLL", "LLL.LLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLL.LL.LLLLLLL.LLLLLLL.L.LLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLLLLLLLLL.LLLLL.LLLL.LLLLLLLL.LLLL.LLLL.LLLLL.LLLL.LLLLLLLLLLLL.LLLLLLLLLL.LLLLLLL.LLLLL", "LLLLLL..LLLLLLLLLL.L.LLLL.LLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLL.LLLLLLLLL.LLLLLLLLLL.LLLLLLL.L.LLL", "LLLLLLLLLL.LLLLLLLLL.LL.L.LLLLLLLL.LLLLLLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLL.LLL.LLLLL", "L.L...L....LL.L....LL..L...L...LL.L.............LLLLL..LL........LLL.L....L.L...L.L...LLL.LL.", "LLLLLLL.LLLLLL.LLLLLLLLLL.LLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLLL.LLLLLL.LLLLL", "LL.LLLL.LLLLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLL.LLLLL.LLLLLLL.L.LLL.LLLLLLLLLLLLLLLLLLLLLLLLLLLL", "LLLLLLL.LLLLLL.LLLLL.LLLLLLLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLLLLLLLLLLLL.LLLL.LLLLL.LLLLLLLLLLLLL", "LLLLLLL.LLLLLL.LLLLLLLLLL.LLLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLL.LLLL.LLL.LLLLLLLLLLL.LLL", ".LLL..LL.L.LL.L...L.L..L...L....L.L................L....L.......L..L.....L...LLL....L....LL..", "LLLLL.LLLLLLLL.LLLLL.L.LL.LLLLLLLL.LLLLLLLLL..LLLLLLLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLLLLL.LLLLL", "LLLLLLL.LLLLLL.LLLLLLLLLL.LL.L.LLL.LLLLLL.LL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLL.LLLLLLLLL.LLLLL", "LLLLLLL.LLLLLL.LLLLL.LLLL.LLLLLLLLLL.L.LLLLL.LLLLLLLLLLLLLLLLLLLLLLL.LLLLLLLLLLLLLLLLLL.LLLLL", "LLLLLL..LLLLLLLLLLLLLLLLL.LLLLLLLL.L.LLL.LLL.LLLLL.LLLLLLLLLLLLLLLLL.LLLLLLLLLL.LLLLLLLLLLLLL", "LLLLLLL.LLLL.L.LLL.LLLLLLLLLLLLLLL.LLLLLLLLL.LLLLL.LLLLLLL.LLLLLLLLL.LLLL.LLLLL.LLLL.LLLLLLLL", "LLLLLLL.LLLLLLLLLLLL..LLL.LLLLLLLL..LLLLLLLLLLLLLL.LLLLLLLLLLL.LLLLLLL.LLLLLLLL.LLLLLLL.LLLLL"</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5283</v>
+      </c>
+      <c r="G2" t="str">
+        <f>+""""&amp;_xlfn.TEXTJOIN(""", """,FALSE,E1:E10)&amp;""""</f>
+        <v>"L.LL.LL.LL", "LLLLLLL.LL", "L.L.L..L..", "LLLL.LL.LL", "L.LL.LL.LL", "L.LLLLL.LL", "..L.L.....", "LLLLLLLLLL", "L.LLLLLL.L", "L.LLLLL.LL"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>5292</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>5293</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>5294</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>5295</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>5296</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>5297</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>5298</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>5299</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>5303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>5309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>5311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>5316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>5318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>5328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>5339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>5347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>5366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>5368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>5369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>5372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>5379</v>
       </c>
     </row>
   </sheetData>

--- a/aoc/inputs.xlsx
+++ b/aoc/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa_\Desktop\advent-of-code-2020\aoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD58CE2-B6B7-4B8D-89C1-F1CFACC18934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8153FA6B-4EEE-4F7A-9D12-5B0209B9AC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="11" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,10 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5981" uniqueCount="5380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6741" uniqueCount="5492">
   <si>
     <t>2-4 r: prrmspx</t>
   </si>
@@ -16184,6 +16186,342 @@
   </si>
   <si>
     <t>LLLLLLL.LLLLLLLLLLLL..LLL.LLLLLLLL..LLLLLLLLLLLLLL.LLLLLLLLLLL.LLLLLLL.LLLLLLLL.LLLLLLL.LLLLL</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>R90</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>L180</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>L90</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>R180</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>L270</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>R270</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F98</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F10</t>
   </si>
 </sst>
 </file>
@@ -16652,7 +16990,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2">
@@ -17672,7 +18010,7 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2">
@@ -18292,15 +18630,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14A6A99-4FE9-4530-9131-9732C4BC18B5}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="95.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="107.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="107.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18789,6 +19127,3820 @@
     <row r="90" spans="1:1">
       <c r="A90" s="2" t="s">
         <v>5379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65315DB5-54F4-4FB3-B98E-9167D859BBCD}">
+  <dimension ref="A1:G755"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>5380</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5381</v>
+      </c>
+      <c r="C2" t="str">
+        <f>+""""&amp;_xlfn.TEXTJOIN(""", """,FALSE,A1:A755)&amp;""""</f>
+        <v>"F93", "R90", "F81", "E3", "F80", "R90", "W4", "R90", "F64", "N1", "R90", "W4", "F11", "W1", "L180", "F28", "R90", "W4", "L180", "F95", "N3", "F71", "L90", "W1", "F1", "E2", "L90", "F85", "W3", "L90", "F28", "E3", "N5", "F47", "S2", "R90", "N2", "L90", "W4", "L180", "W3", "F51", "F77", "L90", "W5", "N5", "W3", "S5", "W5", "R180", "N1", "W3", "S5", "F36", "W1", "F34", "N4", "F40", "E2", "S3", "R90", "W5", "S2", "N4", "R90", "S2", "L90", "N4", "L90", "S2", "E1", "F2", "N4", "F65", "N1", "F46", "R180", "F60", "N4", "F45", "R90", "S3", "L90", "F70", "W4", "L270", "N4", "F49", "E3", "F52", "R180", "F5", "E5", "R90", "F43", "L90", "S4", "F54", "N1", "F7", "S2", "F91", "S4", "N3", "E3", "S4", "L180", "F15", "S2", "F90", "W5", "S2", "F80", "N4", "L90", "R90", "N4", "E2", "R180", "E5", "F62", "L90", "N5", "F77", "N5", "F75", "E2", "L90", "S4", "F55", "E1", "N5", "F57", "R90", "F6", "L90", "N3", "E5", "L180", "N2", "L270", "N5", "F8", "E2", "F88", "E3", "N3", "E4", "R90", "N1", "W5", "R90", "N4", "E3", "S3", "R90", "N1", "E2", "F4", "N4", "R90", "N3", "W5", "L180", "E1", "F2", "N4", "W5", "F80", "S4", "F7", "L180", "F96", "L90", "F16", "L90", "E4", "F78", "W2", "R90", "S3", "F29", "W4", "R90", "E4", "F39", "N1", "F48", "E4", "L180", "E1", "R180", "E2", "R90", "N3", "R180", "W2", "N5", "W5", "E3", "F25", "E1", "L180", "N5", "F44", "L90", "N4", "W4", "L90", "F72", "L90", "S1", "E5", "N5", "R90", "N1", "W3", "S5", "R90", "W1", "F14", "L90", "W2", "R90", "W3", "F76", "S5", "W5", "F93", "W4", "R90", "F57", "E3", "R90", "S3", "W1", "R90", "S3", "F8", "R90", "N2", "F46", "W4", "S1", "L90", "E4", "W5", "L90", "W2", "F69", "N5", "W5", "F80", "N3", "E4", "L90", "E4", "F25", "S3", "R180", "F77", "R90", "W2", "F19", "E4", "L180", "W2", "F37", "S2", "F68", "L90", "E2", "F66", "S1", "R90", "F66", "E2", "L180", "F97", "N3", "W4", "F43", "S4", "R180", "N1", "R270", "E3", "N2", "N3", "F65", "L90", "S2", "L90", "N3", "L90", "S3", "F23", "L270", "W3", "S5", "E2", "R90", "S1", "F85", "N3", "R90", "W4", "F58", "E1", "L90", "N3", "L90", "E2", "S1", "F14", "E2", "N5", "W1", "N3", "E1", "L90", "E3", "F43", "E3", "N3", "F21", "E4", "F53", "E2", "L180", "E4", "F20", "E2", "N2", "E5", "L90", "N4", "W3", "N4", "S2", "L90", "W3", "F96", "L90", "S3", "R90", "N1", "E3", "S5", "L270", "F41", "N5", "W5", "S1", "W5", "R90", "F79", "W3", "L90", "E3", "F22", "N1", "L90", "E2", "L90", "R90", "F20", "L90", "W3", "R90", "W2", "L180", "W4", "F57", "R180", "N3", "L90", "F36", "L90", "E2", "R90", "N2", "E3", "N1", "W4", "W4", "N3", "E5", "F54", "R180", "F98", "W1", "R90", "F21", "S1", "L90", "S2", "L90", "S2", "F90", "E4", "S2", "R90", "N5", "F25", "N4", "W3", "N2", "F27", "S3", "E3", "N3", "F15", "L180", "S4", "F62", "W2", "L180", "E2", "N2", "L90", "R90", "F97", "R90", "S1", "R90", "E2", "F16", "W2", "E1", "F89", "W1", "L180", "S3", "W2", "S3", "E1", "F92", "F30", "N1", "E2", "S1", "F76", "E1", "S5", "W5", "F28", "W4", "L90", "F44", "E4", "N5", "F25", "R90", "F59", "S4", "F58", "S2", "F19", "W5", "S4", "E5", "N3", "F37", "E1", "L90", "F40", "E5", "F56", "S2", "W5", "F73", "N5", "F2", "L90", "F18", "E2", "N5", "L90", "F56", "R90", "F18", "W1", "S5", "E1", "N1", "L90", "W2", "E4", "N4", "E1", "W4", "N4", "L90", "N3", "R90", "W5", "S5", "F2", "R180", "F96", "R90", "W3", "F26", "L90", "S4", "E2", "F43", "S2", "R90", "F61", "W5", "F93", "R90", "F95", "L90", "E4", "R90", "N4", "F47", "R90", "W5", "L90", "F42", "L90", "W5", "F87", "R90", "N1", "N2", "E4", "F64", "S5", "L270", "F86", "S4", "W3", "S1", "L90", "F72", "R270", "W1", "F17", "S1", "E2", "R90", "W1", "N1", "F42", "N5", "L90", "F87", "F66", "L90", "N2", "W2", "L90", "S5", "F7", "R90", "N4", "L270", "F2", "W1", "N4", "F94", "W5", "R180", "S4", "F15", "E4", "F76", "N1", "E2", "F68", "S3", "F50", "R270", "E5", "F77", "R90", "S3", "E2", "N3", "S4", "F39", "S1", "E5", "S3", "L90", "E4", "S2", "W3", "F54", "R90", "F44", "L90", "W3", "F59", "R90", "N3", "F37", "E1", "F75", "R90", "F31", "W3", "F70", "S5", "L90", "E1", "F67", "W4", "L90", "S1", "W5", "S1", "S4", "W2", "E2", "S3", "R90", "S2", "E5", "L90", "F43", "R90", "E1", "S5", "F42", "L90", "W1", "N2", "E1", "L180", "S4", "W1", "L90", "F81", "E1", "R180", "N5", "R180", "N5", "L180", "F65", "R90", "F64", "W4", "S4", "R90", "F70", "E1", "S1", "F50", "E2", "S4", "E4", "N2", "S1", "R90", "E4", "R90", "F70", "R90", "N4", "F71", "R180", "F80", "S3", "L90", "N5", "L180", "F11", "N1", "R90", "W2", "N1", "R90", "W4", "R90", "F67", "W3", "R90", "W5", "L90", "E4", "F90", "L90", "N4", "L180", "F48", "R90", "W2", "F94", "R90", "N4", "L90", "W2", "F2", "L90", "W1", "E5", "S2", "W5", "S5", "E2", "N3", "W5", "N1", "F98", "S3", "W3", "L90", "S3", "W4", "R90", "W1", "F64", "N5", "R90", "S5", "W5", "F84", "S1", "E3", "L90", "S3", "E5", "F6", "N4", "W1", "R90", "E4", "F14", "N1", "R90", "F31", "L90", "F24", "F4", "N4", "F54", "S3", "R270", "F98", "E1", "L180", "F2", "E4", "F70", "W1", "R180", "N5", "F23"</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5393</v>
+      </c>
+      <c r="G2" t="str">
+        <f>+""""&amp;_xlfn.TEXTJOIN(""", """,FALSE,E1:E5)&amp;""""</f>
+        <v>"F10", "N3", "F7", "R90", "F11"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>5382</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>5383</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>5384</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>5428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2" t="s">
+        <v>5435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2" t="s">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2" t="s">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2" t="s">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="2" t="s">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="2" t="s">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="2" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2" t="s">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2" t="s">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="2" t="s">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2" t="s">
+        <v>5446</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="2" t="s">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2" t="s">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="2" t="s">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="2" t="s">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="2" t="s">
+        <v>5451</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="2" t="s">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="2" t="s">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="2" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="2" t="s">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="2" t="s">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="2" t="s">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="2" t="s">
+        <v>5455</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="2" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="2" t="s">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="2" t="s">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="2" t="s">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="2" t="s">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="2" t="s">
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="2" t="s">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="2" t="s">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="2" t="s">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="2" t="s">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="2" t="s">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="2" t="s">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="2" t="s">
+        <v>5462</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="2" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="2" t="s">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="2" t="s">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="2" t="s">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="2" t="s">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="2" t="s">
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="2" t="s">
+        <v>5465</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="2" t="s">
+        <v>5466</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="2" t="s">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="2" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="2" t="s">
+        <v>5467</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="2" t="s">
+        <v>5468</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="2" t="s">
+        <v>5469</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="2" t="s">
+        <v>5466</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="2" t="s">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="2" t="s">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="2" t="s">
+        <v>5428</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="2" t="s">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="2" t="s">
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="2" t="s">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="2" t="s">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="2" t="s">
+        <v>5471</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="2" t="s">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="2" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="2" t="s">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="2" t="s">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="2" t="s">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="2" t="s">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="2" t="s">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="2" t="s">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="2" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="2" t="s">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="2" t="s">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="2" t="s">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="2" t="s">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="2" t="s">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="2" t="s">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="2" t="s">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="2" t="s">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="2" t="s">
+        <v>5477</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="2" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="2" t="s">
+        <v>5478</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="2" t="s">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="2" t="s">
+        <v>5478</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="2" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="2" t="s">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="2" t="s">
+        <v>5479</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="2" t="s">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="2" t="s">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="2" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="2" t="s">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="2" t="s">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="2" t="s">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="2" t="s">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="2" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="2" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="2" t="s">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="2" t="s">
+        <v>5451</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="2" t="s">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="2" t="s">
+        <v>5484</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="2" t="s">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="2" t="s">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="2" t="s">
+        <v>5459</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="2" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="2" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="2" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="2" t="s">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="2" t="s">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="2" t="s">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="2" t="s">
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="2" t="s">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="2" t="s">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="2" t="s">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="2" t="s">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="2" t="s">
+        <v>5428</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="2" t="s">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="2" t="s">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="2" t="s">
+        <v>5457</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="2" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="2" t="s">
+        <v>5487</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" s="2" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" s="2" t="s">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="2" t="s">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="2" t="s">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="2" t="s">
+        <v>5382</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="2" t="s">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" s="2" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="2" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="2" t="s">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="2" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="2" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" s="2" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" s="2" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" s="2" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="2" t="s">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" s="2" t="s">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" s="2" t="s">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" s="2" t="s">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="2" t="s">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="2" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="2" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" s="2" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" s="2" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" s="2" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" s="2" t="s">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" s="2" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" s="2" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" s="2" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" s="2" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="2" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" s="2" t="s">
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" s="2" t="s">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" s="2" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" s="2" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" s="2" t="s">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="2" t="s">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" s="2" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" s="2" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" s="2" t="s">
+        <v>5487</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" s="2" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" s="2" t="s">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" s="2" t="s">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" s="2" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" s="2" t="s">
+        <v>5428</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" s="2" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" s="2" t="s">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" s="2" t="s">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" s="2" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" s="2" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" s="2" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" s="2" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" s="2" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" s="2" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" s="2" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" s="2" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" s="2" t="s">
+        <v>5462</v>
       </c>
     </row>
   </sheetData>
@@ -18805,7 +22957,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
@@ -23829,7 +27981,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -26756,7 +30908,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
@@ -31330,7 +35482,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
@@ -35891,7 +40043,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -44460,7 +48612,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -47566,7 +51718,7 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -50772,7 +54924,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2">

--- a/aoc/inputs.xlsx
+++ b/aoc/inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa_\Desktop\advent-of-code-2020\aoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8153FA6B-4EEE-4F7A-9D12-5B0209B9AC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C6C75E-FB21-4B74-8A47-35F4D1F317B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="11" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6741" uniqueCount="5492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7392" uniqueCount="6072">
   <si>
     <t>2-4 r: prrmspx</t>
   </si>
@@ -16522,6 +16524,1746 @@
   </si>
   <si>
     <t>F10</t>
+  </si>
+  <si>
+    <t>mask = 1010X101010010101X00X00011XX11011111</t>
+  </si>
+  <si>
+    <t>mem[1303] = 728</t>
+  </si>
+  <si>
+    <t>mem[5195] = 213352120</t>
+  </si>
+  <si>
+    <t>mem[34818] = 782</t>
+  </si>
+  <si>
+    <t>mem[43971] = 29724050</t>
+  </si>
+  <si>
+    <t>mem[51737] = 1731727</t>
+  </si>
+  <si>
+    <t>mem[5175] = 353551570</t>
+  </si>
+  <si>
+    <t>mem[45056] = 8766</t>
+  </si>
+  <si>
+    <t>mask = 0110X1011110XX111X0011X0X01X00010010</t>
+  </si>
+  <si>
+    <t>mem[7343] = 6334776</t>
+  </si>
+  <si>
+    <t>mem[28415] = 10870</t>
+  </si>
+  <si>
+    <t>mem[4761] = 2912</t>
+  </si>
+  <si>
+    <t>mem[43137] = 14501587</t>
+  </si>
+  <si>
+    <t>mem[27900] = 10713</t>
+  </si>
+  <si>
+    <t>mem[19990] = 519691</t>
+  </si>
+  <si>
+    <t>mask = 001X0X011110X01XX000100X10010100X00X</t>
+  </si>
+  <si>
+    <t>mem[60244] = 1003035</t>
+  </si>
+  <si>
+    <t>mem[4068] = 7428</t>
+  </si>
+  <si>
+    <t>mem[36608] = 846</t>
+  </si>
+  <si>
+    <t>mem[41866] = 7255</t>
+  </si>
+  <si>
+    <t>mem[6694] = 1615</t>
+  </si>
+  <si>
+    <t>mask = 00100X011110101011X01X1X100011X111XX</t>
+  </si>
+  <si>
+    <t>mem[48890] = 66269</t>
+  </si>
+  <si>
+    <t>mem[17236] = 189693</t>
+  </si>
+  <si>
+    <t>mem[2699] = 43253</t>
+  </si>
+  <si>
+    <t>mem[2454] = 3144</t>
+  </si>
+  <si>
+    <t>mem[39460] = 3089616</t>
+  </si>
+  <si>
+    <t>mem[15030] = 12081234</t>
+  </si>
+  <si>
+    <t>mask = 0010010111100011110001XX110X111X1101</t>
+  </si>
+  <si>
+    <t>mem[39460] = 11410</t>
+  </si>
+  <si>
+    <t>mem[60142] = 71274</t>
+  </si>
+  <si>
+    <t>mem[25233] = 1470014</t>
+  </si>
+  <si>
+    <t>mask = 001010XX0110X0X010001001X01011XX010X</t>
+  </si>
+  <si>
+    <t>mem[22857] = 1694968</t>
+  </si>
+  <si>
+    <t>mem[45337] = 4212</t>
+  </si>
+  <si>
+    <t>mem[11908] = 1413</t>
+  </si>
+  <si>
+    <t>mem[22285] = 37595935</t>
+  </si>
+  <si>
+    <t>mem[47401] = 85</t>
+  </si>
+  <si>
+    <t>mask = X0100000010111XX10XX100X00011X101000</t>
+  </si>
+  <si>
+    <t>mem[7417] = 1439</t>
+  </si>
+  <si>
+    <t>mem[30454] = 231239</t>
+  </si>
+  <si>
+    <t>mem[57206] = 135231401</t>
+  </si>
+  <si>
+    <t>mask = X00X00011110X01XX1X0101X01X0X1001101</t>
+  </si>
+  <si>
+    <t>mem[3723] = 783778</t>
+  </si>
+  <si>
+    <t>mem[13431] = 5668213</t>
+  </si>
+  <si>
+    <t>mem[51267] = 10450641</t>
+  </si>
+  <si>
+    <t>mem[34637] = 7118</t>
+  </si>
+  <si>
+    <t>mem[61773] = 37952031</t>
+  </si>
+  <si>
+    <t>mask = 01100011111010100X00X11001100001X01X</t>
+  </si>
+  <si>
+    <t>mem[43657] = 4053</t>
+  </si>
+  <si>
+    <t>mem[60574] = 208</t>
+  </si>
+  <si>
+    <t>mem[63077] = 1061</t>
+  </si>
+  <si>
+    <t>mask = 0010XX011111111X110X01X1011X100101X1</t>
+  </si>
+  <si>
+    <t>mem[3723] = 415</t>
+  </si>
+  <si>
+    <t>mem[3445] = 15859116</t>
+  </si>
+  <si>
+    <t>mem[41920] = 420621</t>
+  </si>
+  <si>
+    <t>mask = 110000X1X11111X01100101001X01X10X010</t>
+  </si>
+  <si>
+    <t>mem[35499] = 20781439</t>
+  </si>
+  <si>
+    <t>mem[52838] = 7255541</t>
+  </si>
+  <si>
+    <t>mask = 11X0X001111111X1110X111XX110100XXX11</t>
+  </si>
+  <si>
+    <t>mem[54458] = 6901034</t>
+  </si>
+  <si>
+    <t>mem[22912] = 933561</t>
+  </si>
+  <si>
+    <t>mem[56316] = 22094822</t>
+  </si>
+  <si>
+    <t>mem[9061] = 4263320</t>
+  </si>
+  <si>
+    <t>mem[18464] = 12349351</t>
+  </si>
+  <si>
+    <t>mask = 0010XXX111101010X10010110X10XXX001X1</t>
+  </si>
+  <si>
+    <t>mem[47210] = 950410</t>
+  </si>
+  <si>
+    <t>mem[44693] = 64746868</t>
+  </si>
+  <si>
+    <t>mem[43376] = 231697502</t>
+  </si>
+  <si>
+    <t>mem[16345] = 64190</t>
+  </si>
+  <si>
+    <t>mem[20801] = 47984501</t>
+  </si>
+  <si>
+    <t>mask = 00101X01111X1X10110000XX011011X00101</t>
+  </si>
+  <si>
+    <t>mem[29047] = 56934570</t>
+  </si>
+  <si>
+    <t>mem[7343] = 34945618</t>
+  </si>
+  <si>
+    <t>mem[20465] = 117516955</t>
+  </si>
+  <si>
+    <t>mem[37958] = 2965</t>
+  </si>
+  <si>
+    <t>mem[42804] = 7022</t>
+  </si>
+  <si>
+    <t>mem[55559] = 2588315</t>
+  </si>
+  <si>
+    <t>mem[42833] = 496336618</t>
+  </si>
+  <si>
+    <t>mask = 001001001X10X01011000XX01011X0X00X1X</t>
+  </si>
+  <si>
+    <t>mem[36900] = 4267113</t>
+  </si>
+  <si>
+    <t>mem[18097] = 787869710</t>
+  </si>
+  <si>
+    <t>mem[20935] = 9666</t>
+  </si>
+  <si>
+    <t>mask = 0X101101X110XX1110110X00011001110110</t>
+  </si>
+  <si>
+    <t>mem[8063] = 61539</t>
+  </si>
+  <si>
+    <t>mem[62771] = 13459</t>
+  </si>
+  <si>
+    <t>mem[22406] = 1573083</t>
+  </si>
+  <si>
+    <t>mem[57402] = 259790331</t>
+  </si>
+  <si>
+    <t>mem[6391] = 60</t>
+  </si>
+  <si>
+    <t>mem[31844] = 43954</t>
+  </si>
+  <si>
+    <t>mem[47641] = 902301</t>
+  </si>
+  <si>
+    <t>mask = XX10X10101001X101X00101010X01XX00111</t>
+  </si>
+  <si>
+    <t>mem[42804] = 3474837</t>
+  </si>
+  <si>
+    <t>mem[8265] = 8147</t>
+  </si>
+  <si>
+    <t>mem[31405] = 23707</t>
+  </si>
+  <si>
+    <t>mem[12687] = 173</t>
+  </si>
+  <si>
+    <t>mem[44291] = 1721</t>
+  </si>
+  <si>
+    <t>mask = X01X1001011XX0X0110001011X011X1X0101</t>
+  </si>
+  <si>
+    <t>mem[23640] = 92068</t>
+  </si>
+  <si>
+    <t>mem[34308] = 47290</t>
+  </si>
+  <si>
+    <t>mem[19715] = 1865698</t>
+  </si>
+  <si>
+    <t>mem[34086] = 11397123</t>
+  </si>
+  <si>
+    <t>mem[38401] = 25087116</t>
+  </si>
+  <si>
+    <t>mem[23653] = 2124900</t>
+  </si>
+  <si>
+    <t>mem[5175] = 59504</t>
+  </si>
+  <si>
+    <t>mask = 010X1101X1101X1010000000101011X01101</t>
+  </si>
+  <si>
+    <t>mem[36608] = 27387896</t>
+  </si>
+  <si>
+    <t>mem[51052] = 9633930</t>
+  </si>
+  <si>
+    <t>mem[49440] = 27834809</t>
+  </si>
+  <si>
+    <t>mem[213] = 6773</t>
+  </si>
+  <si>
+    <t>mem[61490] = 1532</t>
+  </si>
+  <si>
+    <t>mask = 0X10X11101101XX010000010X1101XX10001</t>
+  </si>
+  <si>
+    <t>mem[58790] = 140286263</t>
+  </si>
+  <si>
+    <t>mem[43181] = 7274951</t>
+  </si>
+  <si>
+    <t>mem[33657] = 102007</t>
+  </si>
+  <si>
+    <t>mem[62963] = 38045093</t>
+  </si>
+  <si>
+    <t>mem[10183] = 1593</t>
+  </si>
+  <si>
+    <t>mask = 0X100XX11110101XX1001X1X1110X0010110</t>
+  </si>
+  <si>
+    <t>mem[34818] = 576</t>
+  </si>
+  <si>
+    <t>mem[25241] = 29771912</t>
+  </si>
+  <si>
+    <t>mem[55694] = 25675255</t>
+  </si>
+  <si>
+    <t>mem[55532] = 2905</t>
+  </si>
+  <si>
+    <t>mem[31674] = 22202384</t>
+  </si>
+  <si>
+    <t>mem[40737] = 240265396</t>
+  </si>
+  <si>
+    <t>mask = 01000X01XX1XX01010001XX0XX0011000101</t>
+  </si>
+  <si>
+    <t>mem[3861] = 188</t>
+  </si>
+  <si>
+    <t>mem[31405] = 28053743</t>
+  </si>
+  <si>
+    <t>mem[19392] = 130524</t>
+  </si>
+  <si>
+    <t>mem[53356] = 9628388</t>
+  </si>
+  <si>
+    <t>mask = X010010011X01010110000111X0X00000010</t>
+  </si>
+  <si>
+    <t>mem[29019] = 5874</t>
+  </si>
+  <si>
+    <t>mem[58933] = 3630</t>
+  </si>
+  <si>
+    <t>mem[11075] = 8076</t>
+  </si>
+  <si>
+    <t>mem[26867] = 1617118</t>
+  </si>
+  <si>
+    <t>mem[50839] = 5784986</t>
+  </si>
+  <si>
+    <t>mem[62785] = 2319201</t>
+  </si>
+  <si>
+    <t>mask = X1000111001X0X101110011001X111011110</t>
+  </si>
+  <si>
+    <t>mem[38706] = 3267</t>
+  </si>
+  <si>
+    <t>mem[51436] = 108</t>
+  </si>
+  <si>
+    <t>mem[56768] = 93786924</t>
+  </si>
+  <si>
+    <t>mem[60797] = 1829</t>
+  </si>
+  <si>
+    <t>mem[13226] = 101560323</t>
+  </si>
+  <si>
+    <t>mask = 10100X011XXX11111X000X0XX1X011000101</t>
+  </si>
+  <si>
+    <t>mem[30557] = 24517</t>
+  </si>
+  <si>
+    <t>mem[44625] = 133397612</t>
+  </si>
+  <si>
+    <t>mem[52664] = 13349</t>
+  </si>
+  <si>
+    <t>mem[40985] = 1162102</t>
+  </si>
+  <si>
+    <t>mem[3103] = 144664</t>
+  </si>
+  <si>
+    <t>mask = 01X0X10001111X1010000111XX0110000100</t>
+  </si>
+  <si>
+    <t>mem[18838] = 93742603</t>
+  </si>
+  <si>
+    <t>mem[65481] = 64659697</t>
+  </si>
+  <si>
+    <t>mem[46060] = 6434</t>
+  </si>
+  <si>
+    <t>mem[42804] = 38595</t>
+  </si>
+  <si>
+    <t>mem[28112] = 9053</t>
+  </si>
+  <si>
+    <t>mem[44064] = 36165247</t>
+  </si>
+  <si>
+    <t>mask = 001X110111X110101100XX010X1X010001X1</t>
+  </si>
+  <si>
+    <t>mem[63113] = 127541</t>
+  </si>
+  <si>
+    <t>mem[1765] = 7989</t>
+  </si>
+  <si>
+    <t>mem[9226] = 4084</t>
+  </si>
+  <si>
+    <t>mem[3861] = 97296879</t>
+  </si>
+  <si>
+    <t>mask = 00100X0101101010111X100X010000111X1X</t>
+  </si>
+  <si>
+    <t>mem[35358] = 686552</t>
+  </si>
+  <si>
+    <t>mem[6694] = 1841506</t>
+  </si>
+  <si>
+    <t>mem[55621] = 1345</t>
+  </si>
+  <si>
+    <t>mem[41000] = 60174738</t>
+  </si>
+  <si>
+    <t>mask = 0010000X0XX111X110X000XX00X1011010X1</t>
+  </si>
+  <si>
+    <t>mem[40402] = 145874501</t>
+  </si>
+  <si>
+    <t>mem[57922] = 399</t>
+  </si>
+  <si>
+    <t>mem[52664] = 99438939</t>
+  </si>
+  <si>
+    <t>mask = 1100000111X110111X011X10X11XXX1XX011</t>
+  </si>
+  <si>
+    <t>mem[33569] = 114300</t>
+  </si>
+  <si>
+    <t>mem[61164] = 14120711</t>
+  </si>
+  <si>
+    <t>mask = 11000X0110X1101X1X00110100001001X010</t>
+  </si>
+  <si>
+    <t>mem[53897] = 494676</t>
+  </si>
+  <si>
+    <t>mem[20401] = 3268954</t>
+  </si>
+  <si>
+    <t>mem[11948] = 7012</t>
+  </si>
+  <si>
+    <t>mem[57951] = 596</t>
+  </si>
+  <si>
+    <t>mem[39747] = 190642769</t>
+  </si>
+  <si>
+    <t>mem[48609] = 8683</t>
+  </si>
+  <si>
+    <t>mem[1886] = 30506550</t>
+  </si>
+  <si>
+    <t>mask = 1X101100011010XX1000100100001X000001</t>
+  </si>
+  <si>
+    <t>mem[29590] = 158427</t>
+  </si>
+  <si>
+    <t>mem[60687] = 1158</t>
+  </si>
+  <si>
+    <t>mem[41555] = 82232640</t>
+  </si>
+  <si>
+    <t>mem[8063] = 650</t>
+  </si>
+  <si>
+    <t>mem[62026] = 1522</t>
+  </si>
+  <si>
+    <t>mask = X01X0100111X101X1100101110XX1X100X10</t>
+  </si>
+  <si>
+    <t>mem[62760] = 2759</t>
+  </si>
+  <si>
+    <t>mem[65014] = 15033892</t>
+  </si>
+  <si>
+    <t>mem[16548] = 227511</t>
+  </si>
+  <si>
+    <t>mem[25472] = 940</t>
+  </si>
+  <si>
+    <t>mem[58257] = 303172074</t>
+  </si>
+  <si>
+    <t>mem[25462] = 1448494</t>
+  </si>
+  <si>
+    <t>mem[14207] = 11623</t>
+  </si>
+  <si>
+    <t>mask = 111X00X101X0X011100XX000100101000X00</t>
+  </si>
+  <si>
+    <t>mem[54065] = 385095</t>
+  </si>
+  <si>
+    <t>mem[6381] = 173190</t>
+  </si>
+  <si>
+    <t>mem[45414] = 2576</t>
+  </si>
+  <si>
+    <t>mem[32716] = 216614666</t>
+  </si>
+  <si>
+    <t>mem[47401] = 512991</t>
+  </si>
+  <si>
+    <t>mem[39753] = 1919665</t>
+  </si>
+  <si>
+    <t>mask = 0X00011100100110XX0X011X01111X0X11X0</t>
+  </si>
+  <si>
+    <t>mem[2194] = 547</t>
+  </si>
+  <si>
+    <t>mem[61316] = 3475</t>
+  </si>
+  <si>
+    <t>mem[35639] = 64138</t>
+  </si>
+  <si>
+    <t>mem[24776] = 1204</t>
+  </si>
+  <si>
+    <t>mask = 1X101101X1X01010100000001100X1000100</t>
+  </si>
+  <si>
+    <t>mem[23580] = 234194</t>
+  </si>
+  <si>
+    <t>mem[3192] = 121525545</t>
+  </si>
+  <si>
+    <t>mem[19701] = 4464888</t>
+  </si>
+  <si>
+    <t>mem[30757] = 224067766</t>
+  </si>
+  <si>
+    <t>mem[32607] = 1173</t>
+  </si>
+  <si>
+    <t>mask = 1X1X1100011X101X10000X00110101110111</t>
+  </si>
+  <si>
+    <t>mem[15935] = 3229</t>
+  </si>
+  <si>
+    <t>mem[41229] = 555</t>
+  </si>
+  <si>
+    <t>mem[34746] = 395</t>
+  </si>
+  <si>
+    <t>mem[18832] = 617</t>
+  </si>
+  <si>
+    <t>mask = 0010010111X01XX0110000100000X1010011</t>
+  </si>
+  <si>
+    <t>mem[48352] = 7847</t>
+  </si>
+  <si>
+    <t>mem[6372] = 27568</t>
+  </si>
+  <si>
+    <t>mem[38353] = 7485288</t>
+  </si>
+  <si>
+    <t>mem[4384] = 6397740</t>
+  </si>
+  <si>
+    <t>mem[45671] = 1826</t>
+  </si>
+  <si>
+    <t>mask = 0010000101101010XXX000001XX010100011</t>
+  </si>
+  <si>
+    <t>mem[41581] = 11155</t>
+  </si>
+  <si>
+    <t>mem[16345] = 6986933</t>
+  </si>
+  <si>
+    <t>mem[54042] = 12767</t>
+  </si>
+  <si>
+    <t>mask = 0XXX1X1111101010010X1010011X1101X101</t>
+  </si>
+  <si>
+    <t>mem[2194] = 6152</t>
+  </si>
+  <si>
+    <t>mem[38909] = 83</t>
+  </si>
+  <si>
+    <t>mem[31247] = 1573830</t>
+  </si>
+  <si>
+    <t>mem[60597] = 386</t>
+  </si>
+  <si>
+    <t>mem[6753] = 14417902</t>
+  </si>
+  <si>
+    <t>mask = X110XX1101X011X0100X101001111011X101</t>
+  </si>
+  <si>
+    <t>mem[15722] = 757783</t>
+  </si>
+  <si>
+    <t>mem[50431] = 720318</t>
+  </si>
+  <si>
+    <t>mem[63271] = 210820202</t>
+  </si>
+  <si>
+    <t>mem[53226] = 714717</t>
+  </si>
+  <si>
+    <t>mem[59123] = 4122</t>
+  </si>
+  <si>
+    <t>mask = 0010X001X1X01010X1001011100100010101</t>
+  </si>
+  <si>
+    <t>mem[17236] = 197898992</t>
+  </si>
+  <si>
+    <t>mem[38190] = 2368352</t>
+  </si>
+  <si>
+    <t>mem[9018] = 235</t>
+  </si>
+  <si>
+    <t>mem[1553] = 373976</t>
+  </si>
+  <si>
+    <t>mem[38729] = 89918321</t>
+  </si>
+  <si>
+    <t>mem[31669] = 50727</t>
+  </si>
+  <si>
+    <t>mem[28423] = 18976</t>
+  </si>
+  <si>
+    <t>mask = 111010011111X1X1X101X10101X010X111X1</t>
+  </si>
+  <si>
+    <t>mem[62005] = 1863145</t>
+  </si>
+  <si>
+    <t>mem[62607] = 191764</t>
+  </si>
+  <si>
+    <t>mem[12344] = 516953</t>
+  </si>
+  <si>
+    <t>mem[14945] = 454940</t>
+  </si>
+  <si>
+    <t>mem[44064] = 420728</t>
+  </si>
+  <si>
+    <t>mask = 000001X100100110XX0100101010000XX100</t>
+  </si>
+  <si>
+    <t>mem[2292] = 25305594</t>
+  </si>
+  <si>
+    <t>mem[33356] = 189060799</t>
+  </si>
+  <si>
+    <t>mem[1785] = 100787</t>
+  </si>
+  <si>
+    <t>mem[28040] = 246660557</t>
+  </si>
+  <si>
+    <t>mem[25931] = 365777315</t>
+  </si>
+  <si>
+    <t>mem[50067] = 12600</t>
+  </si>
+  <si>
+    <t>mem[4177] = 142606369</t>
+  </si>
+  <si>
+    <t>mask = 001X11X10110XX10XX001X10000010001001</t>
+  </si>
+  <si>
+    <t>mem[61912] = 261608214</t>
+  </si>
+  <si>
+    <t>mem[44398] = 2204</t>
+  </si>
+  <si>
+    <t>mem[64497] = 697913547</t>
+  </si>
+  <si>
+    <t>mem[10951] = 23268</t>
+  </si>
+  <si>
+    <t>mem[58010] = 589</t>
+  </si>
+  <si>
+    <t>mem[45644] = 445371547</t>
+  </si>
+  <si>
+    <t>mem[24722] = 930518</t>
+  </si>
+  <si>
+    <t>mask = 101000X11001X1X11X00000011X00XX10X01</t>
+  </si>
+  <si>
+    <t>mem[3726] = 93</t>
+  </si>
+  <si>
+    <t>mem[9735] = 3651838</t>
+  </si>
+  <si>
+    <t>mask = 001001X111X01111X100101110X011000011</t>
+  </si>
+  <si>
+    <t>mem[33718] = 1322993</t>
+  </si>
+  <si>
+    <t>mem[37047] = 4759</t>
+  </si>
+  <si>
+    <t>mem[43376] = 833</t>
+  </si>
+  <si>
+    <t>mem[53897] = 3261</t>
+  </si>
+  <si>
+    <t>mem[62389] = 71090581</t>
+  </si>
+  <si>
+    <t>mask = 0X101001011010101100011111X11X0111X0</t>
+  </si>
+  <si>
+    <t>mem[39230] = 906</t>
+  </si>
+  <si>
+    <t>mem[25233] = 3657471</t>
+  </si>
+  <si>
+    <t>mem[7377] = 44247</t>
+  </si>
+  <si>
+    <t>mask = 00101X010X1010101100000XX1011X0001X0</t>
+  </si>
+  <si>
+    <t>mem[25241] = 291758</t>
+  </si>
+  <si>
+    <t>mem[23845] = 1462440</t>
+  </si>
+  <si>
+    <t>mem[51530] = 273094825</t>
+  </si>
+  <si>
+    <t>mem[15135] = 30712212</t>
+  </si>
+  <si>
+    <t>mask = XX1X1X011X1110101101100011101X110X00</t>
+  </si>
+  <si>
+    <t>mem[16538] = 243646453</t>
+  </si>
+  <si>
+    <t>mem[60552] = 27316</t>
+  </si>
+  <si>
+    <t>mem[19220] = 1982193</t>
+  </si>
+  <si>
+    <t>mem[31113] = 2444</t>
+  </si>
+  <si>
+    <t>mask = 101011XX01X010101X0010XX00XX11000101</t>
+  </si>
+  <si>
+    <t>mem[1172] = 24817491</t>
+  </si>
+  <si>
+    <t>mem[15935] = 104503643</t>
+  </si>
+  <si>
+    <t>mask = 1010XX0110111X10X1001010XX0000X000XX</t>
+  </si>
+  <si>
+    <t>mem[8812] = 389608924</t>
+  </si>
+  <si>
+    <t>mem[6230] = 12722765</t>
+  </si>
+  <si>
+    <t>mem[5392] = 251053</t>
+  </si>
+  <si>
+    <t>mem[25888] = 13081575</t>
+  </si>
+  <si>
+    <t>mem[1704] = 158591</t>
+  </si>
+  <si>
+    <t>mem[46201] = 13297</t>
+  </si>
+  <si>
+    <t>mem[61316] = 943</t>
+  </si>
+  <si>
+    <t>mask = 001001X111101X10110X01X0111000011110</t>
+  </si>
+  <si>
+    <t>mem[37958] = 3378989</t>
+  </si>
+  <si>
+    <t>mem[58790] = 16704</t>
+  </si>
+  <si>
+    <t>mem[24122] = 423950643</t>
+  </si>
+  <si>
+    <t>mask = 00X0X0010X0X1X111X001010X00101X01011</t>
+  </si>
+  <si>
+    <t>mem[61319] = 1502</t>
+  </si>
+  <si>
+    <t>mem[49739] = 5640</t>
+  </si>
+  <si>
+    <t>mem[43144] = 101689290</t>
+  </si>
+  <si>
+    <t>mask = 001000X1X1X1X111100X000X0X1X000X0010</t>
+  </si>
+  <si>
+    <t>mem[59936] = 26771</t>
+  </si>
+  <si>
+    <t>mem[50781] = 54614700</t>
+  </si>
+  <si>
+    <t>mem[58566] = 10101</t>
+  </si>
+  <si>
+    <t>mem[32495] = 361</t>
+  </si>
+  <si>
+    <t>mem[32592] = 11958</t>
+  </si>
+  <si>
+    <t>mem[50027] = 200985</t>
+  </si>
+  <si>
+    <t>mem[59514] = 6947531</t>
+  </si>
+  <si>
+    <t>mask = 0XX0X101011010101000X0X01110110X01X0</t>
+  </si>
+  <si>
+    <t>mem[49739] = 794426</t>
+  </si>
+  <si>
+    <t>mem[25462] = 8540549</t>
+  </si>
+  <si>
+    <t>mem[43849] = 2037191</t>
+  </si>
+  <si>
+    <t>mem[11862] = 80922734</t>
+  </si>
+  <si>
+    <t>mem[15935] = 49909230</t>
+  </si>
+  <si>
+    <t>mem[12097] = 9886926</t>
+  </si>
+  <si>
+    <t>mem[16345] = 533565</t>
+  </si>
+  <si>
+    <t>mask = 0110010XX11XXX10100001X0101011001001</t>
+  </si>
+  <si>
+    <t>mem[34380] = 1226</t>
+  </si>
+  <si>
+    <t>mem[46477] = 14011</t>
+  </si>
+  <si>
+    <t>mem[13573] = 110921</t>
+  </si>
+  <si>
+    <t>mask = 01101X0X01101010X000X100111X100X1011</t>
+  </si>
+  <si>
+    <t>mem[17502] = 24422</t>
+  </si>
+  <si>
+    <t>mem[53627] = 60689</t>
+  </si>
+  <si>
+    <t>mem[26767] = 176156438</t>
+  </si>
+  <si>
+    <t>mask = 00101X00111011X01X010010X111001XXX1X</t>
+  </si>
+  <si>
+    <t>mem[35284] = 7683672</t>
+  </si>
+  <si>
+    <t>mem[28519] = 957363766</t>
+  </si>
+  <si>
+    <t>mask = 01X001X10X1X01101XX00111X110110X110X</t>
+  </si>
+  <si>
+    <t>mem[2390] = 50690464</t>
+  </si>
+  <si>
+    <t>mem[9515] = 36413</t>
+  </si>
+  <si>
+    <t>mem[4966] = 455023</t>
+  </si>
+  <si>
+    <t>mem[16345] = 4642</t>
+  </si>
+  <si>
+    <t>mem[23940] = 967447277</t>
+  </si>
+  <si>
+    <t>mask = 001011011X1010X00100X0X0X1000X001101</t>
+  </si>
+  <si>
+    <t>mem[30362] = 492</t>
+  </si>
+  <si>
+    <t>mem[39436] = 55771435</t>
+  </si>
+  <si>
+    <t>mem[54750] = 4405963</t>
+  </si>
+  <si>
+    <t>mem[12154] = 5316113</t>
+  </si>
+  <si>
+    <t>mask = X01001X1111X1111XX0XX01001001X01010X</t>
+  </si>
+  <si>
+    <t>mem[11861] = 8093273</t>
+  </si>
+  <si>
+    <t>mem[5528] = 594330</t>
+  </si>
+  <si>
+    <t>mem[2580] = 749</t>
+  </si>
+  <si>
+    <t>mem[41339] = 2813480</t>
+  </si>
+  <si>
+    <t>mask = 0X100X0101X010101010010X001110XX10X0</t>
+  </si>
+  <si>
+    <t>mem[49739] = 25</t>
+  </si>
+  <si>
+    <t>mem[56763] = 3225353</t>
+  </si>
+  <si>
+    <t>mem[62676] = 82</t>
+  </si>
+  <si>
+    <t>mask = 00X0010111100010X10X101010000X0XX11X</t>
+  </si>
+  <si>
+    <t>mem[24711] = 19689</t>
+  </si>
+  <si>
+    <t>mem[25883] = 1662</t>
+  </si>
+  <si>
+    <t>mem[39685] = 1366</t>
+  </si>
+  <si>
+    <t>mem[64022] = 31675243</t>
+  </si>
+  <si>
+    <t>mask = 1010000110111X1XX1X1X00X1X100X000101</t>
+  </si>
+  <si>
+    <t>mem[50781] = 138807</t>
+  </si>
+  <si>
+    <t>mem[61134] = 212475189</t>
+  </si>
+  <si>
+    <t>mask = 1X10000110111110010X00X010X000X00100</t>
+  </si>
+  <si>
+    <t>mem[26767] = 521755660</t>
+  </si>
+  <si>
+    <t>mem[43849] = 297</t>
+  </si>
+  <si>
+    <t>mem[6773] = 56375</t>
+  </si>
+  <si>
+    <t>mem[7440] = 6344</t>
+  </si>
+  <si>
+    <t>mem[54750] = 375</t>
+  </si>
+  <si>
+    <t>mask = 001001011110XX1X110XX0101XX0X1010X01</t>
+  </si>
+  <si>
+    <t>mem[14512] = 116152715</t>
+  </si>
+  <si>
+    <t>mem[1785] = 849605743</t>
+  </si>
+  <si>
+    <t>mem[28216] = 741473</t>
+  </si>
+  <si>
+    <t>mem[24722] = 98336</t>
+  </si>
+  <si>
+    <t>mem[44689] = 10577</t>
+  </si>
+  <si>
+    <t>mem[61134] = 96966</t>
+  </si>
+  <si>
+    <t>mem[15075] = 68597</t>
+  </si>
+  <si>
+    <t>mask = 1X00000XX11X10X11100101X001X001X1101</t>
+  </si>
+  <si>
+    <t>mem[22210] = 7191</t>
+  </si>
+  <si>
+    <t>mem[10538] = 441544661</t>
+  </si>
+  <si>
+    <t>mask = 000X010111101110110010X1101XX01001X0</t>
+  </si>
+  <si>
+    <t>mem[50023] = 5845123</t>
+  </si>
+  <si>
+    <t>mem[9193] = 343236</t>
+  </si>
+  <si>
+    <t>mem[14594] = 328315</t>
+  </si>
+  <si>
+    <t>mask = 0010XX01X1X0101X10X0101010X011X00010</t>
+  </si>
+  <si>
+    <t>mem[10568] = 213103847</t>
+  </si>
+  <si>
+    <t>mem[35471] = 19909935</t>
+  </si>
+  <si>
+    <t>mem[51052] = 198214667</t>
+  </si>
+  <si>
+    <t>mem[33707] = 212943</t>
+  </si>
+  <si>
+    <t>mem[18838] = 218437742</t>
+  </si>
+  <si>
+    <t>mask = 1X10X00X11X1010101X1101X1110XX0X1100</t>
+  </si>
+  <si>
+    <t>mem[29150] = 3702971</t>
+  </si>
+  <si>
+    <t>mem[28145] = 781579</t>
+  </si>
+  <si>
+    <t>mem[62509] = 517</t>
+  </si>
+  <si>
+    <t>mem[44281] = 3796239</t>
+  </si>
+  <si>
+    <t>mem[29845] = 72642510</t>
+  </si>
+  <si>
+    <t>mem[7666] = 2181716</t>
+  </si>
+  <si>
+    <t>mask = 101X100X1X11101X1X011X00X000000X0000</t>
+  </si>
+  <si>
+    <t>mem[44068] = 3210156</t>
+  </si>
+  <si>
+    <t>mem[34746] = 463</t>
+  </si>
+  <si>
+    <t>mem[19733] = 150</t>
+  </si>
+  <si>
+    <t>mask = 0010000101X0101X1100000X001X000111XX</t>
+  </si>
+  <si>
+    <t>mem[51921] = 5582</t>
+  </si>
+  <si>
+    <t>mem[8182] = 1826115</t>
+  </si>
+  <si>
+    <t>mem[9247] = 159</t>
+  </si>
+  <si>
+    <t>mem[62726] = 65701789</t>
+  </si>
+  <si>
+    <t>mem[13992] = 293819555</t>
+  </si>
+  <si>
+    <t>mask = 0010X0010X101X1011X00X110XX000011101</t>
+  </si>
+  <si>
+    <t>mem[16844] = 508434281</t>
+  </si>
+  <si>
+    <t>mem[48132] = 19312</t>
+  </si>
+  <si>
+    <t>mem[57886] = 10241870</t>
+  </si>
+  <si>
+    <t>mem[33326] = 5734</t>
+  </si>
+  <si>
+    <t>mem[15821] = 61381475</t>
+  </si>
+  <si>
+    <t>mem[2454] = 7235981</t>
+  </si>
+  <si>
+    <t>mem[37695] = 4671</t>
+  </si>
+  <si>
+    <t>mask = 101X1101010010X0100X0XX1110XX1X1110X</t>
+  </si>
+  <si>
+    <t>mem[43877] = 2937</t>
+  </si>
+  <si>
+    <t>mem[41115] = 438513</t>
+  </si>
+  <si>
+    <t>mem[60412] = 12947</t>
+  </si>
+  <si>
+    <t>mem[54334] = 556096</t>
+  </si>
+  <si>
+    <t>mem[61587] = 3806</t>
+  </si>
+  <si>
+    <t>mem[28680] = 5115</t>
+  </si>
+  <si>
+    <t>mask = 0011000111X0X011000XXX1110X1X10X1X11</t>
+  </si>
+  <si>
+    <t>mem[30303] = 2309</t>
+  </si>
+  <si>
+    <t>mem[7287] = 126478</t>
+  </si>
+  <si>
+    <t>mem[213] = 3432</t>
+  </si>
+  <si>
+    <t>mem[32811] = 22838482</t>
+  </si>
+  <si>
+    <t>mem[51164] = 13661</t>
+  </si>
+  <si>
+    <t>mem[37058] = 63634172</t>
+  </si>
+  <si>
+    <t>mask = X010X0011011101X1101X1X0000X00000X00</t>
+  </si>
+  <si>
+    <t>mem[19037] = 78465</t>
+  </si>
+  <si>
+    <t>mem[26276] = 710992554</t>
+  </si>
+  <si>
+    <t>mem[64165] = 398875</t>
+  </si>
+  <si>
+    <t>mem[50921] = 353203677</t>
+  </si>
+  <si>
+    <t>mem[44064] = 1387869</t>
+  </si>
+  <si>
+    <t>mask = 01XX110101X01X10X000001X00010001000X</t>
+  </si>
+  <si>
+    <t>mem[43320] = 109786</t>
+  </si>
+  <si>
+    <t>mem[55034] = 10048064</t>
+  </si>
+  <si>
+    <t>mem[23862] = 1534456</t>
+  </si>
+  <si>
+    <t>mem[26276] = 241328811</t>
+  </si>
+  <si>
+    <t>mem[7886] = 2239</t>
+  </si>
+  <si>
+    <t>mem[61998] = 107016</t>
+  </si>
+  <si>
+    <t>mask = 0110110X01000110X0X01X11000011X01XX1</t>
+  </si>
+  <si>
+    <t>mem[7377] = 671018</t>
+  </si>
+  <si>
+    <t>mem[34883] = 808846</t>
+  </si>
+  <si>
+    <t>mem[32738] = 277</t>
+  </si>
+  <si>
+    <t>mem[27774] = 491651359</t>
+  </si>
+  <si>
+    <t>mask = 1X1000X111111111110011101X10X0110111</t>
+  </si>
+  <si>
+    <t>mem[41555] = 4053944</t>
+  </si>
+  <si>
+    <t>mem[34829] = 751</t>
+  </si>
+  <si>
+    <t>mem[50875] = 443892</t>
+  </si>
+  <si>
+    <t>mask = XXX10001X110101110X0100X1X11X000100X</t>
+  </si>
+  <si>
+    <t>mem[42467] = 95922687</t>
+  </si>
+  <si>
+    <t>mem[33576] = 205350883</t>
+  </si>
+  <si>
+    <t>mem[51342] = 12652555</t>
+  </si>
+  <si>
+    <t>mem[12687] = 1796343</t>
+  </si>
+  <si>
+    <t>mem[3136] = 107821</t>
+  </si>
+  <si>
+    <t>mem[8430] = 21508842</t>
+  </si>
+  <si>
+    <t>mask = X010XX01X11010101X001010X0X011XX0101</t>
+  </si>
+  <si>
+    <t>mem[35499] = 968828445</t>
+  </si>
+  <si>
+    <t>mem[44464] = 3653</t>
+  </si>
+  <si>
+    <t>mem[5361] = 60058</t>
+  </si>
+  <si>
+    <t>mem[30081] = 123907</t>
+  </si>
+  <si>
+    <t>mask = 00111001X110X0101XXX00011001101X0X01</t>
+  </si>
+  <si>
+    <t>mem[6862] = 20247901</t>
+  </si>
+  <si>
+    <t>mem[27705] = 9416895</t>
+  </si>
+  <si>
+    <t>mem[8766] = 1155691</t>
+  </si>
+  <si>
+    <t>mem[48820] = 821601</t>
+  </si>
+  <si>
+    <t>mem[16804] = 9608</t>
+  </si>
+  <si>
+    <t>mem[8357] = 68479859</t>
+  </si>
+  <si>
+    <t>mem[3679] = 6874765</t>
+  </si>
+  <si>
+    <t>mask = 00X0X10X11101X10110X0X0010110X100110</t>
+  </si>
+  <si>
+    <t>mem[19220] = 43510192</t>
+  </si>
+  <si>
+    <t>mem[46054] = 12027499</t>
+  </si>
+  <si>
+    <t>mem[44734] = 12928</t>
+  </si>
+  <si>
+    <t>mem[64207] = 32793280</t>
+  </si>
+  <si>
+    <t>mem[53919] = 788</t>
+  </si>
+  <si>
+    <t>mem[61604] = 43110</t>
+  </si>
+  <si>
+    <t>mask = 1XX000011X1X1X1X110X1X100X1010001011</t>
+  </si>
+  <si>
+    <t>mem[26418] = 45221</t>
+  </si>
+  <si>
+    <t>mem[35535] = 53651</t>
+  </si>
+  <si>
+    <t>mem[51747] = 328535529</t>
+  </si>
+  <si>
+    <t>mem[62676] = 675298</t>
+  </si>
+  <si>
+    <t>mem[63077] = 248663921</t>
+  </si>
+  <si>
+    <t>mask = 0X10X10X0100XX10100XXX11X00010001101</t>
+  </si>
+  <si>
+    <t>mem[1281] = 5448838</t>
+  </si>
+  <si>
+    <t>mem[53899] = 589128</t>
+  </si>
+  <si>
+    <t>mem[60412] = 296</t>
+  </si>
+  <si>
+    <t>mem[60829] = 3224999</t>
+  </si>
+  <si>
+    <t>mem[47927] = 6185999</t>
+  </si>
+  <si>
+    <t>mem[57442] = 2119</t>
+  </si>
+  <si>
+    <t>mask = 1100000111101111110X10000000XX001X11</t>
+  </si>
+  <si>
+    <t>mem[843] = 15340</t>
+  </si>
+  <si>
+    <t>mem[10831] = 930479</t>
+  </si>
+  <si>
+    <t>mem[46477] = 109098</t>
+  </si>
+  <si>
+    <t>mem[48820] = 2088358</t>
+  </si>
+  <si>
+    <t>mem[31113] = 8722</t>
+  </si>
+  <si>
+    <t>mask = 1X100001X01XX1X01100001011000X01X101</t>
+  </si>
+  <si>
+    <t>mem[29801] = 82058</t>
+  </si>
+  <si>
+    <t>mem[26073] = 49617</t>
+  </si>
+  <si>
+    <t>mem[64220] = 788</t>
+  </si>
+  <si>
+    <t>mem[30409] = 62851693</t>
+  </si>
+  <si>
+    <t>mem[36932] = 16032238</t>
+  </si>
+  <si>
+    <t>mem[27496] = 7145</t>
+  </si>
+  <si>
+    <t>mask = X010100111111X10110X1100001X1010X01X</t>
+  </si>
+  <si>
+    <t>mem[44871] = 1176</t>
+  </si>
+  <si>
+    <t>mem[30454] = 416371248</t>
+  </si>
+  <si>
+    <t>mem[52631] = 311042</t>
+  </si>
+  <si>
+    <t>mem[11862] = 960076</t>
+  </si>
+  <si>
+    <t>mem[22356] = 256</t>
+  </si>
+  <si>
+    <t>mask = 0010X1010X001010101010001X0X0X0010X1</t>
+  </si>
+  <si>
+    <t>mem[9193] = 274</t>
+  </si>
+  <si>
+    <t>mem[5787] = 47507</t>
+  </si>
+  <si>
+    <t>mem[24647] = 807446</t>
+  </si>
+  <si>
+    <t>mask = 001000010X1010101100X010001XX0001111</t>
+  </si>
+  <si>
+    <t>mem[23915] = 4026</t>
+  </si>
+  <si>
+    <t>mem[41555] = 1918531</t>
+  </si>
+  <si>
+    <t>mem[54334] = 391383</t>
+  </si>
+  <si>
+    <t>mem[34366] = 9256</t>
+  </si>
+  <si>
+    <t>mem[1303] = 7754953</t>
+  </si>
+  <si>
+    <t>mask = 101X110X01001X00X000X10001110X0X0100</t>
+  </si>
+  <si>
+    <t>mem[56736] = 13339</t>
+  </si>
+  <si>
+    <t>mem[56952] = 432959128</t>
+  </si>
+  <si>
+    <t>mem[53279] = 656667</t>
+  </si>
+  <si>
+    <t>mem[46365] = 2024606</t>
+  </si>
+  <si>
+    <t>mem[65212] = 15190</t>
+  </si>
+  <si>
+    <t>mem[11342] = 42370426</t>
+  </si>
+  <si>
+    <t>mask = 00100X0000011111XX00XX01X1X10010000X</t>
+  </si>
+  <si>
+    <t>mem[48859] = 13295465</t>
+  </si>
+  <si>
+    <t>mem[13701] = 1119634</t>
+  </si>
+  <si>
+    <t>mem[61592] = 60623405</t>
+  </si>
+  <si>
+    <t>mask = X0101XX101101010X100010X010101010100</t>
+  </si>
+  <si>
+    <t>mem[43417] = 214737</t>
+  </si>
+  <si>
+    <t>mem[35728] = 2015</t>
+  </si>
+  <si>
+    <t>mem[28668] = 448775513</t>
+  </si>
+  <si>
+    <t>mem[58101] = 3296</t>
+  </si>
+  <si>
+    <t>mem[28096] = 2626693</t>
+  </si>
+  <si>
+    <t>mem[65358] = 59779358</t>
+  </si>
+  <si>
+    <t>mask = 1010X10XX11010X01X0010X0100X10110110</t>
+  </si>
+  <si>
+    <t>mem[31600] = 571</t>
+  </si>
+  <si>
+    <t>mem[20168] = 261939</t>
+  </si>
+  <si>
+    <t>mem[8575] = 3237</t>
+  </si>
+  <si>
+    <t>mem[18097] = 12166</t>
+  </si>
+  <si>
+    <t>mem[29592] = 293500</t>
+  </si>
+  <si>
+    <t>mem[48171] = 676</t>
+  </si>
+  <si>
+    <t>mem[16380] = 2093</t>
+  </si>
+  <si>
+    <t>mask = 1X100101X100101XX0X01001100X11101111</t>
+  </si>
+  <si>
+    <t>mem[31473] = 1160</t>
+  </si>
+  <si>
+    <t>mem[14821] = 237</t>
+  </si>
+  <si>
+    <t>mem[11809] = 153714176</t>
+  </si>
+  <si>
+    <t>mem[37695] = 39507135</t>
+  </si>
+  <si>
+    <t>mem[55555] = 171731</t>
+  </si>
+  <si>
+    <t>mem[30757] = 3238878</t>
+  </si>
+  <si>
+    <t>mem[5787] = 363</t>
+  </si>
+  <si>
+    <t>mask = 001011X1X100111010X01X10101010001000</t>
+  </si>
+  <si>
+    <t>mem[143] = 147026133</t>
+  </si>
+  <si>
+    <t>mem[15841] = 2748727</t>
+  </si>
+  <si>
+    <t>mem[58986] = 108963</t>
+  </si>
+  <si>
+    <t>mem[42804] = 21362</t>
+  </si>
+  <si>
+    <t>mask = 001X10000X10100XX000100101110X001X00</t>
+  </si>
+  <si>
+    <t>mem[21444] = 118026</t>
+  </si>
+  <si>
+    <t>mem[18464] = 18560</t>
+  </si>
+  <si>
+    <t>mem[13838] = 1005630</t>
+  </si>
+  <si>
+    <t>mem[4380] = 194314</t>
+  </si>
+  <si>
+    <t>mask = 0110110101XX1X1X10XX010X11X0X0000110</t>
+  </si>
+  <si>
+    <t>mem[2974] = 3177</t>
+  </si>
+  <si>
+    <t>mem[19734] = 44943565</t>
+  </si>
+  <si>
+    <t>mem[27376] = 71889</t>
+  </si>
+  <si>
+    <t>mask = X110X1X10110101010X0000010100X01X000</t>
+  </si>
+  <si>
+    <t>mem[59987] = 195313</t>
+  </si>
+  <si>
+    <t>mem[12183] = 28345</t>
+  </si>
+  <si>
+    <t>mem[5495] = 47272</t>
+  </si>
+  <si>
+    <t>mem[19742] = 8940</t>
+  </si>
+  <si>
+    <t>mask = XXXXXXXXXXXXXXXXXXXXXXXXXXXXX1XXXX0X</t>
+  </si>
+  <si>
+    <t>mem[8] = 11</t>
+  </si>
+  <si>
+    <t>mem[7] = 101</t>
+  </si>
+  <si>
+    <t>mem[8] = 0</t>
   </si>
 </sst>
 </file>
@@ -16990,7 +18732,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2">
@@ -18010,7 +19752,7 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2">
@@ -18634,11 +20376,11 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="95.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="107.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="107.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -19139,11 +20881,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65315DB5-54F4-4FB3-B98E-9167D859BBCD}">
   <dimension ref="A1:G755"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
@@ -22941,6 +24683,3230 @@
     <row r="755" spans="1:1">
       <c r="A755" s="2" t="s">
         <v>5462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6655D0-DC81-4676-B922-C6CB4D71354B}">
+  <dimension ref="A1:CB18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:80">
+      <c r="A1" s="2">
+        <v>1000677</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80">
+      <c r="A2" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="T2">
+        <v>41</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="W2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AD2">
+        <v>661</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AQ2">
+        <v>13</v>
+      </c>
+      <c r="AR2">
+        <v>17</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BA2">
+        <v>23</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BI2">
+        <v>521</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BO2">
+        <v>37</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>3875</v>
+      </c>
+      <c r="CB2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80">
+      <c r="C4" t="str">
+        <f>+""""&amp;_xlfn.TEXTJOIN(""", """,FALSE,A2:CB2)&amp;""""</f>
+        <v>"29", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "41", "x", "x", "x", "x", "x", "x", "x", "x", "x", "661", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "13", "17", "x", "x", "x", "x", "x", "x", "x", "x", "23", "x", "x", "x", "x", "x", "x", "x", "521", "x", "x", "x", "x", "x", "37", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "x", "19"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80">
+      <c r="J15">
+        <v>2001</v>
+      </c>
+      <c r="K15">
+        <v>1126</v>
+      </c>
+      <c r="L15">
+        <f>+J15/K15</f>
+        <v>1.7770870337477798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80">
+      <c r="J16">
+        <v>1185</v>
+      </c>
+      <c r="K16">
+        <f>+J16/L15</f>
+        <v>666.82158920539734</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17">
+        <v>990</v>
+      </c>
+      <c r="K17">
+        <f>+J17/L15</f>
+        <v>557.09145427286353</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18">
+        <v>1359</v>
+      </c>
+      <c r="K18">
+        <f>+J18/L15</f>
+        <v>764.73463268365822</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FDF991-65CE-4A8A-8863-96E33FAA9CA1}">
+  <dimension ref="A1:G576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>5492</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>5493</v>
+      </c>
+      <c r="C2" t="str">
+        <f>+""""&amp;_xlfn.TEXTJOIN(""", """,FALSE,A1:A576)&amp;""""</f>
+        <v>"mask = 1010X101010010101X00X00011XX11011111", "mem[1303] = 728", "mem[5195] = 213352120", "mem[34818] = 782", "mem[43971] = 29724050", "mem[51737] = 1731727", "mem[5175] = 353551570", "mem[45056] = 8766", "mask = 0110X1011110XX111X0011X0X01X00010010", "mem[7343] = 6334776", "mem[28415] = 10870", "mem[4761] = 2912", "mem[43137] = 14501587", "mem[27900] = 10713", "mem[19990] = 519691", "mask = 001X0X011110X01XX000100X10010100X00X", "mem[60244] = 1003035", "mem[4068] = 7428", "mem[36608] = 846", "mem[41866] = 7255", "mem[6694] = 1615", "mask = 00100X011110101011X01X1X100011X111XX", "mem[48890] = 66269", "mem[17236] = 189693", "mem[2699] = 43253", "mem[2454] = 3144", "mem[39460] = 3089616", "mem[15030] = 12081234", "mask = 0010010111100011110001XX110X111X1101", "mem[39460] = 11410", "mem[60142] = 71274", "mem[25233] = 1470014", "mask = 001010XX0110X0X010001001X01011XX010X", "mem[22857] = 1694968", "mem[45337] = 4212", "mem[11908] = 1413", "mem[22285] = 37595935", "mem[47401] = 85", "mask = X0100000010111XX10XX100X00011X101000", "mem[7417] = 1439", "mem[30454] = 231239", "mem[57206] = 135231401", "mask = X00X00011110X01XX1X0101X01X0X1001101", "mem[3723] = 783778", "mem[13431] = 5668213", "mem[51267] = 10450641", "mem[34637] = 7118", "mem[61773] = 37952031", "mask = 01100011111010100X00X11001100001X01X", "mem[43657] = 4053", "mem[60574] = 208", "mem[63077] = 1061", "mask = 0010XX011111111X110X01X1011X100101X1", "mem[3723] = 415", "mem[3445] = 15859116", "mem[41920] = 420621", "mask = 110000X1X11111X01100101001X01X10X010", "mem[35499] = 20781439", "mem[52838] = 7255541", "mask = 11X0X001111111X1110X111XX110100XXX11", "mem[54458] = 6901034", "mem[22912] = 933561", "mem[56316] = 22094822", "mem[9061] = 4263320", "mem[18464] = 12349351", "mask = 0010XXX111101010X10010110X10XXX001X1", "mem[47210] = 950410", "mem[44693] = 64746868", "mem[43376] = 231697502", "mem[16345] = 64190", "mem[20801] = 47984501", "mask = 00101X01111X1X10110000XX011011X00101", "mem[29047] = 56934570", "mem[7343] = 34945618", "mem[20465] = 117516955", "mem[37958] = 2965", "mem[42804] = 7022", "mem[55559] = 2588315", "mem[42833] = 496336618", "mask = 001001001X10X01011000XX01011X0X00X1X", "mem[36900] = 4267113", "mem[18097] = 787869710", "mem[20935] = 9666", "mask = 0X101101X110XX1110110X00011001110110", "mem[8063] = 61539", "mem[62771] = 13459", "mem[22406] = 1573083", "mem[57402] = 259790331", "mem[6391] = 60", "mem[31844] = 43954", "mem[47641] = 902301", "mask = XX10X10101001X101X00101010X01XX00111", "mem[42804] = 3474837", "mem[8265] = 8147", "mem[31405] = 23707", "mem[12687] = 173", "mem[44291] = 1721", "mask = X01X1001011XX0X0110001011X011X1X0101", "mem[23640] = 92068", "mem[34308] = 47290", "mem[19715] = 1865698", "mem[34086] = 11397123", "mem[38401] = 25087116", "mem[23653] = 2124900", "mem[5175] = 59504", "mask = 010X1101X1101X1010000000101011X01101", "mem[36608] = 27387896", "mem[51052] = 9633930", "mem[49440] = 27834809", "mem[213] = 6773", "mem[61490] = 1532", "mask = 0X10X11101101XX010000010X1101XX10001", "mem[58790] = 140286263", "mem[43181] = 7274951", "mem[33657] = 102007", "mem[62963] = 38045093", "mem[10183] = 1593", "mask = 0X100XX11110101XX1001X1X1110X0010110", "mem[34818] = 576", "mem[25241] = 29771912", "mem[55694] = 25675255", "mem[55532] = 2905", "mem[31674] = 22202384", "mem[40737] = 240265396", "mask = 01000X01XX1XX01010001XX0XX0011000101", "mem[3861] = 188", "mem[31405] = 28053743", "mem[19392] = 130524", "mem[53356] = 9628388", "mask = X010010011X01010110000111X0X00000010", "mem[29019] = 5874", "mem[58933] = 3630", "mem[11075] = 8076", "mem[26867] = 1617118", "mem[50839] = 5784986", "mem[62785] = 2319201", "mask = X1000111001X0X101110011001X111011110", "mem[38706] = 3267", "mem[51436] = 108", "mem[56768] = 93786924", "mem[60797] = 1829", "mem[13226] = 101560323", "mask = 10100X011XXX11111X000X0XX1X011000101", "mem[30557] = 24517", "mem[44625] = 133397612", "mem[52664] = 13349", "mem[40985] = 1162102", "mem[3103] = 144664", "mask = 01X0X10001111X1010000111XX0110000100", "mem[18838] = 93742603", "mem[65481] = 64659697", "mem[46060] = 6434", "mem[42804] = 38595", "mem[28112] = 9053", "mem[44064] = 36165247", "mask = 001X110111X110101100XX010X1X010001X1", "mem[63113] = 127541", "mem[1765] = 7989", "mem[9226] = 4084", "mem[3861] = 97296879", "mask = 00100X0101101010111X100X010000111X1X", "mem[35358] = 686552", "mem[6694] = 1841506", "mem[55621] = 1345", "mem[41000] = 60174738", "mask = 0010000X0XX111X110X000XX00X1011010X1", "mem[40402] = 145874501", "mem[57922] = 399", "mem[52664] = 99438939", "mask = 1100000111X110111X011X10X11XXX1XX011", "mem[33569] = 114300", "mem[61164] = 14120711", "mask = 11000X0110X1101X1X00110100001001X010", "mem[53897] = 494676", "mem[20401] = 3268954", "mem[11948] = 7012", "mem[57951] = 596", "mem[39747] = 190642769", "mem[48609] = 8683", "mem[1886] = 30506550", "mask = 1X101100011010XX1000100100001X000001", "mem[29590] = 158427", "mem[60687] = 1158", "mem[41555] = 82232640", "mem[8063] = 650", "mem[62026] = 1522", "mask = X01X0100111X101X1100101110XX1X100X10", "mem[62760] = 2759", "mem[65014] = 15033892", "mem[16548] = 227511", "mem[25472] = 940", "mem[58257] = 303172074", "mem[25462] = 1448494", "mem[14207] = 11623", "mask = 111X00X101X0X011100XX000100101000X00", "mem[54065] = 385095", "mem[6381] = 173190", "mem[45414] = 2576", "mem[32716] = 216614666", "mem[47401] = 512991", "mem[39753] = 1919665", "mask = 0X00011100100110XX0X011X01111X0X11X0", "mem[2194] = 547", "mem[61316] = 3475", "mem[35639] = 64138", "mem[24776] = 1204", "mask = 1X101101X1X01010100000001100X1000100", "mem[23580] = 234194", "mem[3192] = 121525545", "mem[19701] = 4464888", "mem[30757] = 224067766", "mem[32607] = 1173", "mask = 1X1X1100011X101X10000X00110101110111", "mem[15935] = 3229", "mem[41229] = 555", "mem[34746] = 395", "mem[18832] = 617", "mask = 0010010111X01XX0110000100000X1010011", "mem[48352] = 7847", "mem[6372] = 27568", "mem[38353] = 7485288", "mem[4384] = 6397740", "mem[45671] = 1826", "mask = 0010000101101010XXX000001XX010100011", "mem[41581] = 11155", "mem[16345] = 6986933", "mem[54042] = 12767", "mask = 0XXX1X1111101010010X1010011X1101X101", "mem[2194] = 6152", "mem[38909] = 83", "mem[31247] = 1573830", "mem[60597] = 386", "mem[6753] = 14417902", "mask = X110XX1101X011X0100X101001111011X101", "mem[15722] = 757783", "mem[50431] = 720318", "mem[63271] = 210820202", "mem[53226] = 714717", "mem[59123] = 4122", "mask = 0010X001X1X01010X1001011100100010101", "mem[17236] = 197898992", "mem[38190] = 2368352", "mem[9018] = 235", "mem[1553] = 373976", "mem[38729] = 89918321", "mem[31669] = 50727", "mem[28423] = 18976", "mask = 111010011111X1X1X101X10101X010X111X1", "mem[62005] = 1863145", "mem[62607] = 191764", "mem[12344] = 516953", "mem[14945] = 454940", "mem[44064] = 420728", "mask = 000001X100100110XX0100101010000XX100", "mem[2292] = 25305594", "mem[33356] = 189060799", "mem[1785] = 100787", "mem[28040] = 246660557", "mem[25931] = 365777315", "mem[50067] = 12600", "mem[4177] = 142606369", "mask = 001X11X10110XX10XX001X10000010001001", "mem[61912] = 261608214", "mem[44398] = 2204", "mem[64497] = 697913547", "mem[10951] = 23268", "mem[58010] = 589", "mem[45644] = 445371547", "mem[24722] = 930518", "mask = 101000X11001X1X11X00000011X00XX10X01", "mem[3726] = 93", "mem[9735] = 3651838", "mask = 001001X111X01111X100101110X011000011", "mem[33718] = 1322993", "mem[37047] = 4759", "mem[43376] = 833", "mem[53897] = 3261", "mem[62389] = 71090581", "mask = 0X101001011010101100011111X11X0111X0", "mem[39230] = 906", "mem[25233] = 3657471", "mem[7377] = 44247", "mask = 00101X010X1010101100000XX1011X0001X0", "mem[25241] = 291758", "mem[23845] = 1462440", "mem[51530] = 273094825", "mem[15135] = 30712212", "mask = XX1X1X011X1110101101100011101X110X00", "mem[16538] = 243646453", "mem[60552] = 27316", "mem[19220] = 1982193", "mem[31113] = 2444", "mask = 101011XX01X010101X0010XX00XX11000101", "mem[1172] = 24817491", "mem[15935] = 104503643", "mask = 1010XX0110111X10X1001010XX0000X000XX", "mem[8812] = 389608924", "mem[6230] = 12722765", "mem[5392] = 251053", "mem[25888] = 13081575", "mem[1704] = 158591", "mem[46201] = 13297", "mem[61316] = 943", "mask = 001001X111101X10110X01X0111000011110", "mem[37958] = 3378989", "mem[58790] = 16704", "mem[24122] = 423950643", "mask = 00X0X0010X0X1X111X001010X00101X01011", "mem[61319] = 1502", "mem[49739] = 5640", "mem[43144] = 101689290", "mask = 001000X1X1X1X111100X000X0X1X000X0010", "mem[59936] = 26771", "mem[50781] = 54614700", "mem[58566] = 10101", "mem[32495] = 361", "mem[32592] = 11958", "mem[50027] = 200985", "mem[59514] = 6947531", "mask = 0XX0X101011010101000X0X01110110X01X0", "mem[49739] = 794426", "mem[25462] = 8540549", "mem[43849] = 2037191", "mem[11862] = 80922734", "mem[15935] = 49909230", "mem[12097] = 9886926", "mem[16345] = 533565", "mask = 0110010XX11XXX10100001X0101011001001", "mem[34380] = 1226", "mem[46477] = 14011", "mem[13573] = 110921", "mask = 01101X0X01101010X000X100111X100X1011", "mem[17502] = 24422", "mem[53627] = 60689", "mem[26767] = 176156438", "mask = 00101X00111011X01X010010X111001XXX1X", "mem[35284] = 7683672", "mem[28519] = 957363766", "mask = 01X001X10X1X01101XX00111X110110X110X", "mem[2390] = 50690464", "mem[9515] = 36413", "mem[4966] = 455023", "mem[16345] = 4642", "mem[23940] = 967447277", "mask = 001011011X1010X00100X0X0X1000X001101", "mem[30362] = 492", "mem[39436] = 55771435", "mem[54750] = 4405963", "mem[12154] = 5316113", "mask = X01001X1111X1111XX0XX01001001X01010X", "mem[11861] = 8093273", "mem[5528] = 594330", "mem[2580] = 749", "mem[41339] = 2813480", "mask = 0X100X0101X010101010010X001110XX10X0", "mem[49739] = 25", "mem[56763] = 3225353", "mem[62676] = 82", "mask = 00X0010111100010X10X101010000X0XX11X", "mem[24711] = 19689", "mem[25883] = 1662", "mem[39685] = 1366", "mem[64022] = 31675243", "mask = 1010000110111X1XX1X1X00X1X100X000101", "mem[50781] = 138807", "mem[61134] = 212475189", "mask = 1X10000110111110010X00X010X000X00100", "mem[26767] = 521755660", "mem[43849] = 297", "mem[6773] = 56375", "mem[7440] = 6344", "mem[54750] = 375", "mask = 001001011110XX1X110XX0101XX0X1010X01", "mem[14512] = 116152715", "mem[1785] = 849605743", "mem[28216] = 741473", "mem[24722] = 98336", "mem[44689] = 10577", "mem[61134] = 96966", "mem[15075] = 68597", "mask = 1X00000XX11X10X11100101X001X001X1101", "mem[22210] = 7191", "mem[10538] = 441544661", "mask = 000X010111101110110010X1101XX01001X0", "mem[50023] = 5845123", "mem[9193] = 343236", "mem[14594] = 328315", "mask = 0010XX01X1X0101X10X0101010X011X00010", "mem[10568] = 213103847", "mem[35471] = 19909935", "mem[51052] = 198214667", "mem[33707] = 212943", "mem[18838] = 218437742", "mask = 1X10X00X11X1010101X1101X1110XX0X1100", "mem[29150] = 3702971", "mem[28145] = 781579", "mem[62509] = 517", "mem[44281] = 3796239", "mem[29845] = 72642510", "mem[7666] = 2181716", "mask = 101X100X1X11101X1X011X00X000000X0000", "mem[44068] = 3210156", "mem[34746] = 463", "mem[19733] = 150", "mask = 0010000101X0101X1100000X001X000111XX", "mem[51921] = 5582", "mem[8182] = 1826115", "mem[9247] = 159", "mem[62726] = 65701789", "mem[13992] = 293819555", "mask = 0010X0010X101X1011X00X110XX000011101", "mem[16844] = 508434281", "mem[48132] = 19312", "mem[57886] = 10241870", "mem[33326] = 5734", "mem[15821] = 61381475", "mem[2454] = 7235981", "mem[37695] = 4671", "mask = 101X1101010010X0100X0XX1110XX1X1110X", "mem[43877] = 2937", "mem[41115] = 438513", "mem[60412] = 12947", "mem[54334] = 556096", "mem[61587] = 3806", "mem[28680] = 5115", "mask = 0011000111X0X011000XXX1110X1X10X1X11", "mem[30303] = 2309", "mem[7287] = 126478", "mem[213] = 3432", "mem[32811] = 22838482", "mem[51164] = 13661", "mem[37058] = 63634172", "mask = X010X0011011101X1101X1X0000X00000X00", "mem[19037] = 78465", "mem[26276] = 710992554", "mem[64165] = 398875", "mem[50921] = 353203677", "mem[44064] = 1387869", "mask = 01XX110101X01X10X000001X00010001000X", "mem[43320] = 109786", "mem[55034] = 10048064", "mem[23862] = 1534456", "mem[26276] = 241328811", "mem[7886] = 2239", "mem[61998] = 107016", "mask = 0110110X01000110X0X01X11000011X01XX1", "mem[7377] = 671018", "mem[34883] = 808846", "mem[32738] = 277", "mem[27774] = 491651359", "mask = 1X1000X111111111110011101X10X0110111", "mem[41555] = 4053944", "mem[34829] = 751", "mem[50875] = 443892", "mask = XXX10001X110101110X0100X1X11X000100X", "mem[42467] = 95922687", "mem[33576] = 205350883", "mem[51342] = 12652555", "mem[12687] = 1796343", "mem[3136] = 107821", "mem[8430] = 21508842", "mask = X010XX01X11010101X001010X0X011XX0101", "mem[35499] = 968828445", "mem[44464] = 3653", "mem[5361] = 60058", "mem[30081] = 123907", "mask = 00111001X110X0101XXX00011001101X0X01", "mem[6862] = 20247901", "mem[27705] = 9416895", "mem[8766] = 1155691", "mem[48820] = 821601", "mem[16804] = 9608", "mem[8357] = 68479859", "mem[3679] = 6874765", "mask = 00X0X10X11101X10110X0X0010110X100110", "mem[19220] = 43510192", "mem[46054] = 12027499", "mem[44734] = 12928", "mem[64207] = 32793280", "mem[53919] = 788", "mem[61604] = 43110", "mask = 1XX000011X1X1X1X110X1X100X1010001011", "mem[26418] = 45221", "mem[35535] = 53651", "mem[51747] = 328535529", "mem[62676] = 675298", "mem[63077] = 248663921", "mask = 0X10X10X0100XX10100XXX11X00010001101", "mem[1281] = 5448838", "mem[53899] = 589128", "mem[60412] = 296", "mem[60829] = 3224999", "mem[47927] = 6185999", "mem[57442] = 2119", "mask = 1100000111101111110X10000000XX001X11", "mem[843] = 15340", "mem[10831] = 930479", "mem[46477] = 109098", "mem[48820] = 2088358", "mem[31113] = 8722", "mask = 1X100001X01XX1X01100001011000X01X101", "mem[29801] = 82058", "mem[26073] = 49617", "mem[64220] = 788", "mem[30409] = 62851693", "mem[36932] = 16032238", "mem[27496] = 7145", "mask = X010100111111X10110X1100001X1010X01X", "mem[44871] = 1176", "mem[30454] = 416371248", "mem[52631] = 311042", "mem[11862] = 960076", "mem[22356] = 256", "mask = 0010X1010X001010101010001X0X0X0010X1", "mem[9193] = 274", "mem[5787] = 47507", "mem[24647] = 807446", "mask = 001000010X1010101100X010001XX0001111", "mem[23915] = 4026", "mem[41555] = 1918531", "mem[54334] = 391383", "mem[34366] = 9256", "mem[1303] = 7754953", "mask = 101X110X01001X00X000X10001110X0X0100", "mem[56736] = 13339", "mem[56952] = 432959128", "mem[53279] = 656667", "mem[46365] = 2024606", "mem[65212] = 15190", "mem[11342] = 42370426", "mask = 00100X0000011111XX00XX01X1X10010000X", "mem[48859] = 13295465", "mem[13701] = 1119634", "mem[61592] = 60623405", "mask = X0101XX101101010X100010X010101010100", "mem[43417] = 214737", "mem[35728] = 2015", "mem[28668] = 448775513", "mem[58101] = 3296", "mem[28096] = 2626693", "mem[65358] = 59779358", "mask = 1010X10XX11010X01X0010X0100X10110110", "mem[31600] = 571", "mem[20168] = 261939", "mem[8575] = 3237", "mem[18097] = 12166", "mem[29592] = 293500", "mem[48171] = 676", "mem[16380] = 2093", "mask = 1X100101X100101XX0X01001100X11101111", "mem[31473] = 1160", "mem[14821] = 237", "mem[11809] = 153714176", "mem[37695] = 39507135", "mem[55555] = 171731", "mem[30757] = 3238878", "mem[5787] = 363", "mask = 001011X1X100111010X01X10101010001000", "mem[143] = 147026133", "mem[15841] = 2748727", "mem[58986] = 108963", "mem[42804] = 21362", "mask = 001X10000X10100XX000100101110X001X00", "mem[21444] = 118026", "mem[18464] = 18560", "mem[13838] = 1005630", "mem[4380] = 194314", "mask = 0110110101XX1X1X10XX010X11X0X0000110", "mem[2974] = 3177", "mem[19734] = 44943565", "mem[27376] = 71889", "mask = X110X1X10110101010X0000010100X01X000", "mem[59987] = 195313", "mem[12183] = 28345", "mem[5495] = 47272", "mem[19742] = 8940"</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6069</v>
+      </c>
+      <c r="G2" t="str">
+        <f>+""""&amp;_xlfn.TEXTJOIN(""", """,FALSE,E1:E4)&amp;""""</f>
+        <v>"mask = XXXXXXXXXXXXXXXXXXXXXXXXXXXXX1XXXX0X", "mem[8] = 11", "mem[7] = 101", "mem[8] = 0"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>5494</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>5495</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>5498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>5501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>5502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>5506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>5507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>5509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>5519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>5521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>5524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>5528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>5533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>5536</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>5539</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>5544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>5546</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>5548</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>5551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>5557</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>5558</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>5562</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>5565</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>5569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>5573</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>5574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>5575</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>5577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>5578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>5581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>5582</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>5587</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>5588</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>5589</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>5592</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>5594</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2" t="s">
+        <v>5597</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>5602</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>5603</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>5604</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2" t="s">
+        <v>5612</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2" t="s">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2" t="s">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>5615</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="s">
+        <v>5617</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2" t="s">
+        <v>5619</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2" t="s">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2" t="s">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2" t="s">
+        <v>5622</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2" t="s">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2" t="s">
+        <v>5624</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2" t="s">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2" t="s">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2" t="s">
+        <v>5627</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2" t="s">
+        <v>5628</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2" t="s">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2" t="s">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2" t="s">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2" t="s">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2" t="s">
+        <v>5633</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2" t="s">
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2" t="s">
+        <v>5635</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="2" t="s">
+        <v>5636</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="2" t="s">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="2" t="s">
+        <v>5638</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2" t="s">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2" t="s">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2" t="s">
+        <v>5641</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="2" t="s">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="2" t="s">
+        <v>5643</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="2" t="s">
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="2" t="s">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="2" t="s">
+        <v>5646</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="2" t="s">
+        <v>5647</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="2" t="s">
+        <v>5648</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="2" t="s">
+        <v>5649</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="2" t="s">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="2" t="s">
+        <v>5651</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2" t="s">
+        <v>5652</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="2" t="s">
+        <v>5653</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="2" t="s">
+        <v>5654</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="2" t="s">
+        <v>5655</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2" t="s">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="2" t="s">
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="2" t="s">
+        <v>5658</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2" t="s">
+        <v>5659</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2" t="s">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="2" t="s">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2" t="s">
+        <v>5662</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="2" t="s">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2" t="s">
+        <v>5664</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="2" t="s">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2" t="s">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="2" t="s">
+        <v>5667</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2" t="s">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="2" t="s">
+        <v>5669</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="2" t="s">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="2" t="s">
+        <v>5671</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2" t="s">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2" t="s">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="2" t="s">
+        <v>5674</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2" t="s">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="2" t="s">
+        <v>5676</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="2" t="s">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2" t="s">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2" t="s">
+        <v>5679</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="2" t="s">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="2" t="s">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2" t="s">
+        <v>5682</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2" t="s">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2" t="s">
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2" t="s">
+        <v>5685</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2" t="s">
+        <v>5686</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2" t="s">
+        <v>5687</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2" t="s">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2" t="s">
+        <v>5689</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="2" t="s">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2" t="s">
+        <v>5691</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="2" t="s">
+        <v>5692</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="2" t="s">
+        <v>5693</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="2" t="s">
+        <v>5694</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="2" t="s">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="2" t="s">
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="2" t="s">
+        <v>5697</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="2" t="s">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="2" t="s">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="2" t="s">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="2" t="s">
+        <v>5701</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="2" t="s">
+        <v>5702</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="2" t="s">
+        <v>5703</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="2" t="s">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="2" t="s">
+        <v>5705</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="2" t="s">
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="2" t="s">
+        <v>5707</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="2" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="2" t="s">
+        <v>5709</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="2" t="s">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="2" t="s">
+        <v>5711</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="2" t="s">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="2" t="s">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="2" t="s">
+        <v>5714</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="2" t="s">
+        <v>5715</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="2" t="s">
+        <v>5716</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="2" t="s">
+        <v>5717</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="2" t="s">
+        <v>5718</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="2" t="s">
+        <v>5719</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="2" t="s">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="2" t="s">
+        <v>5721</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="2" t="s">
+        <v>5722</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="2" t="s">
+        <v>5723</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="2" t="s">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="2" t="s">
+        <v>5725</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="2" t="s">
+        <v>5726</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="2" t="s">
+        <v>5727</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="2" t="s">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="2" t="s">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="2" t="s">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="2" t="s">
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="2" t="s">
+        <v>5732</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="2" t="s">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="2" t="s">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="2" t="s">
+        <v>5735</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="2" t="s">
+        <v>5736</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="2" t="s">
+        <v>5737</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="2" t="s">
+        <v>5738</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="2" t="s">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="2" t="s">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="2" t="s">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="2" t="s">
+        <v>5742</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="2" t="s">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="2" t="s">
+        <v>5744</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="2" t="s">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="2" t="s">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="2" t="s">
+        <v>5747</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="2" t="s">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="2" t="s">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="2" t="s">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="2" t="s">
+        <v>5751</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="2" t="s">
+        <v>5752</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="2" t="s">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="2" t="s">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="2" t="s">
+        <v>5755</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="2" t="s">
+        <v>5756</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="2" t="s">
+        <v>5757</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="2" t="s">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="2" t="s">
+        <v>5759</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="2" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="2" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="2" t="s">
+        <v>5762</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="2" t="s">
+        <v>5763</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="2" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="2" t="s">
+        <v>5765</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="2" t="s">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="2" t="s">
+        <v>5767</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="2" t="s">
+        <v>5768</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="2" t="s">
+        <v>5769</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="2" t="s">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="2" t="s">
+        <v>5771</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="2" t="s">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="2" t="s">
+        <v>5773</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="2" t="s">
+        <v>5774</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="2" t="s">
+        <v>5775</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="2" t="s">
+        <v>5776</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="2" t="s">
+        <v>5777</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="2" t="s">
+        <v>5778</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="2" t="s">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="2" t="s">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="2" t="s">
+        <v>5781</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="2" t="s">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="2" t="s">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="2" t="s">
+        <v>5784</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="2" t="s">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="2" t="s">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="2" t="s">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="2" t="s">
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="2" t="s">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="2" t="s">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="2" t="s">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="2" t="s">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="2" t="s">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="2" t="s">
+        <v>5794</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="2" t="s">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="2" t="s">
+        <v>5796</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="2" t="s">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="2" t="s">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="2" t="s">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="2" t="s">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="2" t="s">
+        <v>5801</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="2" t="s">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="2" t="s">
+        <v>5803</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="2" t="s">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="2" t="s">
+        <v>5805</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="2" t="s">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="2" t="s">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="2" t="s">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="2" t="s">
+        <v>5809</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="2" t="s">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="2" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="2" t="s">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="2" t="s">
+        <v>5813</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="2" t="s">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="2" t="s">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="2" t="s">
+        <v>5816</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="2" t="s">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="2" t="s">
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="2" t="s">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="2" t="s">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="2" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="2" t="s">
+        <v>5822</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="2" t="s">
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="2" t="s">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="2" t="s">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="2" t="s">
+        <v>5826</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="2" t="s">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="2" t="s">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="2" t="s">
+        <v>5829</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="2" t="s">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="2" t="s">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="2" t="s">
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="2" t="s">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="2" t="s">
+        <v>5834</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="2" t="s">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="2" t="s">
+        <v>5836</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="2" t="s">
+        <v>5837</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="2" t="s">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="2" t="s">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="2" t="s">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="2" t="s">
+        <v>5841</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="2" t="s">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="2" t="s">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="2" t="s">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="2" t="s">
+        <v>5845</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="2" t="s">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="2" t="s">
+        <v>5847</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="2" t="s">
+        <v>5848</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="2" t="s">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="2" t="s">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="2" t="s">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="2" t="s">
+        <v>5852</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="2" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="2" t="s">
+        <v>5854</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="2" t="s">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="2" t="s">
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="2" t="s">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="2" t="s">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="2" t="s">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="2" t="s">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="2" t="s">
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="2" t="s">
+        <v>5862</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="2" t="s">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="2" t="s">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="2" t="s">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="2" t="s">
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="2" t="s">
+        <v>5867</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="2" t="s">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="2" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="2" t="s">
+        <v>5870</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="2" t="s">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="2" t="s">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="2" t="s">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="2" t="s">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="2" t="s">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="2" t="s">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="2" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="2" t="s">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="2" t="s">
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="2" t="s">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="2" t="s">
+        <v>5881</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="2" t="s">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="2" t="s">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="2" t="s">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="2" t="s">
+        <v>5885</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="2" t="s">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="2" t="s">
+        <v>5887</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="2" t="s">
+        <v>5888</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="2" t="s">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="2" t="s">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="2" t="s">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="2" t="s">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="2" t="s">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="2" t="s">
+        <v>5894</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="2" t="s">
+        <v>5895</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="2" t="s">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="2" t="s">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="2" t="s">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="2" t="s">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="2" t="s">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="2" t="s">
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="2" t="s">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="2" t="s">
+        <v>5903</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="2" t="s">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="2" t="s">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="2" t="s">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="2" t="s">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="2" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="2" t="s">
+        <v>5909</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="2" t="s">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="2" t="s">
+        <v>5911</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="2" t="s">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="2" t="s">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="2" t="s">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="2" t="s">
+        <v>5915</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="2" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="2" t="s">
+        <v>5917</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="2" t="s">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="2" t="s">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="2" t="s">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="2" t="s">
+        <v>5921</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="2" t="s">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="2" t="s">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="2" t="s">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="2" t="s">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="2" t="s">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="2" t="s">
+        <v>5927</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="2" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="2" t="s">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="2" t="s">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="2" t="s">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="2" t="s">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="2" t="s">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="2" t="s">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="2" t="s">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="2" t="s">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="2" t="s">
+        <v>5937</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="2" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="2" t="s">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="2" t="s">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="2" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="2" t="s">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="2" t="s">
+        <v>5943</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="2" t="s">
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="2" t="s">
+        <v>5945</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="2" t="s">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="2" t="s">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="2" t="s">
+        <v>5948</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="2" t="s">
+        <v>5949</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="2" t="s">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="2" t="s">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="2" t="s">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="2" t="s">
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="2" t="s">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="2" t="s">
+        <v>5955</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="2" t="s">
+        <v>5956</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="2" t="s">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="2" t="s">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="2" t="s">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="2" t="s">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="2" t="s">
+        <v>5961</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="2" t="s">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="2" t="s">
+        <v>5963</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="2" t="s">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="2" t="s">
+        <v>5965</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="2" t="s">
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="2" t="s">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="2" t="s">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="2" t="s">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="2" t="s">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="2" t="s">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="2" t="s">
+        <v>5972</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="2" t="s">
+        <v>5973</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="2" t="s">
+        <v>5974</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="2" t="s">
+        <v>5975</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="2" t="s">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="2" t="s">
+        <v>5977</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="2" t="s">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="2" t="s">
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="2" t="s">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="2" t="s">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="2" t="s">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="2" t="s">
+        <v>5983</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="2" t="s">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="2" t="s">
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="2" t="s">
+        <v>5986</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="2" t="s">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="2" t="s">
+        <v>5988</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="2" t="s">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="2" t="s">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="2" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="2" t="s">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="2" t="s">
+        <v>5993</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="2" t="s">
+        <v>5994</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="2" t="s">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="2" t="s">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="2" t="s">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="2" t="s">
+        <v>5998</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="2" t="s">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="2" t="s">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="2" t="s">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="2" t="s">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="2" t="s">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="2" t="s">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="2" t="s">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="2" t="s">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="2" t="s">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="2" t="s">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="2" t="s">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="2" t="s">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="2" t="s">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="2" t="s">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="2" t="s">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="2" t="s">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="2" t="s">
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="2" t="s">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="2" t="s">
+        <v>6017</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="2" t="s">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="2" t="s">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="2" t="s">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="2" t="s">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="2" t="s">
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="2" t="s">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="2" t="s">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="2" t="s">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="2" t="s">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="2" t="s">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="2" t="s">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="2" t="s">
+        <v>6029</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="2" t="s">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="2" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="2" t="s">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="2" t="s">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="2" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="2" t="s">
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="2" t="s">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="2" t="s">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="2" t="s">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="2" t="s">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="2" t="s">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="2" t="s">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="2" t="s">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="2" t="s">
+        <v>6043</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="2" t="s">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="2" t="s">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="2" t="s">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="2" t="s">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="2" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="2" t="s">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="2" t="s">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="2" t="s">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="2" t="s">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="2" t="s">
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="2" t="s">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="2" t="s">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="2" t="s">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="2" t="s">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="2" t="s">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="2" t="s">
+        <v>6059</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="2" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="2" t="s">
+        <v>6061</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="2" t="s">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="2" t="s">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="2" t="s">
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="2" t="s">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="2" t="s">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="2" t="s">
+        <v>6067</v>
       </c>
     </row>
   </sheetData>
@@ -22957,7 +27923,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
@@ -27981,7 +32947,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -30908,7 +35874,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
@@ -35482,7 +40448,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
@@ -40043,7 +45009,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -48612,7 +53578,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -51718,7 +56684,7 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -54924,7 +59890,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2">

--- a/aoc/inputs.xlsx
+++ b/aoc/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa_\Desktop\advent-of-code-2020\aoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C6C75E-FB21-4B74-8A47-35F4D1F317B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F2C26F-1B8D-4DCC-BE96-BF6AC5FC1AA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="13" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
   </bookViews>
@@ -29,7 +29,6 @@
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7392" uniqueCount="6072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7396" uniqueCount="6076">
   <si>
     <t>2-4 r: prrmspx</t>
   </si>
@@ -18264,6 +18263,18 @@
   </si>
   <si>
     <t>mem[8] = 0</t>
+  </si>
+  <si>
+    <t>mask = 000000000000000000000000000000X1001X</t>
+  </si>
+  <si>
+    <t>mem[42] = 100</t>
+  </si>
+  <si>
+    <t>mask = 00000000000000000000000000000000X0XX</t>
+  </si>
+  <si>
+    <t>mem[26] = 1</t>
   </si>
 </sst>
 </file>
@@ -25001,23 +25012,26 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FDF991-65CE-4A8A-8863-96E33FAA9CA1}">
-  <dimension ref="A1:G576"/>
+  <dimension ref="A1:K576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>5492</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6068</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="2" t="s">
+        <v>6072</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>5493</v>
       </c>
@@ -25032,79 +25046,92 @@
         <f>+""""&amp;_xlfn.TEXTJOIN(""", """,FALSE,E1:E4)&amp;""""</f>
         <v>"mask = XXXXXXXXXXXXXXXXXXXXXXXXXXXXX1XXXX0X", "mem[8] = 11", "mem[7] = 101", "mem[8] = 0"</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="2" t="s">
+        <v>6073</v>
+      </c>
+      <c r="K2" t="str">
+        <f>+""""&amp;_xlfn.TEXTJOIN(""", """,FALSE,I1:I4)&amp;""""</f>
+        <v>"mask = 000000000000000000000000000000X1001X", "mem[42] = 100", "mask = 00000000000000000000000000000000X0XX", "mem[26] = 1"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>5494</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6070</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="2" t="s">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>5495</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6071</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="2" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>5496</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>5497</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>5498</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>5499</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>5501</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>5502</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>5503</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>5504</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>5505</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>5506</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>5507</v>
       </c>

--- a/aoc/inputs.xlsx
+++ b/aoc/inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa_\Desktop\advent-of-code-2020\aoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91416B62-D091-4892-98DD-4C545EE9D4C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194245DD-8D15-4D0B-B52F-60F9DCC5139D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="15" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="16" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet16" sheetId="15" r:id="rId15"/>
     <sheet name="16_1" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet18" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7423" uniqueCount="6103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7796" uniqueCount="6476">
   <si>
     <t>2-4 r: prrmspx</t>
   </si>
@@ -18398,6 +18399,1125 @@
   </si>
   <si>
     <t>zone: 31-188 or 201-971</t>
+  </si>
+  <si>
+    <t>5 + 9 + 5 + 9 * 9</t>
+  </si>
+  <si>
+    <t>5 * (9 * 3 * (6 + 8 + 2 + 5) * 2)</t>
+  </si>
+  <si>
+    <t>4 + (6 + 9) + ((9 * 7 * 5 * 9 * 9 * 8) + 6 + 2 * (7 * 7) * (9 + 7 * 9 + 4))</t>
+  </si>
+  <si>
+    <t>8 + (7 + 4 * 7 * 5 * 9) + 9 * 6 + 9 * 3</t>
+  </si>
+  <si>
+    <t>4 * (8 + 8 * (9 + 3 + 6 * 8) * 4 * 2 * 6)</t>
+  </si>
+  <si>
+    <t>(2 + 9) + (5 * 7 * 7 * (5 * 6) * 7 * 2)</t>
+  </si>
+  <si>
+    <t>4 + ((8 + 3 * 6) * 7 * 4)</t>
+  </si>
+  <si>
+    <t>(9 + 5 + 6 + 8) + (3 * 6) * 6</t>
+  </si>
+  <si>
+    <t>5 + 3 + (8 * 8 * 8 * 6 + (6 + 4 + 6 * 2 * 3) + 5) + 3 * 7</t>
+  </si>
+  <si>
+    <t>(4 * 7 + 8 * (2 * 5)) * 8 + 2 * (9 + 5 * 4 * (4 * 9 * 2) + 5 + 3) * 8</t>
+  </si>
+  <si>
+    <t>3 * 6 + (7 + (5 + 2 * 8 * 5) * 9 * (2 * 4 * 4 + 6 + 5 + 8)) * 9 * 5 * (2 * 4)</t>
+  </si>
+  <si>
+    <t>((4 * 3 * 5 * 2 * 5 + 6) + 3 * 6 * 7) + 6 + 8 + ((7 + 6 + 2 * 2 + 8) + 9 + 8 * 2 + (5 + 4 + 9 + 3))</t>
+  </si>
+  <si>
+    <t>4 + (5 * 2) * (3 + 7 * 7 + 9 * 6 * (9 + 4 * 8 + 7 * 6 * 8))</t>
+  </si>
+  <si>
+    <t>(3 + (8 + 8 * 7 + 8 + 4)) + 2 + 2 * (7 * 8) * (8 * 7 + 9)</t>
+  </si>
+  <si>
+    <t>(3 + 5 + (2 * 6 + 7 + 5 * 7)) + (4 + (5 + 3 * 7 + 8 * 9) * 7 * (9 * 7 * 9 + 3)) + 4</t>
+  </si>
+  <si>
+    <t>(8 * 5 + 3 * (5 + 8) + 6) * 2 + (9 + 2 + 7 * 4) * 6</t>
+  </si>
+  <si>
+    <t>2 + (5 * 7 + 8) + (8 + (3 * 3 + 4 * 2 * 2 * 2) * (5 * 8 + 6 * 6) + 8 + 5 + 8) + ((4 * 6 * 8) * 5 + 2 * 8) * 5 * 5</t>
+  </si>
+  <si>
+    <t>(7 + (3 + 4 + 3) * 6 + 2 * (9 * 3)) + 5 * 8 + 3 + 8</t>
+  </si>
+  <si>
+    <t>((2 * 5 * 8) + 6 * 2 + 8) + 2 + 4</t>
+  </si>
+  <si>
+    <t>3 + 9 + (3 * 5 * 5 * (4 * 9) * (9 * 8 + 2) + (7 + 3 * 3 + 6 * 7 + 4)) + 4 * (7 + 9 + 5 + (7 * 8 * 7 + 6 * 9 * 3) + (5 + 3 * 5 + 4 * 2) + 9) + 6</t>
+  </si>
+  <si>
+    <t>3 + 9 + 2 * 5 * 7 + ((5 * 7 * 4 + 3 + 6 * 2) * (9 * 4 * 9 * 3 * 2) * 6)</t>
+  </si>
+  <si>
+    <t>6 + 9 + 2 + (2 * (8 + 4 + 7 * 5 + 2) * 4 + (4 * 2 * 3 + 3 + 3 + 2) + (8 + 2 + 6 + 2) + 5) + 9 + 4</t>
+  </si>
+  <si>
+    <t>((2 * 8) * 7) + 4 + 3 + 3</t>
+  </si>
+  <si>
+    <t>6 + 4 + 3 + (4 * 9 + 6 * 8 * (4 * 6 * 2))</t>
+  </si>
+  <si>
+    <t>(4 * 7 + 3 + (9 * 2) + 5 + 4) + 8 * 6 * 5 * (4 * (2 + 3) * 5 + 3 + 4)</t>
+  </si>
+  <si>
+    <t>8 * 8 * 8 * (3 * 8) + ((3 * 6 + 3 * 4 + 2) + 6)</t>
+  </si>
+  <si>
+    <t>3 + 8 + 8 * ((7 + 8 + 3 * 8) + 7 * 6 + (7 * 6)) + 9</t>
+  </si>
+  <si>
+    <t>((6 + 8 + 2) * 2 * (7 + 4 * 2 * 6 * 5) + 9 + 8) * 3 + (5 * 4) + 8 * 7</t>
+  </si>
+  <si>
+    <t>9 * 5 * ((9 * 8) * 3) + ((9 * 4 * 6 * 8 + 9) * 4 + 9) * (6 * 3 + 3 + 9) * 4</t>
+  </si>
+  <si>
+    <t>(2 + 8 + 9 * 8 * 2 * (7 + 7 * 5 * 4)) * 7 + 8 + 5 * ((8 + 3 * 9 * 4 * 9 * 9) + 7 * (2 * 9 * 7) * 8 * 4)</t>
+  </si>
+  <si>
+    <t>8 + ((9 + 3 + 3 * 8) + 4)</t>
+  </si>
+  <si>
+    <t>(4 * 5 + 3 * 7 + 9) + 6 + 7 * 8 + 9</t>
+  </si>
+  <si>
+    <t>(3 * 8 + 4) * 8 + 5 * (7 * 4 * 5 + 8 + 4) * 4 + 6</t>
+  </si>
+  <si>
+    <t>2 + 5 * ((3 + 8 + 4 + 9 + 8) + 9 + 9 + 9 + 9 + (5 + 5 * 6)) + (2 + 8 + 3)</t>
+  </si>
+  <si>
+    <t>((4 * 3 + 7) * 4) + (2 + 3) + 5 + 2</t>
+  </si>
+  <si>
+    <t>(8 * 5) * 5 + 7 * 8 * 7 * 9</t>
+  </si>
+  <si>
+    <t>9 * 8 * 9 + 3 + (8 + 6 * 5 + (5 * 8 + 8 * 5 * 3) * 9) + (3 * 3 * 8)</t>
+  </si>
+  <si>
+    <t>(4 + (6 + 9 * 7 + 8 + 7 + 8) * 2 * 4) * 2 + 8</t>
+  </si>
+  <si>
+    <t>(3 + 6 + (8 + 3 + 9 + 3) + 5) * 7 + (8 + 9) + 6</t>
+  </si>
+  <si>
+    <t>(4 * 2 + (8 + 9 * 7 + 6) * 8) * (6 * 5 * (8 * 7 + 2 + 2 * 7 + 3) + (8 + 5 * 9 * 9 * 2 + 4) + (7 * 2 + 4 * 9 * 9 * 6)) + (5 + 6) + 6 + 2 * (9 + (9 * 2) * 9)</t>
+  </si>
+  <si>
+    <t>2 * (9 + 9 * (4 + 7) * (9 * 5 * 8 * 2 + 3 + 4) + 4) * (6 + 9 + 3 * 4 * 3) + 6</t>
+  </si>
+  <si>
+    <t>9 + 9 * 7 * ((6 * 6 * 7 * 3 * 9 + 8) * 3) + 4 + 3</t>
+  </si>
+  <si>
+    <t>3 * (3 * 9 + 7 + 4) + 7 * 5</t>
+  </si>
+  <si>
+    <t>8 * (6 * 2 * (6 + 6 * 6 * 8) + 6) + (7 + 6 + (8 + 5 * 3 * 2 + 2) + 4 + (2 + 6 * 2)) + 3 + 2 * 7</t>
+  </si>
+  <si>
+    <t>6 + 6 + 7 * (9 + 7 + 8)</t>
+  </si>
+  <si>
+    <t>4 * 9 + (6 * 5 * 4 + 3 * (8 + 7 * 3 * 4) * 5) * 4 * 9</t>
+  </si>
+  <si>
+    <t>2 + (7 + (4 * 8 * 5 * 4 * 6) + 8 * (9 * 5)) * 7 + 4 * 7 + 7</t>
+  </si>
+  <si>
+    <t>((5 * 3 + 2 * 9 + 3 * 8) * 2 * 6 * 2) + 7 + 9 * 3 * 2</t>
+  </si>
+  <si>
+    <t>(9 * 6 * 3 * 3) * (3 + 7 + 5) + 2</t>
+  </si>
+  <si>
+    <t>(4 + 9 * (7 * 2) + 8 + 8 + 8) + (7 + 6 + 4) + 3 * 6 * 7</t>
+  </si>
+  <si>
+    <t>(8 * 8 * 5) + (6 + 8 + 4) * 5 + (2 + 6 * (5 + 9 + 8 * 7 * 4 * 5) + 8)</t>
+  </si>
+  <si>
+    <t>((9 * 7 * 6) * (2 + 7) + 5 + 5 * 7 * 7) + 6 * (6 + (2 * 6 + 9 + 6 + 7 * 9)) + 3</t>
+  </si>
+  <si>
+    <t>2 + 8 * (6 + 5 + 8 + 7 * 7 + 9) * 5 * 3</t>
+  </si>
+  <si>
+    <t>2 + (2 + 9 + 8 * 2) + (6 + 2 + 2 + 7) * 5 * 9 * 3</t>
+  </si>
+  <si>
+    <t>9 + 6 * 4 * (2 + 7 + 9 + 8 + 8)</t>
+  </si>
+  <si>
+    <t>2 + 2 + 9 + 9 * (7 + 9 * 9) + (5 * 3)</t>
+  </si>
+  <si>
+    <t>3 + 9 + 4 * 3</t>
+  </si>
+  <si>
+    <t>(3 + (8 + 8 + 8)) * 7</t>
+  </si>
+  <si>
+    <t>8 + 6 + (8 * 8 + 8 + 5 * 3 * 3) + (6 + 8 + 5 + 6 + 9 * 7) + 2 + (3 + 2 + 2)</t>
+  </si>
+  <si>
+    <t>((2 * 9 + 7 * 6 + 5) + 6 + 7 * 8 + 4) * 2</t>
+  </si>
+  <si>
+    <t>((9 * 6 * 3) * 8 + 6 + 9 * 6 * 2) + ((9 + 4 + 9 + 9 + 4) * 5 + (3 + 5 * 4 + 4 * 7) * (4 * 2 * 2))</t>
+  </si>
+  <si>
+    <t>2 + (5 + 5) + 2 * 7 + 6 * 9</t>
+  </si>
+  <si>
+    <t>3 * 6 * ((4 + 2 + 9) * 4 + 6 * 6 * 9) * ((4 * 8 + 2 * 4) + 8 + 2)</t>
+  </si>
+  <si>
+    <t>8 * 4 * ((2 * 7 * 9) * 2)</t>
+  </si>
+  <si>
+    <t>3 * (7 + 9) + 6 + 3 + 4</t>
+  </si>
+  <si>
+    <t>6 * 8 + (6 + 8 * 9) + (9 + 7 + 9 * 3 * 7 * 3) * 5</t>
+  </si>
+  <si>
+    <t>3 * 8 * 6 + (6 + 5) + 4</t>
+  </si>
+  <si>
+    <t>5 + 6 + (8 + 3 * 7 * 8) + 8 * 7 + (4 * 5 + 4)</t>
+  </si>
+  <si>
+    <t>(2 + 6 + 3 + 8 * 6 + 4) * (5 + 3 + 9 * 5 * 7) + 6 * 5 + (3 * 7 * 5 + 7 * 2) * 7</t>
+  </si>
+  <si>
+    <t>3 * (2 * 4)</t>
+  </si>
+  <si>
+    <t>(7 * 3 + 4) * 3 + 2 + 2 * 9 * 3</t>
+  </si>
+  <si>
+    <t>((6 + 8 * 3 * 3 * 3 * 3) * 2 * (8 + 3 * 2 + 5 * 2 + 5) * (8 + 7 * 8 * 7) + 9 + (5 + 8 + 7 * 2)) + 4</t>
+  </si>
+  <si>
+    <t>5 + 4 * 9 * 7 + ((8 * 4 * 8 + 2 + 5 * 4) * 6 + 6 + 3 * 3)</t>
+  </si>
+  <si>
+    <t>7 + (2 * 2 * 5 + 7 + 6 + (9 * 8 * 2 + 5)) * 2</t>
+  </si>
+  <si>
+    <t>(2 * (8 * 4) + 8 + 8 * (2 + 4 + 4 * 4 + 4 + 4) * 5) * 7 + 8 * ((7 + 8 + 4) * 6 + 8 + 7 + 2 * 9)</t>
+  </si>
+  <si>
+    <t>7 + 5 + 6 * 4 * (2 * 3 * 8 * 2 + 4)</t>
+  </si>
+  <si>
+    <t>(5 * 2 * 6 * 5 * 8) + 2 * 9 * (3 + 4 * 9 * 4 + (3 * 8 + 5 + 3) + 8) + 4</t>
+  </si>
+  <si>
+    <t>4 + 5</t>
+  </si>
+  <si>
+    <t>3 * ((3 + 6) * 7 * 5 * 9 + 6 * (3 + 4 * 3 * 5 + 2 + 3)) * 6 + 4 + 2</t>
+  </si>
+  <si>
+    <t>9 + ((6 + 2 + 5 + 8) * (3 * 8 + 8 * 2 * 9) + (9 + 2 + 6 + 5 + 9)) * 9</t>
+  </si>
+  <si>
+    <t>7 * (6 + 6 * 7 * 5 * 3 + 8) + 7</t>
+  </si>
+  <si>
+    <t>(9 * 8 * 3 + 4) * 4 + (4 + 2 + 7) * 8 + 9</t>
+  </si>
+  <si>
+    <t>3 * 7 * (3 + (5 + 6 + 7) * 5 * 8) + 7 * 6 + ((8 + 8 + 8 * 2 * 2) + 2 + 6)</t>
+  </si>
+  <si>
+    <t>((9 + 5 * 6 + 2 * 7 * 6) + 9 + 2 * 4 * 8 * 5) * 8</t>
+  </si>
+  <si>
+    <t>(7 * (8 * 5) * 7) + 9 * (7 * (8 * 5) + 2 * 9) * 7</t>
+  </si>
+  <si>
+    <t>(7 + (9 * 3 * 3 + 3)) + (3 * 7) + 3 * 2 * (4 * 9 * 5) + 6</t>
+  </si>
+  <si>
+    <t>7 + 6 * (4 + 7 + 6 * 3 * 8 * 3) + ((5 * 8 + 8 + 2) * 8) * ((2 + 4 * 8 * 9 * 5) * 2 + 3 + 7 + 2) + 5</t>
+  </si>
+  <si>
+    <t>((7 * 8 * 6 * 5 * 9 + 7) + 3) + (3 + 4 * 2) * 2</t>
+  </si>
+  <si>
+    <t>4 * 5 * (3 + 2) + 7 * 8 + (7 + 7 * 5 + 2)</t>
+  </si>
+  <si>
+    <t>(6 + (7 + 9) + 6 + 4 * 9) * 7 + 7 + 7 + 9</t>
+  </si>
+  <si>
+    <t>(4 + 7 + (7 + 3 * 3 * 8 * 9 * 7) * 6 * 4 * 2) + 8 * 9 + 2 * (8 + 2 + (2 + 9)) * (2 * 6 + 2 + 4 + 3)</t>
+  </si>
+  <si>
+    <t>9 * 5 + 3 * (4 + (5 * 4 + 6 + 8 + 6 + 6) * (8 * 3) + (5 * 9 + 2 + 2)) * ((9 + 8 * 3 * 6) + 3)</t>
+  </si>
+  <si>
+    <t>8 + 7 * 2 * (5 + 2 * 4 * 8 + (9 * 4 * 6 * 8) * 4) + 3</t>
+  </si>
+  <si>
+    <t>5 * 6 + 5 + 9 + (4 + 6 * 6 * 2 + 9 + 7)</t>
+  </si>
+  <si>
+    <t>3 * (2 + 9) + 2 * 5</t>
+  </si>
+  <si>
+    <t>(5 * 9 * 7 + 7) + (9 * 3 + 5 * 6)</t>
+  </si>
+  <si>
+    <t>2 * 9 + (7 + 4 + (8 + 8 + 7)) + (3 + 4 + 5 + 6)</t>
+  </si>
+  <si>
+    <t>7 * ((9 * 7 * 7) * (8 * 8) * 3 * 3) * 3</t>
+  </si>
+  <si>
+    <t>9 + (6 * 7) + 7</t>
+  </si>
+  <si>
+    <t>(5 + (2 + 5 * 8 + 8) * 3 + 7) + 2</t>
+  </si>
+  <si>
+    <t>(8 * 9 * (5 * 3 * 9 * 8 + 5)) + (6 * 7 * 6 + 3 + 7 + 6) * 5 + 9 + 5 + (3 + (9 * 3 * 3 * 3 * 3 * 5) + 5 + (4 + 8 * 3) * 2 + 2)</t>
+  </si>
+  <si>
+    <t>3 * 6 + 3 + 8 + (8 + 9) + 2</t>
+  </si>
+  <si>
+    <t>7 + 9 * 5 + (8 * 8 * 5 * 9) * (3 * 5 + 3) + 9</t>
+  </si>
+  <si>
+    <t>2 + 5 + 8 + (2 * 5 * (4 * 9 + 3 + 9)) + 9 + 4</t>
+  </si>
+  <si>
+    <t>3 * 8 + (6 * 4 + 5 * 2 * 5 * 2)</t>
+  </si>
+  <si>
+    <t>(3 * 3 + 5 * (6 + 4 + 9 * 5 * 2) * 6) + 9 + 5 * 4 * 6 + 6</t>
+  </si>
+  <si>
+    <t>4 * 6 * (2 * 9) * 7 + (4 * 2 * 5 + 7) * 3</t>
+  </si>
+  <si>
+    <t>(6 * 7 + 3) * 2 + (9 + 4 + 7)</t>
+  </si>
+  <si>
+    <t>9 + ((7 + 2 + 3 + 2 + 3) * 6 * (9 + 2) + 9 + 2 * 9) + 7 + 3</t>
+  </si>
+  <si>
+    <t>8 + 2 + 2</t>
+  </si>
+  <si>
+    <t>5 * (2 + (3 + 3 * 8 + 2) * 9 + 7 * 9) + 5 * 4 * 6 + 3</t>
+  </si>
+  <si>
+    <t>9 * 4 + (4 + (7 * 2 + 4 + 7) * (5 * 2 + 5 + 8) * 8) * (7 * 5)</t>
+  </si>
+  <si>
+    <t>9 + (2 * 8 * 5 + 3 + 9 + 4) * (9 + 2 * 3) + 9</t>
+  </si>
+  <si>
+    <t>((9 + 8 + 7 * 2) * 2 * 9 * (2 * 2 + 6 + 5) * 6 * 9) * 4 * (3 + 5 * 2 + 6 + 2 * 6) + 3 * (9 * 4 + 9) * 9</t>
+  </si>
+  <si>
+    <t>7 * (3 + 5 * 9 * (6 * 2 * 4 + 3)) * 7</t>
+  </si>
+  <si>
+    <t>5 + (9 + (5 + 3 * 9 + 4 * 7) + 8 + (9 + 8 * 7) * 6) + 5 * 2 * 8</t>
+  </si>
+  <si>
+    <t>9 * 9 * 5 * 9 + (7 * 3 + (6 * 3 * 9) * 7 + (5 * 8 + 5)) + 7</t>
+  </si>
+  <si>
+    <t>(6 * 9 + (5 * 6 + 3 * 5 + 5) + (8 + 9 + 3) + 2) + (9 + 3 + 4) * 6</t>
+  </si>
+  <si>
+    <t>((9 + 3 + 4 * 4 * 8) * 8 * 4 * 8 * 6) + 6 + 8</t>
+  </si>
+  <si>
+    <t>(8 * (8 * 6) + 8) + (3 + 3) + 9</t>
+  </si>
+  <si>
+    <t>5 * 2 * 2 + 6 + 9</t>
+  </si>
+  <si>
+    <t>7 * 4 * (4 * 7 + 7 * 2 + 5 + 8) * 2 + (7 * 9 + 2 + 9 + 6 + 2)</t>
+  </si>
+  <si>
+    <t>7 * (2 * (4 * 2 * 4 + 7 + 5)) * 6</t>
+  </si>
+  <si>
+    <t>((8 * 5 + 2 * 2) * (9 * 2) + (8 + 9 * 2 + 3 * 9) * 8 + 7) * 6</t>
+  </si>
+  <si>
+    <t>4 * (9 * 2 * 4 + 8) + (8 + 3 * 7) + 6 * 9</t>
+  </si>
+  <si>
+    <t>5 * 9 * ((2 + 4) * 6 * 6) + 6 + 2</t>
+  </si>
+  <si>
+    <t>(3 + 5 + 8 + 7 * 5 + 8) * 6 * (2 + 9 * 8 + 8) + (9 * 2 * (3 + 2)) * 3</t>
+  </si>
+  <si>
+    <t>(9 + 4 + 3 * 7 + 8 + 3) * 6 * 6 + 2 * 2 + 8</t>
+  </si>
+  <si>
+    <t>5 * (8 + (3 * 8) * 4 * 9) + 6 + (8 + 3 + 2 * 3 * 3 * (6 * 5)) + 2 + 5</t>
+  </si>
+  <si>
+    <t>(5 * 8 + 7 * 2 + 7) + 2 + 3 * 5 * 8 + 6</t>
+  </si>
+  <si>
+    <t>9 + 6 * 4 * (4 + 4) + 8 + 9</t>
+  </si>
+  <si>
+    <t>5 * (5 * (4 * 8 * 2 * 9 + 3 * 2) * 9 + 3 + 9 + (7 * 4 + 4 + 7)) + 3 * 8</t>
+  </si>
+  <si>
+    <t>(5 + (7 + 5 + 8 * 8)) * 2 + 8 + (6 + 5 + 8 + 9 + 3 + (5 * 4 + 8 + 9 + 4)) + 3 * (3 * 5 + 2 + 3 * 7)</t>
+  </si>
+  <si>
+    <t>((8 * 3) * 3 + 3 * 7 * 8) + 2 * 5 + 3</t>
+  </si>
+  <si>
+    <t>(6 + 8) * 2 * 9 + 2</t>
+  </si>
+  <si>
+    <t>9 + ((8 + 4 * 5) + 8)</t>
+  </si>
+  <si>
+    <t>2 + 4 + ((9 * 2) * 7 * 9 * 6) * 3</t>
+  </si>
+  <si>
+    <t>3 * (9 + (3 * 9 + 9 * 8 + 8 * 2)) * 3 * 3</t>
+  </si>
+  <si>
+    <t>2 + (6 + (4 * 9 + 7)) * 2</t>
+  </si>
+  <si>
+    <t>5 * (5 * 3) + 3 + (7 * 4 * 4)</t>
+  </si>
+  <si>
+    <t>8 + (6 * 7 * (7 + 9 * 8)) + 5</t>
+  </si>
+  <si>
+    <t>9 * 5 * 3 + 6 + 2 + ((4 + 5 + 7) * (8 * 5 * 6 + 8 + 4))</t>
+  </si>
+  <si>
+    <t>9 + 4 * 4 + (3 + 6 + 6 * 5) + 5 * 7</t>
+  </si>
+  <si>
+    <t>4 * 7 + (5 + 2 * 9 + 3 + 8) * 5 * 3 * 2</t>
+  </si>
+  <si>
+    <t>3 * ((3 + 2 + 6) * 2 + (8 + 8)) * 8 + 5 * 9 * 4</t>
+  </si>
+  <si>
+    <t>8 * 2 + 9 + ((5 * 7 * 6 * 4 * 8 + 6) * (3 + 2 + 7 + 8) + 7)</t>
+  </si>
+  <si>
+    <t>5 * (7 * 5 * 6 * 4)</t>
+  </si>
+  <si>
+    <t>6 * 5 * 5</t>
+  </si>
+  <si>
+    <t>9 * 6 + (9 + 9 + 4 + 9 + (9 * 4)) + 8 * (4 + 3 * 5 + 8 * 5) * 8</t>
+  </si>
+  <si>
+    <t>3 + 7 + 6 + (6 + 6 + (9 * 8 + 4 + 3 * 4) + 4 + 4) * 5 + 7</t>
+  </si>
+  <si>
+    <t>4 + 8</t>
+  </si>
+  <si>
+    <t>(7 + 6 + 3 + 2 + 4 + 8) + 5 + 8 + (6 * 5 + 3 * (9 * 6 + 6 + 9 * 7) * 9) * 9 + 6</t>
+  </si>
+  <si>
+    <t>(5 + 4 * 8 * 2 + (4 + 4 * 9 * 9 * 4)) + (8 * 5) * 6 * 5 * 5</t>
+  </si>
+  <si>
+    <t>2 + (6 + (4 + 7) * 4 * (5 * 8 + 5) + (5 * 7 + 4 + 3 + 2 + 9) + 3) * 6 + 2 + (4 * 2) * 2</t>
+  </si>
+  <si>
+    <t>7 * 5 + 9 * 8 + ((6 * 4 * 6 * 6) + 7 + 2) * 9</t>
+  </si>
+  <si>
+    <t>5 + (2 * 8 * 2 * 9 + 7 * 2) * 3 + 6 * 3</t>
+  </si>
+  <si>
+    <t>6 * 9 * 3</t>
+  </si>
+  <si>
+    <t>8 * ((7 * 7 + 4) * 9) + 5 * 8 * (7 + 6 + 8 + 3)</t>
+  </si>
+  <si>
+    <t>(3 * 9 * 9 + 6 * 6) * 5 * ((2 + 3 * 2 + 2 + 6) * 7) * 6</t>
+  </si>
+  <si>
+    <t>(7 * 8 * 9 + (9 * 6 + 3) * 8) * 7 + 8</t>
+  </si>
+  <si>
+    <t>8 * 8 + 5 + ((4 + 7 * 4 + 9 + 9) + (2 * 9) + 9 * 3) + (9 + 2) * (3 + 7 * 6 * 5 * 9)</t>
+  </si>
+  <si>
+    <t>6 * 5 + 6 * 9 * ((3 + 9 + 7 * 6 + 9) * 4 * 7 * 4) + (9 + 9 + 3 + 7 + (7 * 7 + 9 * 7))</t>
+  </si>
+  <si>
+    <t>2 + 9 * (3 + 3 * (8 + 8 * 7))</t>
+  </si>
+  <si>
+    <t>5 + 8 * 2 * 8 + 2</t>
+  </si>
+  <si>
+    <t>6 * 2 * 2 + 4 + 6 * 8</t>
+  </si>
+  <si>
+    <t>7 * 7 * 7</t>
+  </si>
+  <si>
+    <t>2 * (7 * 9 * 9) + 8 + 8 * 4 * 8</t>
+  </si>
+  <si>
+    <t>(6 + 3 * 9 * 8 + 8 * 8) * (6 + 9 * 3 * (8 * 5 * 6))</t>
+  </si>
+  <si>
+    <t>(3 + 2 + 7 + 3 + (8 * 5 + 2 * 8 * 2 * 9)) + 3 * 8 * 2</t>
+  </si>
+  <si>
+    <t>4 * 7 + 9 + 8 + 6 + (8 + 8)</t>
+  </si>
+  <si>
+    <t>5 * (8 * (9 + 3 * 2 + 6 + 7 * 6) + 8 + 8 + 5 + 7) + 8 + 6 + 9</t>
+  </si>
+  <si>
+    <t>4 + 4 * ((3 + 8 * 8) * (3 + 8 + 7 + 8 * 6) * 8 * 8 * 9) * 9</t>
+  </si>
+  <si>
+    <t>(8 * 4 + 2 * (5 * 6 + 8 * 8) * 8) + 6</t>
+  </si>
+  <si>
+    <t>9 * ((2 + 9 + 9 * 5 * 3 * 3) + 2 + 5 + 3 * (4 + 4 * 7 + 6 * 9) + 7) + 3 * 4</t>
+  </si>
+  <si>
+    <t>(2 + 8 + 6 + 7 * 5) * 8 * (9 + 3 + 7) + ((6 + 3 + 4) + 6 + 5 + 4 * 2) + ((2 + 5 * 5 * 5 + 7) + 8) * 7</t>
+  </si>
+  <si>
+    <t>(6 * 7) + 4</t>
+  </si>
+  <si>
+    <t>5 + 2 + 6 * 6 * ((2 * 9) + (9 * 4 * 7 * 3)) + (2 + 5)</t>
+  </si>
+  <si>
+    <t>2 + 7 + 9 + (4 + 4 * 4 * 4 * 5) * 6</t>
+  </si>
+  <si>
+    <t>(8 * (5 * 4 * 8 * 2)) * (4 * 4 + 2 + (7 * 4 + 6 + 6))</t>
+  </si>
+  <si>
+    <t>6 * 4 * 4 * ((6 + 9 * 8) * 3 * 8 + 9 * 2) * 9 + (9 * (3 * 9 * 8 + 4 * 2 + 7) + 8 * 3 * 4 * 4)</t>
+  </si>
+  <si>
+    <t>6 + (6 + (8 + 4 * 4) * (7 + 5 * 9 * 3) * 4)</t>
+  </si>
+  <si>
+    <t>5 + (4 * 6 + 7) * 8 + 4</t>
+  </si>
+  <si>
+    <t>4 + 4 + 4 + (8 + 2 + (3 + 4)) * 7 + 8</t>
+  </si>
+  <si>
+    <t>3 + 6</t>
+  </si>
+  <si>
+    <t>2 * (2 * 8 * 2 * 3 * (8 + 4 + 3)) + 8 + (3 * 5 + 5 * 5 + 9) * 2</t>
+  </si>
+  <si>
+    <t>(2 + 9 * 5) * 8 + 5 + 9 * (5 + (6 * 8 + 4 * 7 * 5) * 2 * 3 + (9 + 5 + 5 + 7 * 6))</t>
+  </si>
+  <si>
+    <t>(8 + (3 + 8 * 7) + 3 + 7 * (6 * 5 * 7 * 7) * 5) + 4 + 2</t>
+  </si>
+  <si>
+    <t>9 + ((2 + 7 * 8 + 4) + 3 * 7 * 2 * 2 + (4 + 5)) * 6 + 7 * 7</t>
+  </si>
+  <si>
+    <t>2 + (7 + 7 * 3 * 6 + 4 * (6 * 6 * 9 * 4 + 3 * 2)) + (2 + 2)</t>
+  </si>
+  <si>
+    <t>4 * 2 * (2 + 8 * 2 * 8 + 3)</t>
+  </si>
+  <si>
+    <t>(5 * 4 * 8 * 9) + (9 * 7) * ((9 * 5 + 9 + 3 + 9 * 5) + 6 * 8 + 9) * (6 + 8 * 7 + (7 * 4 + 5)) + 9</t>
+  </si>
+  <si>
+    <t>((9 + 7 * 8 * 4) + 4) * 6 + 7 * 8 * 7 + (7 * (5 + 3 + 8 * 8 * 7) * 4 * 8 * 3 + 7)</t>
+  </si>
+  <si>
+    <t>7 * 3 + (3 + 3) * 6 * 9</t>
+  </si>
+  <si>
+    <t>2 + (2 * (2 * 5 + 2 + 8 * 9) * 9 * 5 + 9) * 7 + 5 + (7 + 4 * 8)</t>
+  </si>
+  <si>
+    <t>(9 * (4 * 3)) + 9 + 3</t>
+  </si>
+  <si>
+    <t>8 * 4 + (2 * 8 * (6 * 4 + 2 + 3 + 8 * 3)) * 5 * ((4 + 7) * 5 * 9)</t>
+  </si>
+  <si>
+    <t>2 * ((9 + 5 * 3) + 3 + 5 + 5 + 9) + (9 + 6 * 2 + (7 * 6 * 2 * 9 + 3 + 5)) + 7</t>
+  </si>
+  <si>
+    <t>(5 + 4 * 8 * 3 * 4 + 9) * 9 + 4 + 8 * 2</t>
+  </si>
+  <si>
+    <t>6 + (8 * 6 + 9 + 5 + (7 * 3 + 2 + 8))</t>
+  </si>
+  <si>
+    <t>3 * (3 + (8 + 8 + 9 * 4 + 5)) + 5 * 9</t>
+  </si>
+  <si>
+    <t>6 + 5 + (9 * (5 + 4) + 9 + 2 + 7 * 5)</t>
+  </si>
+  <si>
+    <t>(7 + 4 + 2 * 5) * ((4 * 9) + 4 * 5 + 7 + 2 * (6 + 2)) + 2 + 5 * 8</t>
+  </si>
+  <si>
+    <t>(2 + 8 * 8 + (4 * 9 * 4 * 2 * 3) + 3 * (7 * 6)) * 7 * (5 + 8 + 3 * 4) * 3</t>
+  </si>
+  <si>
+    <t>8 * 7 + ((8 + 9 * 9) * (4 * 7 + 8 + 8 * 5) + (8 + 9 + 9 + 8 + 6)) * 8</t>
+  </si>
+  <si>
+    <t>3 + (2 * 3 * 7 * 8 * 6) * (7 * 5 * 5 * 3) * (2 * 7 * 7 + 2 * 9) * (9 * 4 * 6 + 7 * 4)</t>
+  </si>
+  <si>
+    <t>4 + 8 * 4 + ((6 + 4 + 2 * 3) * 2 * 3 * 5 + 3 + 2) * 7 + 7</t>
+  </si>
+  <si>
+    <t>((4 + 4 + 6 * 6) + 9 + 3 + (8 + 6 * 5 + 7 + 4 + 2) * 7 * 6) + 2 * 4 + 3 * (7 + (7 + 4 * 2))</t>
+  </si>
+  <si>
+    <t>9 + (4 + (7 + 3 * 9 * 9 + 4 * 9) + 5 * 4 * 9) * 9</t>
+  </si>
+  <si>
+    <t>7 * ((7 * 5 * 7 + 2 * 2) * 2 + 3 + 8 * 9) * 6 * 5 * 6 * 3</t>
+  </si>
+  <si>
+    <t>9 * ((5 * 4 * 4 * 6 * 2 + 6) + 2) + (5 * 7 * 2) * (3 * (8 * 3 + 2 * 7 + 7) + 3 * 8) + 4</t>
+  </si>
+  <si>
+    <t>5 * 8 * 8 + 7</t>
+  </si>
+  <si>
+    <t>6 * 7 + 3 * 2 * (7 * 5 * 3 + (3 * 4 * 3 * 3 + 4)) * 6</t>
+  </si>
+  <si>
+    <t>8 + 7 * 9 * 2 + (8 + 6 + 4 * 5 + (6 + 2 + 2 + 7 * 6 + 7) + (9 * 5 * 9 * 3)) * (5 * 5 + 3 + 3 * (9 * 8 + 6 + 2))</t>
+  </si>
+  <si>
+    <t>9 + 8 + 4 * (4 * 9 + (8 * 2 * 3) * 3 + (4 + 9)) * (6 * 5 + 7) * (6 + 6 * 9)</t>
+  </si>
+  <si>
+    <t>6 + 6 + (7 + 7 + 8) + ((5 + 6 + 4 * 3 + 7) * 4) * 8</t>
+  </si>
+  <si>
+    <t>2 + (9 + 2 * 6 * (5 * 5 + 7 * 5 * 6 + 3) + 4 + 2) + (3 + 3 + 7 * (4 + 8 * 3 + 3 + 6 + 2)) * 8 + 9</t>
+  </si>
+  <si>
+    <t>((8 + 7 + 2 * 4 * 4) * 2 * 2 + 5 * 7) * 7 * 9 + 3 * (9 + 2 * (4 + 7 * 4)) + 3</t>
+  </si>
+  <si>
+    <t>7 * (2 * 5 + 4 + 3 * 7) * 7 * 3</t>
+  </si>
+  <si>
+    <t>2 + (3 + (4 + 7 + 6 * 8) + 8 * 8 * 4 * 4) * 3 + 5</t>
+  </si>
+  <si>
+    <t>(8 * 8 + 8 * 8 + 7) * 6 + ((8 * 8 * 8 + 8) + 3 * 5 * 8 + 3)</t>
+  </si>
+  <si>
+    <t>6 * 9 * 7 + 2 + 8 + ((3 + 3 + 5 + 5 * 9) * 7)</t>
+  </si>
+  <si>
+    <t>3 + 6 * (8 + 9)</t>
+  </si>
+  <si>
+    <t>8 + 7 + 8 * (2 * 7 + 7 + 3 * (2 * 6 + 9 + 2 * 4)) + 8 + ((5 * 6 + 8 + 8) * (5 * 6 + 7 + 7) + 5 + 6 * 6 * 2)</t>
+  </si>
+  <si>
+    <t>4 * 2 + (2 * (6 + 2 * 9))</t>
+  </si>
+  <si>
+    <t>3 + 5 + ((9 * 7) + 7 * 9 * 6 * 4) * 2 + 4 * 7</t>
+  </si>
+  <si>
+    <t>(5 * (9 * 9) * 2 * 4 + 6 * 6) * (8 * 6 * (4 + 9) * 5 + 8 * 6) + 6 + 9 * 9</t>
+  </si>
+  <si>
+    <t>8 + (7 + 7 * 8) + 6</t>
+  </si>
+  <si>
+    <t>(3 * 2 + (5 * 6) * 3 * 5) + 3</t>
+  </si>
+  <si>
+    <t>(2 + 8 * 6 + 6 + 4 + 7) * 7 * (3 * 9 + 2 * 8) + 3 * 5</t>
+  </si>
+  <si>
+    <t>4 * (2 * (4 * 5 + 3 * 7 * 5 + 8) + 8 * 2) * 9</t>
+  </si>
+  <si>
+    <t>(5 * 2 * 7 * 5) * 8 * 2</t>
+  </si>
+  <si>
+    <t>3 * (3 * 7 * (4 + 4 * 3 * 9 + 8) + 9)</t>
+  </si>
+  <si>
+    <t>6 * (9 * 3 * 9 + 7 + 2) * 2 + 9 * 3</t>
+  </si>
+  <si>
+    <t>6 * 3</t>
+  </si>
+  <si>
+    <t>(7 + 5) + 9 + 8 + ((4 + 7 + 3 * 5 + 7) + 7 + 2 * (7 * 2) * 8) + 6 + 8</t>
+  </si>
+  <si>
+    <t>6 * 5 * 9 * 4 * 8 * 4</t>
+  </si>
+  <si>
+    <t>7 + (6 * 7 + 6 * 6 + 4) + 6 + (5 * 9) + 4 + 9</t>
+  </si>
+  <si>
+    <t>(9 + 5 + (2 * 2 + 2) * 2 + (5 + 8 + 3 * 9 + 9 + 3) + 9) + (6 + 4 + 9 + 3 * (2 + 3) + 2) + (9 + (3 + 8 * 8 * 2) * 3 + 3 + 9 + 5) + (5 * 7 * 5) * 5 * 6</t>
+  </si>
+  <si>
+    <t>3 * 2 * (8 * 4 * 2) * 7 * (8 * (8 + 2 * 4 + 2 * 9) * (2 + 5 + 5 * 5 + 6)) * ((5 + 3 * 3 * 5 * 6 + 5) * 3 * 7)</t>
+  </si>
+  <si>
+    <t>7 * 8 + 8</t>
+  </si>
+  <si>
+    <t>4 + (8 * (8 * 3 * 2) + 3 + 3 * 4) * 3 + 7 * 8 * 6</t>
+  </si>
+  <si>
+    <t>2 * (2 * 6 + 4)</t>
+  </si>
+  <si>
+    <t>7 + (4 + 9 * (3 + 5 * 2)) + 5 + 6</t>
+  </si>
+  <si>
+    <t>(7 + 5 + 2 + 4) + 6</t>
+  </si>
+  <si>
+    <t>6 + 2 * 7 * 6 * (2 + (2 * 5 * 6))</t>
+  </si>
+  <si>
+    <t>3 * 3 * 6 + (2 * (6 + 9 + 2))</t>
+  </si>
+  <si>
+    <t>(2 + 5 * 6 * 3 + 2 * (6 + 4 * 9 * 5 * 7)) + 9 + (3 + 8 + 4 + 4 + 2 * 9) * 4 * 8 * (3 + 8 + 5)</t>
+  </si>
+  <si>
+    <t>7 * 5 + (9 * (7 * 2 * 4) + 5 * (4 + 9)) + 3 + 4 * (4 * (3 * 5 + 2 + 4 * 6) * 7 * (6 + 2 * 4 + 9) + 9)</t>
+  </si>
+  <si>
+    <t>(8 + 9 + 9 * 3 * 6 + 5) + 4 * 5 + 3</t>
+  </si>
+  <si>
+    <t>8 + 4 + (4 + 3 * 4) + 7</t>
+  </si>
+  <si>
+    <t>(4 + 8 + 8 + (8 + 7 * 6 + 8 + 5)) * 2 * 9 + (3 + 8) * 7 + 5</t>
+  </si>
+  <si>
+    <t>6 + (6 + 3) + (9 * 9 * (8 + 5) * 3) * (5 + 8 * 4 + 6 + 4)</t>
+  </si>
+  <si>
+    <t>((4 + 2 + 9 + 7 * 9 * 5) + 7 * 2 * (7 * 7 * 2) + 2) * ((7 * 3 + 5) + 9 + (7 * 4 * 8) + 4) + 2 * 8 + (3 + 3 + 6 * 9) * (6 * 2)</t>
+  </si>
+  <si>
+    <t>9 + 6 + 3 + 5 + (3 * (7 + 5 + 4 + 4) + 5 * (6 + 5 + 7 * 6 * 4 * 3) + 7 + 5) * 8</t>
+  </si>
+  <si>
+    <t>(3 + 6 * 5 + 9 + 8 + 8) * 6 + 6 + ((2 * 5 * 8 * 4 + 7 * 9) * (9 + 6 + 7 + 4 + 3) * 6 + 5 * (5 * 3 + 9 + 3 + 2))</t>
+  </si>
+  <si>
+    <t>(3 * (3 + 8)) * 2</t>
+  </si>
+  <si>
+    <t>2 * 4 + (9 * 6 + 4 * 5 * 9) * 3 + (6 + 6 + 4 * 9 + 5) * 6</t>
+  </si>
+  <si>
+    <t>3 + 8 * ((6 * 4 * 9 + 2) * 8 * 3 * 6) + 5 * 3 + 8</t>
+  </si>
+  <si>
+    <t>2 + (3 * 5 * (2 + 8) + 4 * (6 + 9 * 9) * 9) * 6 + 6 + 6</t>
+  </si>
+  <si>
+    <t>4 * 5 * (3 + 9 + (2 * 7 * 3 * 9 * 5) + 8 + 7)</t>
+  </si>
+  <si>
+    <t>2 + 6 + (7 * 4 * (8 * 8 + 7 * 5) * 9 + 7) + 3 + 2 + 6</t>
+  </si>
+  <si>
+    <t>6 + 6 * 4 * 6 * (3 + 4 + (9 + 9) + 5) + 7</t>
+  </si>
+  <si>
+    <t>8 + 6 * 8 + 4 * (2 + 8 + 5 * (4 * 9 + 5 * 4) * (6 * 4) * 2) + 9</t>
+  </si>
+  <si>
+    <t>8 * (5 + 4 * (6 + 7 + 6 + 2 * 3) + (3 * 9) * 9) * 8 * 4 * 3</t>
+  </si>
+  <si>
+    <t>(7 * 4 * 2 * 6) * (9 + 8 + 5 * (3 + 5) * 9 * 3) + (3 * 7) * 8 * 3 + 4</t>
+  </si>
+  <si>
+    <t>2 * 8 + 4 + 8 + 9 + 2</t>
+  </si>
+  <si>
+    <t>5 + (7 * 2 + 8) * 7 * 9 + 8</t>
+  </si>
+  <si>
+    <t>((3 * 7 + 9 * 4) * 2 + (8 + 8 * 2 * 5 + 4 * 6)) * 3</t>
+  </si>
+  <si>
+    <t>(3 * 5 * 4 + 5 * 6) * (5 + 7 * 4) * 3 * ((7 + 2 * 2 * 6) * 8 + 7 * 3) * 8 + 9</t>
+  </si>
+  <si>
+    <t>2 + (5 + 4 + 4 * (2 + 5 * 3 * 2 * 2) + (7 + 9 * 3 * 2) * (3 + 2 * 9)) * 2</t>
+  </si>
+  <si>
+    <t>(4 + 5 * 3 + 9 * 3) * (3 + 7 * 4 + 2 + 5 + (3 + 5 + 2 + 2 + 9)) * (5 * 2 * 5) + 4 * 2 + (5 + 9 + 7 + 5 * 5 * 2)</t>
+  </si>
+  <si>
+    <t>2 + (9 * 3 * 5 + 8) + 8 + 7 + (8 + 9 + 6 + 2 * 3) * 2</t>
+  </si>
+  <si>
+    <t>2 * 8 + 3 * (5 * 8 + (2 * 9 * 2)) + (4 + 4 + (7 + 3)) + 6</t>
+  </si>
+  <si>
+    <t>3 * ((9 * 8 * 6 + 7 * 6 * 5) + 9 + (5 + 5)) + 2</t>
+  </si>
+  <si>
+    <t>4 + 5 + 8 + (5 + 9 + (9 * 9 + 6 + 3 + 3 * 7) + (7 * 8 * 9 * 9 + 4) * 2) * 2</t>
+  </si>
+  <si>
+    <t>(4 * 8 * 8) * 3 + 9</t>
+  </si>
+  <si>
+    <t>((4 * 6 + 9) + 2 * 3 * 8 * 4 + (9 + 3 + 7 * 4)) * 3 * (8 + 7 * 2) + 2 + 3 + (2 * 6 * 9 * 6 * (5 * 8) * (4 * 3 + 3 + 4 * 6 + 9))</t>
+  </si>
+  <si>
+    <t>3 * (8 * 8 * 7 + 4 * 5 + (2 + 6 * 4 + 4 + 9 * 8)) + (9 + 9 + 8 + 6 + (8 * 6) + 3) * 6</t>
+  </si>
+  <si>
+    <t>6 * 2 + 3 * 5 + (2 * 7 * 7 * (7 * 9 + 6 + 2 + 5 + 7) + 6)</t>
+  </si>
+  <si>
+    <t>5 * 2 + 4 + 5 + (7 * 3 * 7 + 3 * 6 + 4) + 8</t>
+  </si>
+  <si>
+    <t>7 * (8 * 3 * 7 * (6 * 6 + 5 * 3 * 3) * 6) * 4 * 3 * 8 * 4</t>
+  </si>
+  <si>
+    <t>(3 + 9 * 7 * 3) + 5 + 7 * 2</t>
+  </si>
+  <si>
+    <t>6 * 4 * 5 + 2</t>
+  </si>
+  <si>
+    <t>8 * 7 + (5 * 8 * 2 * 3) * (8 + 7) + 3</t>
+  </si>
+  <si>
+    <t>6 * (2 + 9 * 2 + (5 * 6 * 9 + 4 + 9 * 8)) + 6 * 8 * 2</t>
+  </si>
+  <si>
+    <t>7 * ((3 * 2) + 3 + 4 + 4 + 7) * 7</t>
+  </si>
+  <si>
+    <t>8 * 9 * (3 * 7 * (9 + 4 * 7 + 6 * 7) * 8) * 8 * 9 * 4</t>
+  </si>
+  <si>
+    <t>(6 * 3 * (4 + 5 + 8 * 5) * 5 * 4) * 2 + 3 * 2</t>
+  </si>
+  <si>
+    <t>6 + (7 * 4 + 4 + 3) + 2 + 8 * 4 + 6</t>
+  </si>
+  <si>
+    <t>3 * 8</t>
+  </si>
+  <si>
+    <t>(7 + (2 * 5 * 5 * 4 + 7) * 7 * (5 + 2 * 4 * 5 + 8 * 4) * 8 + 2) * 7 * 7</t>
+  </si>
+  <si>
+    <t>(7 + 6 + 8) * (9 + 8) + 3 + 7</t>
+  </si>
+  <si>
+    <t>(6 + 5 * 3 + 6 * (3 * 5 + 9 * 6) * (7 * 9 + 8 * 4 + 2 + 4)) * 3 * 6 * 7 * 4 + 9</t>
+  </si>
+  <si>
+    <t>((3 * 8) + (8 * 4 + 8 * 5 * 7 + 4) + (9 + 9 + 5 + 8) * 2) * 2 + 7</t>
+  </si>
+  <si>
+    <t>8 * (8 + 2 + (2 + 8) + 7) * 4 + (6 + 8 * 8) + 5</t>
+  </si>
+  <si>
+    <t>(3 + 5 + 3 + 9 + 3) * 5 + 2</t>
+  </si>
+  <si>
+    <t>3 + 4 * ((6 * 8 + 8 + 5) + 9 + 6 + 3) * (2 + 8 + 4 * 6)</t>
+  </si>
+  <si>
+    <t>(9 + 9 * (6 * 3 * 5) * 6 + 7 * 6) + 8 + 9</t>
+  </si>
+  <si>
+    <t>2 * ((9 + 8 + 3 * 6 + 6 + 3) * 5) * 7 + 9 * 3 * 4</t>
+  </si>
+  <si>
+    <t>4 + (4 * 8 * 6 * 6 * 8) * 7 * (2 * 4 + 6) * 5 * 8</t>
+  </si>
+  <si>
+    <t>((3 + 6) * 9 + 9 * 8 + 3) * 8 + 2 * (5 * (8 * 8 + 2) * 6 + 4 * 3 * 2) + (2 + (6 + 7 + 3 * 3) + 5 * 5 * 7)</t>
+  </si>
+  <si>
+    <t>(3 + 5) * 9 + 9</t>
+  </si>
+  <si>
+    <t>(8 * 2 * 9) * (7 * 6 + 9 * (2 * 4 + 2 * 5 * 7)) * 5</t>
+  </si>
+  <si>
+    <t>3 * 6 * (9 + 7) * 3</t>
+  </si>
+  <si>
+    <t>(9 * 4 + 6 + (5 + 2 * 7 + 5)) + 7 * (5 + 7) * 9 + (4 * 9 * 7 * 8 + 3 + 7) * ((4 * 9) * 8)</t>
+  </si>
+  <si>
+    <t>((4 * 2 * 5) * 2 + 4 + 6 * 3) * (9 + 2) + 9 + 6 + (5 + 6 * 7 * 5)</t>
+  </si>
+  <si>
+    <t>((7 * 7 + 2 + 2 * 8) + 7 + (9 * 3 + 8 * 7) + 3) + 3</t>
+  </si>
+  <si>
+    <t>9 + (6 + 5 * (4 * 3) + 9 * 5) * 2 + ((7 + 5 + 3 * 8 * 8) * (2 * 7 + 4 * 6 * 7 * 2)) + (9 + (9 + 8 * 5 + 5 + 5 * 4) + (6 + 8 * 7 * 8 + 8 * 7)) + 4</t>
+  </si>
+  <si>
+    <t>6 + 2 + (2 + 4 * 6) + 4 * 3</t>
+  </si>
+  <si>
+    <t>5 + 5 + 3 * 9 + 2</t>
+  </si>
+  <si>
+    <t>(9 + 7 * 3) * 7</t>
+  </si>
+  <si>
+    <t>7 * 6 * 9 * 5 + 8 * 2</t>
+  </si>
+  <si>
+    <t>(7 + (9 * 9 * 3)) * (5 * (8 * 9) + 9 + 7 * 5) + 3 + 4 * 4</t>
+  </si>
+  <si>
+    <t>9 + 2 * (3 + 4 + 8 + 2)</t>
+  </si>
+  <si>
+    <t>5 + 2 * (9 * 3 + (7 + 3 + 8 * 2 + 7 + 8)) + 4 * (8 + 4 * 9 * (6 + 7 * 2 * 3 + 3 + 3))</t>
+  </si>
+  <si>
+    <t>(6 * 2 * (3 + 6 + 7 * 3) * 4) + 5 + 6 + 6 * 3 + 6</t>
+  </si>
+  <si>
+    <t>6 + (4 * 4 + 8 + 2) * 2 + 4 * 5</t>
+  </si>
+  <si>
+    <t>3 * 5 + 9 * (4 * (3 * 9 + 7 * 7) + 8 * 8)</t>
+  </si>
+  <si>
+    <t>((3 * 8 + 3) * 5 * 6) * 8 * 7 + (9 * 8 * 8 * 2 * (5 * 4 * 2 + 2 * 6 + 6) * 6)</t>
+  </si>
+  <si>
+    <t>4 * 7 + (3 * 4 + 3)</t>
+  </si>
+  <si>
+    <t>9 + (2 * (9 * 7 + 4 * 6 * 9 + 7)) + 5</t>
+  </si>
+  <si>
+    <t>9 * (6 * (5 * 3)) + 9 * 4 + 3</t>
+  </si>
+  <si>
+    <t>9 + 5 * 3 * 3 * 3 + 2</t>
+  </si>
+  <si>
+    <t>3 + (7 + (3 + 2 * 6)) + 3 + 9 * 6 * 3</t>
+  </si>
+  <si>
+    <t>5 + 6 + 8 * 7</t>
+  </si>
+  <si>
+    <t>4 + ((7 + 6) * (8 * 5 * 6 * 7 + 8) + 2 * 3 + 7) * 6 * 4 * 8</t>
+  </si>
+  <si>
+    <t>((5 + 9 + 7 * 3 * 7) + (8 + 5 * 5 * 9 + 6 * 3) + 4 * 9 + 8 + 5) + ((9 + 4 + 2 + 3) * 2 + 5 * (2 * 5 * 5 * 4)) * 6 * 5</t>
+  </si>
+  <si>
+    <t>4 + (2 * (5 * 7 * 8 * 5 * 5))</t>
+  </si>
+  <si>
+    <t>(7 * 9) * 7 + (9 + 7) + 4 * 7 + (3 + 7 + 6)</t>
+  </si>
+  <si>
+    <t>(8 + 9 + 5 + 4 + 4) + 6 * 6 + 6</t>
+  </si>
+  <si>
+    <t>7 * 5 * (7 * 2 + 3 + (2 * 9 * 4 + 3 + 8 + 4) + 8 * 4) * 7 * 3</t>
+  </si>
+  <si>
+    <t>6 + 2 * 7 * 4 * 6 + ((6 * 2 * 8 + 4) + 6 * 9 * 4 + 6 + 5)</t>
+  </si>
+  <si>
+    <t>9 + 3 + 2 * (5 * 2 * 6 + 6 * 4) + 9 * 7</t>
+  </si>
+  <si>
+    <t>9 * 3 + 2 + 4 * 6</t>
+  </si>
+  <si>
+    <t>(2 * 3 + 2 * 3 + 4) * 8 + 8 + (2 * 2 * 6 + 9 + 2) * 8 + 3</t>
+  </si>
+  <si>
+    <t>2 + 4 * 3 + 5 * 4 + (3 * (9 + 4 * 7) + 7 * 5)</t>
+  </si>
+  <si>
+    <t>(2 + (7 * 5 + 7 * 4) * 8 * (2 + 9 * 5 + 7 * 7) + 5 + (8 + 9 + 5)) + 2 + (7 * 5 * 9 * 6 * 3 + (9 * 8 + 9 * 7 + 3)) + (3 + 5 + 7 + (5 + 2 + 2 + 9)) + 9 + 8</t>
+  </si>
+  <si>
+    <t>(9 * (7 + 6 * 4 + 3 * 8 + 4) * 4 + 2) * (9 * 2 * 2 * 6 * 2) + (5 + 5 + 8 + (8 * 3 + 9 * 9 + 6 * 5) * 8 * 7) + 8</t>
+  </si>
+  <si>
+    <t>7 + 7 * (3 + 8 * 6) * 2 * 8 + 2</t>
+  </si>
+  <si>
+    <t>(2 + 8 * 2 * 7 + 8 + 4) + ((5 + 9 * 2 * 8 + 9) * 6 * 2) + 4</t>
+  </si>
+  <si>
+    <t>8 + ((2 + 3) * 2) + 8 * 2</t>
+  </si>
+  <si>
+    <t>9 * 3 + 3 * 6</t>
+  </si>
+  <si>
+    <t>5 * 9 + (6 + 9 + 4 + 7) * ((4 + 4 + 4 * 3) * 6 + 4)</t>
+  </si>
+  <si>
+    <t>((9 * 7) * 9 + 8 + 5 + 7 * 8) * 9 + (2 + 8) * (6 * (2 * 4 * 7 + 2 * 6 + 9) + (7 * 5 * 3 + 9) * 9 + 5) * 6</t>
+  </si>
+  <si>
+    <t>6 + 3 * 6 + (2 * (7 * 5 + 4 * 9 + 7) + 5 * 2 + 8)</t>
+  </si>
+  <si>
+    <t>4 + 7 + (8 + (8 * 6)) * 6 + 6</t>
+  </si>
+  <si>
+    <t>6 * ((5 * 9 + 8 + 3 * 8) * (7 + 6 + 9) * (2 * 6 + 7 * 4 + 5) * (7 * 9 + 6)) + (2 + 5 * 7 * 6 + 9) * 3</t>
+  </si>
+  <si>
+    <t>5 * (9 + (3 + 4)) + 9 * (7 * 6 * 6 + 9)</t>
+  </si>
+  <si>
+    <t>6 * 5 * 2 + ((3 * 7 * 9 + 3) + (2 * 9 * 9 + 5) * 7) + 7 + 3</t>
+  </si>
+  <si>
+    <t>(6 * 3 + (6 + 8 + 3) + 5 + 6) + 4</t>
+  </si>
+  <si>
+    <t>6 * (8 * 8 * 9 * 6) * 9</t>
+  </si>
+  <si>
+    <t>7 + (6 + 2 + 2 * 8 * 4) * 9</t>
+  </si>
+  <si>
+    <t>3 + (8 * 8 + 6 + 4 + (2 + 9 + 8))</t>
+  </si>
+  <si>
+    <t>9 * (8 + 5 + (2 + 2 * 3 + 5 + 6) * 4) + 3 * 2 * ((5 * 8) + 6 + 2 + 6 + 8 * 7) + 4</t>
+  </si>
+  <si>
+    <t>9 + 8 * ((7 + 6) * 5 * (7 + 9) + 3 + 7) * ((7 + 7 * 2) + 6 + 7)</t>
+  </si>
+  <si>
+    <t>(5 + (2 + 3 + 2) * 8 * 4 * 5) * (3 * 8) * 8 * (7 + 8 + 3 + 2) + (7 + 3 * (6 + 7 + 3 + 2 * 8))</t>
+  </si>
+  <si>
+    <t>3 + 9 + (6 + 7 + (7 * 4 + 8 + 8 * 3) + 7)</t>
+  </si>
+  <si>
+    <t>8 + (7 + 5 * (8 * 6 * 6 * 9 + 8 + 9) * 6) * 9 * 5 * (5 * 7 + (2 + 3 + 2 * 7 + 5) * 5) * 3</t>
+  </si>
+  <si>
+    <t>7 * 3 * (7 * 5 + (2 * 7 + 9) + 6) + 3 * ((2 * 4) * 5 + 5 + 7 + (2 + 9 * 2 * 6 + 9 + 3))</t>
+  </si>
+  <si>
+    <t>7 * 9 * 6 + 2 * (5 + 2 * 7 + 7 * 3) * (2 * 5 + 3 * (5 * 8) + 8)</t>
+  </si>
+  <si>
+    <t>5 + (4 * 2 * (5 + 2 + 3 + 4 * 3) + (3 + 6 * 5 * 6) + 4) * 3</t>
+  </si>
+  <si>
+    <t>8 + (3 * 7 + (7 + 8 + 7) + 9) * 6 * 7 * (5 * 2 * 4 * 5)</t>
+  </si>
+  <si>
+    <t>(2 + (3 * 6 * 7) * 6) + 5 * 7 + 6</t>
+  </si>
+  <si>
+    <t>((5 + 7 * 3 * 9 + 3 + 8) * 5) * (2 + 5 + 7 + (9 * 3 * 8 + 4 * 2)) * (4 * 3 + 5 + 4) + 6 * 5 + 2</t>
+  </si>
+  <si>
+    <t>9 + 7 * ((3 + 6 * 2 * 4) * 6) * 9</t>
+  </si>
+  <si>
+    <t>3 + 8 * 3 + 3 * 3 * (7 + 4 + 3 + 4 + 9 + 7)</t>
+  </si>
+  <si>
+    <t>9 + 7 + (7 + (3 + 8 + 9)) + 8 * 4</t>
+  </si>
+  <si>
+    <t>(7 + 2 * 8 + 9) * 6 + 4 * (3 + (7 * 6 * 7 + 4) * 9 * 2)</t>
+  </si>
+  <si>
+    <t>(8 + 7 * 3 + 7 * 4 * 7) * 6</t>
+  </si>
+  <si>
+    <t>3 + 9 * ((4 + 5 * 8) + 5 * 3 * 2 * (6 * 6 * 6 + 3 + 7 * 3) * 7) * 9 * 6 * 2</t>
+  </si>
+  <si>
+    <t>4 * 7 * (9 + 2 * 5 * 3 * (7 * 9 + 8 * 2 * 7)) + 3 + (6 * 5 + (4 * 5) + 9 * 6 * 4)</t>
+  </si>
+  <si>
+    <t>7 + (7 * 7 * 7) + (9 * 9 + (9 + 3 + 8 * 3) * 2 * (7 + 7 * 8)) * 3</t>
+  </si>
+  <si>
+    <t>(8 * 2 + 9) * (9 * 2 + 5) + 7 * (2 * 2 * 9 + 9 + 7) * 2</t>
   </si>
 </sst>
 </file>
@@ -28087,7 +29207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CB4DF0-D78C-4D06-8D14-449D9ECD498E}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -28240,7 +29362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E134165-4B87-4037-9339-94A5EE48A18D}">
   <dimension ref="A1:X236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
@@ -28313,7 +29435,7 @@
         <v>323</v>
       </c>
       <c r="V1" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A1:T1)</f>
+        <f t="shared" ref="V1:V64" si="0">+_xlfn.TEXTJOIN(",",TRUE,A1:T1)</f>
         <v>390,125,294,296,621,356,716,135,845,790,433,348,710,927,863,136,834,139,115,323</v>
       </c>
       <c r="X1" t="str">
@@ -28383,7 +29505,7 @@
         <v>274</v>
       </c>
       <c r="V2" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A2:T2)</f>
+        <f t="shared" si="0"/>
         <v>819,227,432,784,840,691,760,608,352,759,85,712,578,575,901,151,440,494,283,274</v>
       </c>
     </row>
@@ -28449,7 +29571,7 @@
         <v>607</v>
       </c>
       <c r="V3" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A3:T3)</f>
+        <f t="shared" si="0"/>
         <v>455,784,136,934,493,390,140,53,397,355,802,100,420,126,902,870,588,498,60,607</v>
       </c>
     </row>
@@ -28515,7 +29637,7 @@
         <v>348</v>
       </c>
       <c r="V4" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A4:T4)</f>
+        <f t="shared" si="0"/>
         <v>84,785,235,760,316,787,318,70,809,586,228,388,458,152,408,245,983,765,485,348</v>
       </c>
     </row>
@@ -28581,7 +29703,7 @@
         <v>785</v>
       </c>
       <c r="V5" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A5:T5)</f>
+        <f t="shared" si="0"/>
         <v>71,303,390,394,68,796,372,829,153,656,769,103,827,588,873,595,619,149,235,785</v>
       </c>
     </row>
@@ -28647,7 +29769,7 @@
         <v>840</v>
       </c>
       <c r="V6" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A6:T6)</f>
+        <f t="shared" si="0"/>
         <v>494,323,586,945,847,75,839,606,586,457,355,840,114,376,753,207,205,823,273,840</v>
       </c>
     </row>
@@ -28713,7 +29835,7 @@
         <v>494</v>
       </c>
       <c r="V7" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A7:T7)</f>
+        <f t="shared" si="0"/>
         <v>499,500,425,68,402,319,931,287,822,631,386,897,311,757,570,752,651,565,135,494</v>
       </c>
     </row>
@@ -28779,7 +29901,7 @@
         <v>267</v>
       </c>
       <c r="V8" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A8:T8)</f>
+        <f t="shared" si="0"/>
         <v>239,238,456,392,227,850,352,703,786,939,334,298,336,740,833,148,353,712,319,267</v>
       </c>
     </row>
@@ -28845,7 +29967,7 @@
         <v>582</v>
       </c>
       <c r="V9" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A9:T9)</f>
+        <f t="shared" si="0"/>
         <v>855,845,557,145,78,693,559,560,203,398,563,480,180,892,349,935,816,274,370,582</v>
       </c>
     </row>
@@ -28911,7 +30033,7 @@
         <v>238</v>
       </c>
       <c r="V10" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A10:T10)</f>
+        <f t="shared" si="0"/>
         <v>274,369,868,128,878,982,84,313,682,612,120,59,64,598,426,608,391,897,789,238</v>
       </c>
     </row>
@@ -28977,7 +30099,7 @@
         <v>263</v>
       </c>
       <c r="V11" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A11:T11)</f>
+        <f t="shared" si="0"/>
         <v>440,365,720,81,497,281,717,414,531,154,595,693,849,73,488,594,215,301,131,263</v>
       </c>
     </row>
@@ -29043,7 +30165,7 @@
         <v>408</v>
       </c>
       <c r="V12" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A12:T12)</f>
+        <f t="shared" si="0"/>
         <v>943,311,275,550,680,409,168,875,406,935,531,575,141,809,622,303,143,131,814,408</v>
       </c>
     </row>
@@ -29109,7 +30231,7 @@
         <v>340</v>
       </c>
       <c r="V13" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A13:T13)</f>
+        <f t="shared" si="0"/>
         <v>521,558,250,699,125,716,781,88,386,396,783,69,738,898,585,84,233,131,228,340</v>
       </c>
     </row>
@@ -29175,7 +30297,7 @@
         <v>83</v>
       </c>
       <c r="V14" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A14:T14)</f>
+        <f t="shared" si="0"/>
         <v>554,435,108,821,939,616,622,586,371,705,706,627,159,186,839,498,829,932,367,83</v>
       </c>
     </row>
@@ -29241,7 +30363,7 @@
         <v>275</v>
       </c>
       <c r="V15" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A15:T15)</f>
+        <f t="shared" si="0"/>
         <v>393,850,936,532,673,716,597,534,874,128,380,108,333,401,818,137,426,152,83,275</v>
       </c>
     </row>
@@ -29307,7 +30429,7 @@
         <v>223</v>
       </c>
       <c r="V16" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A16:T16)</f>
+        <f t="shared" si="0"/>
         <v>121,424,681,767,498,819,811,334,941,413,295,55,205,432,334,311,764,128,714,223</v>
       </c>
     </row>
@@ -29373,7 +30495,7 @@
         <v>589</v>
       </c>
       <c r="V17" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A17:T17)</f>
+        <f t="shared" si="0"/>
         <v>483,188,293,866,245,814,894,870,272,572,687,98,758,239,310,788,78,624,841,589</v>
       </c>
     </row>
@@ -29439,7 +30561,7 @@
         <v>760</v>
       </c>
       <c r="V18" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A18:T18)</f>
+        <f t="shared" si="0"/>
         <v>846,748,338,875,699,232,562,120,868,837,149,423,311,521,638,435,940,460,786,760</v>
       </c>
     </row>
@@ -29505,7 +30627,7 @@
         <v>226</v>
       </c>
       <c r="V19" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A19:T19)</f>
+        <f t="shared" si="0"/>
         <v>659,141,95,240,538,229,328,730,563,761,559,246,206,589,238,277,553,543,409,226</v>
       </c>
     </row>
@@ -29571,7 +30693,7 @@
         <v>100</v>
       </c>
       <c r="V20" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A20:T20)</f>
+        <f t="shared" si="0"/>
         <v>459,819,942,720,875,902,417,573,796,285,948,398,401,583,701,139,528,437,185,100</v>
       </c>
     </row>
@@ -29637,7 +30759,7 @@
         <v>555</v>
       </c>
       <c r="V21" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A21:T21)</f>
+        <f t="shared" si="0"/>
         <v>746,69,65,806,868,271,559,412,243,342,564,230,813,978,285,205,694,824,108,555</v>
       </c>
     </row>
@@ -29703,7 +30825,7 @@
         <v>549</v>
       </c>
       <c r="V22" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A22:T22)</f>
+        <f t="shared" si="0"/>
         <v>329,342,768,826,125,601,622,111,768,247,622,658,60,524,59,102,161,727,84,549</v>
       </c>
     </row>
@@ -29769,7 +30891,7 @@
         <v>497</v>
       </c>
       <c r="V23" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A23:T23)</f>
+        <f t="shared" si="0"/>
         <v>358,185,693,698,800,942,717,386,486,126,790,300,623,321,792,401,140,330,483,497</v>
       </c>
     </row>
@@ -29835,7 +30957,7 @@
         <v>703</v>
       </c>
       <c r="V24" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A24:T24)</f>
+        <f t="shared" si="0"/>
         <v>607,772,754,459,99,424,491,610,332,828,614,579,868,947,228,399,799,700,71,703</v>
       </c>
     </row>
@@ -29901,7 +31023,7 @@
         <v>500</v>
       </c>
       <c r="V25" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A25:T25)</f>
+        <f t="shared" si="0"/>
         <v>89,275,51,112,131,929,812,115,160,677,872,721,577,353,612,351,479,176,876,500</v>
       </c>
     </row>
@@ -29967,7 +31089,7 @@
         <v>557</v>
       </c>
       <c r="V26" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A26:T26)</f>
+        <f t="shared" si="0"/>
         <v>438,141,810,937,598,697,324,310,406,339,839,729,787,203,802,602,657,982,825,557</v>
       </c>
     </row>
@@ -30033,7 +31155,7 @@
         <v>58</v>
       </c>
       <c r="V27" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A27:T27)</f>
+        <f t="shared" si="0"/>
         <v>571,188,613,707,249,522,730,300,695,491,808,686,556,209,93,279,107,804,118,58</v>
       </c>
     </row>
@@ -30099,7 +31221,7 @@
         <v>388</v>
       </c>
       <c r="V28" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A28:T28)</f>
+        <f t="shared" si="0"/>
         <v>77,59,449,604,656,306,91,713,852,694,122,551,837,901,99,600,758,701,538,388</v>
       </c>
     </row>
@@ -30165,7 +31287,7 @@
         <v>782</v>
       </c>
       <c r="V29" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A29:T29)</f>
+        <f t="shared" si="0"/>
         <v>799,525,133,859,231,844,232,614,286,371,847,230,309,801,774,53,351,480,895,782</v>
       </c>
     </row>
@@ -30231,7 +31353,7 @@
         <v>160</v>
       </c>
       <c r="V30" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A30:T30)</f>
+        <f t="shared" si="0"/>
         <v>763,556,266,716,108,456,67,62,93,903,327,308,947,416,329,947,890,763,152,160</v>
       </c>
     </row>
@@ -30297,7 +31419,7 @@
         <v>293</v>
       </c>
       <c r="V31" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A31:T31)</f>
+        <f t="shared" si="0"/>
         <v>616,307,849,655,876,857,492,489,873,398,853,329,460,16,698,890,858,53,751,293</v>
       </c>
     </row>
@@ -30363,7 +31485,7 @@
         <v>554</v>
       </c>
       <c r="V32" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A32:T32)</f>
+        <f t="shared" si="0"/>
         <v>508,937,332,803,790,604,845,718,570,178,710,570,79,310,716,486,51,61,850,554</v>
       </c>
     </row>
@@ -30429,7 +31551,7 @@
         <v>318</v>
       </c>
       <c r="V33" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A33:T33)</f>
+        <f t="shared" si="0"/>
         <v>525,493,610,807,695,440,566,403,699,497,215,107,641,395,208,385,551,143,399,318</v>
       </c>
     </row>
@@ -30495,7 +31617,7 @@
         <v>767</v>
       </c>
       <c r="V34" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A34:T34)</f>
+        <f t="shared" si="0"/>
         <v>729,949,68,304,399,53,832,68,892,487,532,568,342,410,896,440,53,375,488,767</v>
       </c>
     </row>
@@ -30561,7 +31683,7 @@
         <v>760</v>
       </c>
       <c r="V35" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A35:T35)</f>
+        <f t="shared" si="0"/>
         <v>50,178,179,603,786,928,863,128,60,416,315,409,277,721,931,74,326,799,679,760</v>
       </c>
     </row>
@@ -30627,7 +31749,7 @@
         <v>836</v>
       </c>
       <c r="V36" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A36:T36)</f>
+        <f t="shared" si="0"/>
         <v>825,154,847,112,854,202,658,287,128,667,93,550,730,494,329,819,683,394,557,836</v>
       </c>
     </row>
@@ -30693,7 +31815,7 @@
         <v>892</v>
       </c>
       <c r="V37" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A37:T37)</f>
+        <f t="shared" si="0"/>
         <v>597,849,749,896,703,101,159,982,947,409,712,928,618,229,146,682,555,297,407,892</v>
       </c>
     </row>
@@ -30759,7 +31881,7 @@
         <v>977</v>
       </c>
       <c r="V38" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A38:T38)</f>
+        <f t="shared" si="0"/>
         <v>700,62,789,354,585,53,877,411,414,700,486,802,863,619,700,101,388,155,154,977</v>
       </c>
     </row>
@@ -30825,7 +31947,7 @@
         <v>436</v>
       </c>
       <c r="V39" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A39:T39)</f>
+        <f t="shared" si="0"/>
         <v>834,689,441,804,109,758,480,678,935,659,626,791,573,499,273,82,843,434,804,436</v>
       </c>
     </row>
@@ -30891,7 +32013,7 @@
         <v>799</v>
       </c>
       <c r="V40" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A40:T40)</f>
+        <f t="shared" si="0"/>
         <v>556,711,629,497,684,106,341,581,493,787,844,50,660,791,548,290,674,478,589,799</v>
       </c>
     </row>
@@ -30957,7 +32079,7 @@
         <v>730</v>
       </c>
       <c r="V41" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A41:T41)</f>
+        <f t="shared" si="0"/>
         <v>487,759,287,890,330,107,250,82,129,706,448,936,552,80,751,898,630,526,399,730</v>
       </c>
     </row>
@@ -31023,7 +32145,7 @@
         <v>813</v>
       </c>
       <c r="V42" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A42:T42)</f>
+        <f t="shared" si="0"/>
         <v>104,302,612,722,523,60,891,353,597,588,839,363,355,77,855,521,264,293,429,813</v>
       </c>
     </row>
@@ -31089,7 +32211,7 @@
         <v>391</v>
       </c>
       <c r="V43" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A43:T43)</f>
+        <f t="shared" si="0"/>
         <v>153,152,729,412,945,82,341,746,150,757,278,74,722,893,546,143,180,627,237,391</v>
       </c>
     </row>
@@ -31155,7 +32277,7 @@
         <v>53</v>
       </c>
       <c r="V44" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A44:T44)</f>
+        <f t="shared" si="0"/>
         <v>123,564,719,682,602,597,598,898,70,389,203,785,578,649,138,88,524,89,819,53</v>
       </c>
     </row>
@@ -31221,7 +32343,7 @@
         <v>97</v>
       </c>
       <c r="V45" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A45:T45)</f>
+        <f t="shared" si="0"/>
         <v>946,701,213,127,708,86,67,497,55,772,210,764,583,719,77,87,559,290,584,97</v>
       </c>
     </row>
@@ -31287,7 +32409,7 @@
         <v>604</v>
       </c>
       <c r="V46" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A46:T46)</f>
+        <f t="shared" si="0"/>
         <v>479,631,283,91,706,800,547,408,943,697,658,283,330,170,524,67,403,591,800,604</v>
       </c>
     </row>
@@ -31353,7 +32475,7 @@
         <v>713</v>
       </c>
       <c r="V47" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A47:T47)</f>
+        <f t="shared" si="0"/>
         <v>562,532,909,877,92,534,706,725,414,278,583,721,760,225,231,761,133,561,795,713</v>
       </c>
     </row>
@@ -31419,7 +32541,7 @@
         <v>576</v>
       </c>
       <c r="V48" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A48:T48)</f>
+        <f t="shared" si="0"/>
         <v>330,873,285,701,616,496,768,207,290,719,150,835,937,248,252,897,683,229,573,576</v>
       </c>
     </row>
@@ -31485,7 +32607,7 @@
         <v>339</v>
       </c>
       <c r="V49" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A49:T49)</f>
+        <f t="shared" si="0"/>
         <v>399,416,673,747,326,440,696,179,892,321,575,554,243,626,522,281,852,127,806,339</v>
       </c>
     </row>
@@ -31551,7 +32673,7 @@
         <v>607</v>
       </c>
       <c r="V50" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A50:T50)</f>
+        <f t="shared" si="0"/>
         <v>490,531,673,460,874,715,682,117,604,390,557,717,155,555,249,408,82,618,978,607</v>
       </c>
     </row>
@@ -31617,7 +32739,7 @@
         <v>428</v>
       </c>
       <c r="V51" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A51:T51)</f>
+        <f t="shared" si="0"/>
         <v>802,709,270,823,565,452,831,563,702,527,847,116,144,334,92,707,299,410,371,428</v>
       </c>
     </row>
@@ -31683,7 +32805,7 @@
         <v>939</v>
       </c>
       <c r="V52" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A52:T52)</f>
+        <f t="shared" si="0"/>
         <v>118,439,478,681,279,489,145,98,404,437,274,579,539,303,818,413,675,76,571,939</v>
       </c>
     </row>
@@ -31749,7 +32871,7 @@
         <v>618</v>
       </c>
       <c r="V53" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A53:T53)</f>
+        <f t="shared" si="0"/>
         <v>356,251,332,824,136,146,439,232,315,932,398,848,623,947,934,483,621,756,102,618</v>
       </c>
     </row>
@@ -31815,7 +32937,7 @@
         <v>96</v>
       </c>
       <c r="V54" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A54:T54)</f>
+        <f t="shared" si="0"/>
         <v>875,604,80,606,839,104,726,114,683,231,154,940,83,940,898,787,285,691,548,96</v>
       </c>
     </row>
@@ -31881,7 +33003,7 @@
         <v>900</v>
       </c>
       <c r="V55" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A55:T55)</f>
+        <f t="shared" si="0"/>
         <v>867,319,946,877,314,897,377,757,462,725,97,570,459,128,339,303,817,525,349,900</v>
       </c>
     </row>
@@ -31947,7 +33069,7 @@
         <v>864</v>
       </c>
       <c r="V56" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A56:T56)</f>
+        <f t="shared" si="0"/>
         <v>727,710,147,428,770,287,283,328,60,930,596,301,179,527,494,496,107,839,763,864</v>
       </c>
     </row>
@@ -32013,7 +33135,7 @@
         <v>406</v>
       </c>
       <c r="V57" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A57:T57)</f>
+        <f t="shared" si="0"/>
         <v>667,52,178,306,932,729,439,572,868,86,784,113,701,56,110,560,271,235,351,406</v>
       </c>
     </row>
@@ -32079,7 +33201,7 @@
         <v>94</v>
       </c>
       <c r="V58" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A58:T58)</f>
+        <f t="shared" si="0"/>
         <v>839,657,898,705,630,317,394,805,128,799,277,853,821,495,759,97,221,557,819,94</v>
       </c>
     </row>
@@ -32145,7 +33267,7 @@
         <v>998</v>
       </c>
       <c r="V59" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A59:T59)</f>
+        <f t="shared" si="0"/>
         <v>554,281,701,726,610,250,58,241,83,594,240,933,845,370,536,618,426,562,431,998</v>
       </c>
     </row>
@@ -32211,7 +33333,7 @@
         <v>154</v>
       </c>
       <c r="V60" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A60:T60)</f>
+        <f t="shared" si="0"/>
         <v>402,768,462,120,829,751,138,383,95,280,559,520,702,106,235,579,697,581,697,154</v>
       </c>
     </row>
@@ -32277,7 +33399,7 @@
         <v>771</v>
       </c>
       <c r="V61" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A61:T61)</f>
+        <f t="shared" si="0"/>
         <v>794,630,586,683,313,854,796,62,304,84,486,141,325,575,767,51,585,300,754,771</v>
       </c>
     </row>
@@ -32343,7 +33465,7 @@
         <v>947</v>
       </c>
       <c r="V62" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A62:T62)</f>
+        <f t="shared" si="0"/>
         <v>821,533,292,872,623,717,85,270,776,238,551,392,626,538,796,931,325,553,188,947</v>
       </c>
     </row>
@@ -32409,7 +33531,7 @@
         <v>122</v>
       </c>
       <c r="V63" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A63:T63)</f>
+        <f t="shared" si="0"/>
         <v>298,790,296,323,855,721,460,439,704,892,576,295,93,306,713,850,310,438,778,122</v>
       </c>
     </row>
@@ -32475,7 +33597,7 @@
         <v>101</v>
       </c>
       <c r="V64" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A64:T64)</f>
+        <f t="shared" si="0"/>
         <v>720,544,287,423,71,705,241,803,265,680,108,66,588,498,831,370,605,707,206,101</v>
       </c>
     </row>
@@ -32541,7 +33663,7 @@
         <v>688</v>
       </c>
       <c r="V65" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A65:T65)</f>
+        <f t="shared" ref="V65:V128" si="1">+_xlfn.TEXTJOIN(",",TRUE,A65:T65)</f>
         <v>206,574,747,846,241,596,206,619,301,99,54,700,561,701,934,760,203,353,753,688</v>
       </c>
     </row>
@@ -32607,7 +33729,7 @@
         <v>316</v>
       </c>
       <c r="V66" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A66:T66)</f>
+        <f t="shared" si="1"/>
         <v>558,136,727,810,116,557,478,549,787,191,761,408,721,813,435,763,836,296,334,316</v>
       </c>
     </row>
@@ -32673,7 +33795,7 @@
         <v>356</v>
       </c>
       <c r="V67" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A67:T67)</f>
+        <f t="shared" si="1"/>
         <v>220,626,768,901,813,695,334,244,206,615,70,143,114,752,76,91,146,388,122,356</v>
       </c>
     </row>
@@ -32739,7 +33861,7 @@
         <v>573</v>
       </c>
       <c r="V68" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A68:T68)</f>
+        <f t="shared" si="1"/>
         <v>369,699,225,498,591,105,659,61,424,141,718,60,777,496,495,673,705,837,623,573</v>
       </c>
     </row>
@@ -32805,7 +33927,7 @@
         <v>154</v>
       </c>
       <c r="V69" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A69:T69)</f>
+        <f t="shared" si="1"/>
         <v>928,811,759,319,405,698,82,315,412,583,289,720,383,353,601,341,325,70,248,154</v>
       </c>
     </row>
@@ -32871,7 +33993,7 @@
         <v>746</v>
       </c>
       <c r="V70" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A70:T70)</f>
+        <f t="shared" si="1"/>
         <v>552,695,108,556,329,304,185,134,681,370,891,697,270,303,445,831,339,433,424,746</v>
       </c>
     </row>
@@ -32937,7 +34059,7 @@
         <v>431</v>
       </c>
       <c r="V71" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A71:T71)</f>
+        <f t="shared" si="1"/>
         <v>202,306,246,767,76,128,123,403,355,794,856,774,875,139,627,615,714,901,293,431</v>
       </c>
     </row>
@@ -33003,7 +34125,7 @@
         <v>440</v>
       </c>
       <c r="V72" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A72:T72)</f>
+        <f t="shared" si="1"/>
         <v>822,750,877,112,861,204,99,571,827,623,522,94,874,541,699,89,587,350,847,440</v>
       </c>
     </row>
@@ -33069,7 +34191,7 @@
         <v>124</v>
       </c>
       <c r="V73" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A73:T73)</f>
+        <f t="shared" si="1"/>
         <v>764,85,337,895,337,711,81,811,155,277,303,523,278,301,813,614,542,115,750,124</v>
       </c>
     </row>
@@ -33135,7 +34257,7 @@
         <v>563</v>
       </c>
       <c r="V74" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A74:T74)</f>
+        <f t="shared" si="1"/>
         <v>822,824,588,587,931,524,274,129,864,93,755,95,527,790,854,659,124,420,91,563</v>
       </c>
     </row>
@@ -33201,7 +34323,7 @@
         <v>874</v>
       </c>
       <c r="V75" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A75:T75)</f>
+        <f t="shared" si="1"/>
         <v>693,631,798,150,694,852,793,597,824,593,621,300,400,77,122,71,723,634,576,874</v>
       </c>
     </row>
@@ -33267,7 +34389,7 @@
         <v>484</v>
       </c>
       <c r="V76" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A76:T76)</f>
+        <f t="shared" si="1"/>
         <v>96,644,524,315,387,705,188,328,942,558,87,699,75,154,69,495,532,356,817,484</v>
       </c>
     </row>
@@ -33333,7 +34455,7 @@
         <v>997</v>
       </c>
       <c r="V77" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A77:T77)</f>
+        <f t="shared" si="1"/>
         <v>571,682,137,782,157,156,305,395,484,855,711,487,96,844,289,499,496,852,340,997</v>
       </c>
     </row>
@@ -33399,7 +34521,7 @@
         <v>51</v>
       </c>
       <c r="V78" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A78:T78)</f>
+        <f t="shared" si="1"/>
         <v>369,211,462,595,817,247,770,600,561,547,226,235,946,348,105,440,245,432,315,51</v>
       </c>
     </row>
@@ -33465,7 +34587,7 @@
         <v>728</v>
       </c>
       <c r="V79" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A79:T79)</f>
+        <f t="shared" si="1"/>
         <v>77,878,560,244,392,282,878,759,227,498,827,759,53,570,204,616,557,913,147,728</v>
       </c>
     </row>
@@ -33531,7 +34653,7 @@
         <v>500</v>
       </c>
       <c r="V80" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A80:T80)</f>
+        <f t="shared" si="1"/>
         <v>398,547,673,309,459,52,808,269,64,832,284,615,787,860,599,99,22,114,455,500</v>
       </c>
     </row>
@@ -33597,7 +34719,7 @@
         <v>612</v>
       </c>
       <c r="V81" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A81:T81)</f>
+        <f t="shared" si="1"/>
         <v>976,238,749,316,797,703,571,77,70,484,896,828,896,674,713,656,597,355,143,612</v>
       </c>
     </row>
@@ -33663,7 +34785,7 @@
         <v>494</v>
       </c>
       <c r="V82" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A82:T82)</f>
+        <f t="shared" si="1"/>
         <v>238,435,526,656,82,295,488,123,135,390,138,393,72,135,983,624,531,719,592,494</v>
       </c>
     </row>
@@ -33729,7 +34851,7 @@
         <v>130</v>
       </c>
       <c r="V83" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A83:T83)</f>
+        <f t="shared" si="1"/>
         <v>707,757,396,822,574,115,323,676,299,757,605,21,300,892,626,656,840,283,478,130</v>
       </c>
     </row>
@@ -33795,7 +34917,7 @@
         <v>605</v>
       </c>
       <c r="V84" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A84:T84)</f>
+        <f t="shared" si="1"/>
         <v>338,62,366,118,333,622,594,355,931,390,549,835,144,98,837,591,294,85,298,605</v>
       </c>
     </row>
@@ -33861,7 +34983,7 @@
         <v>390</v>
       </c>
       <c r="V85" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A85:T85)</f>
+        <f t="shared" si="1"/>
         <v>107,72,210,400,828,658,850,987,478,335,432,931,601,411,567,827,829,493,722,390</v>
       </c>
     </row>
@@ -33927,7 +35049,7 @@
         <v>213</v>
       </c>
       <c r="V86" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A86:T86)</f>
+        <f t="shared" si="1"/>
         <v>711,337,154,356,799,393,628,21,494,126,328,763,80,130,107,423,286,929,854,213</v>
       </c>
     </row>
@@ -33993,7 +35115,7 @@
         <v>226</v>
       </c>
       <c r="V87" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A87:T87)</f>
+        <f t="shared" si="1"/>
         <v>938,657,385,246,839,401,120,625,64,288,440,196,765,301,339,225,397,761,565,226</v>
       </c>
     </row>
@@ -34059,7 +35181,7 @@
         <v>944</v>
       </c>
       <c r="V88" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A88:T88)</f>
+        <f t="shared" si="1"/>
         <v>522,826,158,819,717,185,938,407,616,808,590,315,497,663,441,711,100,673,495,944</v>
       </c>
     </row>
@@ -34125,7 +35247,7 @@
         <v>693</v>
       </c>
       <c r="V89" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A89:T89)</f>
+        <f t="shared" si="1"/>
         <v>92,897,757,843,103,850,526,311,605,457,571,757,691,73,617,802,944,91,307,693</v>
       </c>
     </row>
@@ -34191,7 +35313,7 @@
         <v>146</v>
       </c>
       <c r="V90" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A90:T90)</f>
+        <f t="shared" si="1"/>
         <v>294,530,490,500,139,283,702,897,693,787,339,127,876,656,868,428,986,138,800,146</v>
       </c>
     </row>
@@ -34257,7 +35379,7 @@
         <v>240</v>
       </c>
       <c r="V91" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A91:T91)</f>
+        <f t="shared" si="1"/>
         <v>790,56,355,50,932,613,600,456,342,579,332,123,321,862,865,154,198,459,371,240</v>
       </c>
     </row>
@@ -34323,7 +35445,7 @@
         <v>498</v>
       </c>
       <c r="V92" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A92:T92)</f>
+        <f t="shared" si="1"/>
         <v>234,232,725,96,492,207,88,287,412,851,322,242,615,571,615,112,255,94,935,498</v>
       </c>
     </row>
@@ -34389,7 +35511,7 @@
         <v>298</v>
       </c>
       <c r="V93" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A93:T93)</f>
+        <f t="shared" si="1"/>
         <v>143,280,616,74,107,646,66,821,833,280,585,532,520,240,897,492,825,731,411,298</v>
       </c>
     </row>
@@ -34455,7 +35577,7 @@
         <v>123</v>
       </c>
       <c r="V94" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A94:T94)</f>
+        <f t="shared" si="1"/>
         <v>826,938,144,606,107,870,281,283,679,431,402,634,352,872,557,617,554,878,234,123</v>
       </c>
     </row>
@@ -34521,7 +35643,7 @@
         <v>593</v>
       </c>
       <c r="V95" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A95:T95)</f>
+        <f t="shared" si="1"/>
         <v>549,812,138,621,877,317,848,719,861,576,715,586,669,122,462,110,795,273,584,593</v>
       </c>
     </row>
@@ -34587,7 +35709,7 @@
         <v>572</v>
       </c>
       <c r="V96" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A96:T96)</f>
+        <f t="shared" si="1"/>
         <v>527,857,596,304,85,285,152,595,150,366,559,186,813,97,77,302,432,781,658,572</v>
       </c>
     </row>
@@ -34653,7 +35775,7 @@
         <v>556</v>
       </c>
       <c r="V97" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A97:T97)</f>
+        <f t="shared" si="1"/>
         <v>864,53,95,605,407,532,115,424,187,261,612,628,356,212,711,781,585,52,119,556</v>
       </c>
     </row>
@@ -34719,7 +35841,7 @@
         <v>308</v>
       </c>
       <c r="V98" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A98:T98)</f>
+        <f t="shared" si="1"/>
         <v>592,150,112,784,118,567,282,458,801,552,276,104,342,51,726,577,328,993,600,308</v>
       </c>
     </row>
@@ -34785,7 +35907,7 @@
         <v>683</v>
       </c>
       <c r="V99" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A99:T99)</f>
+        <f t="shared" si="1"/>
         <v>205,460,237,496,871,290,453,598,313,715,156,792,103,616,425,144,83,591,124,683</v>
       </c>
     </row>
@@ -34851,7 +35973,7 @@
         <v>558</v>
       </c>
       <c r="V100" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A100:T100)</f>
+        <f t="shared" si="1"/>
         <v>324,119,76,207,553,618,748,523,839,605,370,801,388,631,245,820,391,902,14,558</v>
       </c>
     </row>
@@ -34917,7 +36039,7 @@
         <v>889</v>
       </c>
       <c r="V101" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A101:T101)</f>
+        <f t="shared" si="1"/>
         <v>695,161,119,400,186,527,215,836,158,412,834,130,723,708,579,731,394,144,152,889</v>
       </c>
     </row>
@@ -34983,7 +36105,7 @@
         <v>117</v>
       </c>
       <c r="V102" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A102:T102)</f>
+        <f t="shared" si="1"/>
         <v>487,7,900,80,942,143,704,460,396,63,328,116,336,59,491,624,550,150,932,117</v>
       </c>
     </row>
@@ -35049,7 +36171,7 @@
         <v>594</v>
       </c>
       <c r="V103" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A103:T103)</f>
+        <f t="shared" si="1"/>
         <v>593,567,215,155,157,556,709,832,371,620,291,520,504,831,674,405,132,798,394,594</v>
       </c>
     </row>
@@ -35115,7 +36237,7 @@
         <v>752</v>
       </c>
       <c r="V104" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A104:T104)</f>
+        <f t="shared" si="1"/>
         <v>159,704,526,304,706,826,948,773,860,845,121,833,62,873,529,589,707,285,203,752</v>
       </c>
     </row>
@@ -35181,7 +36303,7 @@
         <v>679</v>
       </c>
       <c r="V105" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A105:T105)</f>
+        <f t="shared" si="1"/>
         <v>237,55,352,81,94,549,286,745,52,65,423,90,840,479,489,229,389,7,394,679</v>
       </c>
     </row>
@@ -35247,7 +36369,7 @@
         <v>370</v>
       </c>
       <c r="V106" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A106:T106)</f>
+        <f t="shared" si="1"/>
         <v>125,445,530,731,559,141,709,95,327,599,319,306,855,120,86,731,150,813,578,370</v>
       </c>
     </row>
@@ -35313,7 +36435,7 @@
         <v>80</v>
       </c>
       <c r="V107" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A107:T107)</f>
+        <f t="shared" si="1"/>
         <v>782,120,771,701,99,845,339,273,492,535,83,501,818,51,602,304,938,562,267,80</v>
       </c>
     </row>
@@ -35379,7 +36501,7 @@
         <v>375</v>
       </c>
       <c r="V108" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A108:T108)</f>
+        <f t="shared" si="1"/>
         <v>949,875,854,63,761,409,66,902,872,573,788,87,849,60,428,531,557,241,141,375</v>
       </c>
     </row>
@@ -35445,7 +36567,7 @@
         <v>809</v>
       </c>
       <c r="V109" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A109:T109)</f>
+        <f t="shared" si="1"/>
         <v>546,457,754,288,936,718,696,936,142,144,227,76,577,77,327,561,690,615,479,809</v>
       </c>
     </row>
@@ -35511,7 +36633,7 @@
         <v>566</v>
       </c>
       <c r="V110" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A110:T110)</f>
+        <f t="shared" si="1"/>
         <v>590,230,490,430,237,53,21,149,860,546,625,725,592,521,768,809,814,554,143,566</v>
       </c>
     </row>
@@ -35577,7 +36699,7 @@
         <v>874</v>
       </c>
       <c r="V111" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A111:T111)</f>
+        <f t="shared" si="1"/>
         <v>85,794,406,226,837,625,749,105,615,201,144,339,159,198,526,872,855,592,660,874</v>
       </c>
     </row>
@@ -35643,7 +36765,7 @@
         <v>683</v>
       </c>
       <c r="V112" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A112:T112)</f>
+        <f t="shared" si="1"/>
         <v>236,794,314,69,566,54,134,535,93,827,266,558,593,775,606,493,593,939,877,683</v>
       </c>
     </row>
@@ -35709,7 +36831,7 @@
         <v>494</v>
       </c>
       <c r="V113" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A113:T113)</f>
+        <f t="shared" si="1"/>
         <v>410,619,314,57,889,67,74,706,943,601,789,718,723,928,150,147,233,218,798,494</v>
       </c>
     </row>
@@ -35775,7 +36897,7 @@
         <v>242</v>
       </c>
       <c r="V114" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A114:T114)</f>
+        <f t="shared" si="1"/>
         <v>603,121,706,79,455,349,309,876,85,433,123,278,89,521,995,709,533,895,124,242</v>
       </c>
     </row>
@@ -35841,7 +36963,7 @@
         <v>403</v>
       </c>
       <c r="V115" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A115:T115)</f>
+        <f t="shared" si="1"/>
         <v>824,751,392,85,152,394,730,845,138,864,438,493,611,490,2,529,858,808,89,403</v>
       </c>
     </row>
@@ -35907,7 +37029,7 @@
         <v>489</v>
       </c>
       <c r="V116" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A116:T116)</f>
+        <f t="shared" si="1"/>
         <v>604,156,408,319,205,889,493,841,858,858,315,412,849,298,689,352,869,330,57,489</v>
       </c>
     </row>
@@ -35973,7 +37095,7 @@
         <v>557</v>
       </c>
       <c r="V117" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A117:T117)</f>
+        <f t="shared" si="1"/>
         <v>903,131,330,789,84,723,130,677,553,786,398,873,564,700,225,333,846,763,983,557</v>
       </c>
     </row>
@@ -36039,7 +37161,7 @@
         <v>573</v>
       </c>
       <c r="V118" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A118:T118)</f>
+        <f t="shared" si="1"/>
         <v>205,585,749,863,747,559,495,889,332,564,535,236,51,687,326,712,336,530,580,573</v>
       </c>
     </row>
@@ -36105,7 +37227,7 @@
         <v>939</v>
       </c>
       <c r="V119" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A119:T119)</f>
+        <f t="shared" si="1"/>
         <v>416,564,763,937,322,233,311,829,268,456,439,310,114,570,604,389,308,111,153,939</v>
       </c>
     </row>
@@ -36171,7 +37293,7 @@
         <v>430</v>
       </c>
       <c r="V120" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A120:T120)</f>
+        <f t="shared" si="1"/>
         <v>286,799,300,595,553,340,224,348,292,802,577,87,80,215,725,624,621,522,54,430</v>
       </c>
     </row>
@@ -36237,7 +37359,7 @@
         <v>817</v>
       </c>
       <c r="V121" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A121:T121)</f>
+        <f t="shared" si="1"/>
         <v>227,899,753,994,83,430,297,726,290,869,847,713,898,51,682,138,98,153,101,817</v>
       </c>
     </row>
@@ -36303,7 +37425,7 @@
         <v>478</v>
       </c>
       <c r="V122" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A122:T122)</f>
+        <f t="shared" si="1"/>
         <v>180,429,353,120,409,554,710,97,403,115,586,425,354,302,289,871,528,284,795,478</v>
       </c>
     </row>
@@ -36369,7 +37491,7 @@
         <v>247</v>
       </c>
       <c r="V123" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A123:T123)</f>
+        <f t="shared" si="1"/>
         <v>946,530,149,59,289,305,761,788,429,630,135,216,521,250,266,746,838,531,458,247</v>
       </c>
     </row>
@@ -36435,7 +37557,7 @@
         <v>899</v>
       </c>
       <c r="V124" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A124:T124)</f>
+        <f t="shared" si="1"/>
         <v>546,867,552,244,125,205,139,617,758,77,940,315,423,137,539,111,105,616,489,899</v>
       </c>
     </row>
@@ -36501,7 +37623,7 @@
         <v>428</v>
       </c>
       <c r="V125" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A125:T125)</f>
+        <f t="shared" si="1"/>
         <v>628,134,633,247,188,710,613,898,425,589,278,115,340,784,893,707,752,854,934,428</v>
       </c>
     </row>
@@ -36567,7 +37689,7 @@
         <v>674</v>
       </c>
       <c r="V126" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A126:T126)</f>
+        <f t="shared" si="1"/>
         <v>213,291,106,840,903,609,197,570,160,563,812,211,479,248,186,527,814,201,825,674</v>
       </c>
     </row>
@@ -36633,7 +37755,7 @@
         <v>248</v>
       </c>
       <c r="V127" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A127:T127)</f>
+        <f t="shared" si="1"/>
         <v>492,279,417,323,559,893,567,426,485,185,660,725,827,240,840,127,248,939,113,248</v>
       </c>
     </row>
@@ -36699,7 +37821,7 @@
         <v>283</v>
       </c>
       <c r="V128" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A128:T128)</f>
+        <f t="shared" si="1"/>
         <v>545,758,145,808,839,397,160,342,399,427,354,337,820,269,126,314,830,214,553,283</v>
       </c>
     </row>
@@ -36765,7 +37887,7 @@
         <v>867</v>
       </c>
       <c r="V129" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A129:T129)</f>
+        <f t="shared" ref="V129:V192" si="2">+_xlfn.TEXTJOIN(",",TRUE,A129:T129)</f>
         <v>326,854,727,140,695,704,605,54,285,221,570,230,948,92,313,603,876,85,427,867</v>
       </c>
     </row>
@@ -36831,7 +37953,7 @@
         <v>318</v>
       </c>
       <c r="V130" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A130:T130)</f>
+        <f t="shared" si="2"/>
         <v>528,658,333,353,644,805,555,867,520,478,440,747,570,838,837,867,269,267,298,318</v>
       </c>
     </row>
@@ -36897,7 +38019,7 @@
         <v>821</v>
       </c>
       <c r="V131" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A131:T131)</f>
+        <f t="shared" si="2"/>
         <v>235,301,377,286,709,436,209,676,758,753,187,873,325,225,594,297,528,126,836,821</v>
       </c>
     </row>
@@ -36963,7 +38085,7 @@
         <v>359</v>
       </c>
       <c r="V132" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A132:T132)</f>
+        <f t="shared" si="2"/>
         <v>834,877,604,614,895,95,583,100,834,275,679,659,869,127,753,56,269,117,894,359</v>
       </c>
     </row>
@@ -37029,7 +38151,7 @@
         <v>719</v>
       </c>
       <c r="V133" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A133:T133)</f>
+        <f t="shared" si="2"/>
         <v>423,622,839,118,546,94,424,674,233,289,305,711,612,704,867,581,381,428,307,719</v>
       </c>
     </row>
@@ -37095,7 +38217,7 @@
         <v>822</v>
       </c>
       <c r="V134" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A134:T134)</f>
+        <f t="shared" si="2"/>
         <v>613,234,763,128,100,659,52,599,628,65,284,206,86,977,499,457,292,457,433,822</v>
       </c>
     </row>
@@ -37161,7 +38283,7 @@
         <v>230</v>
       </c>
       <c r="V135" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A135:T135)</f>
+        <f t="shared" si="2"/>
         <v>432,131,187,859,93,432,311,142,696,737,495,55,433,680,50,840,397,339,67,230</v>
       </c>
     </row>
@@ -37227,7 +38349,7 @@
         <v>812</v>
       </c>
       <c r="V136" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A136:T136)</f>
+        <f t="shared" si="2"/>
         <v>148,207,781,146,376,307,798,103,101,340,758,877,817,903,621,144,212,317,538,812</v>
       </c>
     </row>
@@ -37293,7 +38415,7 @@
         <v>863</v>
       </c>
       <c r="V137" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A137:T137)</f>
+        <f t="shared" si="2"/>
         <v>677,794,241,877,53,576,600,717,704,293,309,402,166,830,610,120,871,807,727,863</v>
       </c>
     </row>
@@ -37359,7 +38481,7 @@
         <v>893</v>
       </c>
       <c r="V138" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A138:T138)</f>
+        <f t="shared" si="2"/>
         <v>154,571,755,779,595,523,723,233,57,801,283,293,592,759,615,409,627,50,599,893</v>
       </c>
     </row>
@@ -37425,7 +38547,7 @@
         <v>302</v>
       </c>
       <c r="V139" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A139:T139)</f>
+        <f t="shared" si="2"/>
         <v>330,61,207,248,389,763,455,52,594,610,980,838,405,295,237,697,547,307,432,302</v>
       </c>
     </row>
@@ -37491,7 +38613,7 @@
         <v>824</v>
       </c>
       <c r="V140" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A140:T140)</f>
+        <f t="shared" si="2"/>
         <v>150,312,893,621,138,601,709,265,640,210,609,628,487,104,856,831,53,814,819,824</v>
       </c>
     </row>
@@ -37557,7 +38679,7 @@
         <v>799</v>
       </c>
       <c r="V141" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A141:T141)</f>
+        <f t="shared" si="2"/>
         <v>899,584,484,608,897,838,299,66,673,723,896,247,345,898,349,71,286,402,483,799</v>
       </c>
     </row>
@@ -37623,7 +38745,7 @@
         <v>589</v>
       </c>
       <c r="V142" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A142:T142)</f>
+        <f t="shared" si="2"/>
         <v>900,984,83,844,214,727,423,215,876,809,411,110,109,588,423,228,273,850,268,589</v>
       </c>
     </row>
@@ -37689,7 +38811,7 @@
         <v>641</v>
       </c>
       <c r="V143" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A143:T143)</f>
+        <f t="shared" si="2"/>
         <v>601,91,895,869,890,677,899,629,139,136,703,674,746,841,292,555,67,548,589,641</v>
       </c>
     </row>
@@ -37755,7 +38877,7 @@
         <v>304</v>
       </c>
       <c r="V144" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A144:T144)</f>
+        <f t="shared" si="2"/>
         <v>774,51,501,132,390,79,323,595,356,801,90,594,553,599,214,434,674,316,424,304</v>
       </c>
     </row>
@@ -37821,7 +38943,7 @@
         <v>847</v>
       </c>
       <c r="V145" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A145:T145)</f>
+        <f t="shared" si="2"/>
         <v>191,593,69,695,820,111,857,338,945,786,95,68,481,75,315,764,839,202,610,847</v>
       </c>
     </row>
@@ -37887,7 +39009,7 @@
         <v>401</v>
       </c>
       <c r="V146" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A146:T146)</f>
+        <f t="shared" si="2"/>
         <v>830,659,227,353,60,841,580,745,397,488,615,289,457,840,917,278,102,401,866,401</v>
       </c>
     </row>
@@ -37953,7 +39075,7 @@
         <v>683</v>
       </c>
       <c r="V147" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A147:T147)</f>
+        <f t="shared" si="2"/>
         <v>128,697,89,411,231,801,875,759,893,52,792,275,251,532,609,948,481,582,837,683</v>
       </c>
     </row>
@@ -38019,7 +39141,7 @@
         <v>896</v>
       </c>
       <c r="V148" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A148:T148)</f>
+        <f t="shared" si="2"/>
         <v>168,110,488,799,811,721,230,116,901,939,763,154,157,439,208,901,538,809,434,896</v>
       </c>
     </row>
@@ -38085,7 +39207,7 @@
         <v>413</v>
       </c>
       <c r="V149" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A149:T149)</f>
+        <f t="shared" si="2"/>
         <v>559,893,768,314,59,214,406,614,427,587,228,783,712,948,898,868,447,101,891,413</v>
       </c>
     </row>
@@ -38151,7 +39273,7 @@
         <v>233</v>
       </c>
       <c r="V150" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A150:T150)</f>
+        <f t="shared" si="2"/>
         <v>382,292,900,580,878,90,458,699,790,796,490,204,431,763,462,321,547,427,867,233</v>
       </c>
     </row>
@@ -38217,7 +39339,7 @@
         <v>396</v>
       </c>
       <c r="V151" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A151:T151)</f>
+        <f t="shared" si="2"/>
         <v>213,525,616,90,588,365,683,535,411,789,555,794,706,392,486,354,62,490,895,396</v>
       </c>
     </row>
@@ -38283,7 +39405,7 @@
         <v>397</v>
       </c>
       <c r="V152" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A152:T152)</f>
+        <f t="shared" si="2"/>
         <v>390,130,534,768,534,58,708,388,830,139,155,59,107,560,781,794,96,774,266,397</v>
       </c>
     </row>
@@ -38349,7 +39471,7 @@
         <v>825</v>
       </c>
       <c r="V153" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A153:T153)</f>
+        <f t="shared" si="2"/>
         <v>436,947,800,680,311,933,117,315,700,487,113,659,679,443,936,604,67,480,457,825</v>
       </c>
     </row>
@@ -38415,7 +39537,7 @@
         <v>341</v>
       </c>
       <c r="V154" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A154:T154)</f>
+        <f t="shared" si="2"/>
         <v>146,678,631,329,576,930,606,641,758,231,435,555,393,609,933,90,299,339,110,341</v>
       </c>
     </row>
@@ -38481,7 +39603,7 @@
         <v>61</v>
       </c>
       <c r="V155" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A155:T155)</f>
+        <f t="shared" si="2"/>
         <v>333,205,893,746,728,566,945,497,459,848,934,848,328,125,484,990,710,265,756,61</v>
       </c>
     </row>
@@ -38547,7 +39669,7 @@
         <v>495</v>
       </c>
       <c r="V156" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A156:T156)</f>
+        <f t="shared" si="2"/>
         <v>812,813,392,428,456,566,386,498,611,582,810,553,440,364,210,316,129,792,842,495</v>
       </c>
     </row>
@@ -38613,7 +39735,7 @@
         <v>238</v>
       </c>
       <c r="V157" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A157:T157)</f>
+        <f t="shared" si="2"/>
         <v>447,323,339,202,57,300,108,824,681,293,150,301,892,803,100,657,76,767,293,238</v>
       </c>
     </row>
@@ -38679,7 +39801,7 @@
         <v>626</v>
       </c>
       <c r="V158" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A158:T158)</f>
+        <f t="shared" si="2"/>
         <v>354,425,947,82,520,531,314,751,318,289,413,386,617,483,220,801,341,392,523,626</v>
       </c>
     </row>
@@ -38745,7 +39867,7 @@
         <v>272</v>
       </c>
       <c r="V159" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A159:T159)</f>
+        <f t="shared" si="2"/>
         <v>126,707,241,765,159,822,645,478,441,423,930,55,525,797,340,804,154,682,547,272</v>
       </c>
     </row>
@@ -38811,7 +39933,7 @@
         <v>423</v>
       </c>
       <c r="V160" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A160:T160)</f>
+        <f t="shared" si="2"/>
         <v>935,434,621,428,137,546,602,828,334,840,859,229,847,934,363,727,716,158,724,423</v>
       </c>
     </row>
@@ -38877,7 +39999,7 @@
         <v>405</v>
       </c>
       <c r="V161" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A161:T161)</f>
+        <f t="shared" si="2"/>
         <v>945,796,432,730,836,872,606,359,111,100,762,328,938,596,121,439,430,623,424,405</v>
       </c>
     </row>
@@ -38943,7 +40065,7 @@
         <v>695</v>
       </c>
       <c r="V162" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A162:T162)</f>
+        <f t="shared" si="2"/>
         <v>369,863,384,767,68,295,498,136,307,111,493,602,75,16,433,123,294,138,70,695</v>
       </c>
     </row>
@@ -39009,7 +40131,7 @@
         <v>784</v>
       </c>
       <c r="V163" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A163:T163)</f>
+        <f t="shared" si="2"/>
         <v>250,158,312,730,368,579,731,436,201,572,125,929,557,483,755,270,352,76,308,784</v>
       </c>
     </row>
@@ -39075,7 +40197,7 @@
         <v>578</v>
       </c>
       <c r="V164" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A164:T164)</f>
+        <f t="shared" si="2"/>
         <v>91,439,242,229,565,225,499,725,557,452,121,902,928,394,399,202,821,874,110,578</v>
       </c>
     </row>
@@ -39141,7 +40263,7 @@
         <v>817</v>
       </c>
       <c r="V165" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A165:T165)</f>
+        <f t="shared" si="2"/>
         <v>478,745,179,783,616,91,441,481,132,389,930,446,751,321,719,627,486,250,722,817</v>
       </c>
     </row>
@@ -39207,7 +40329,7 @@
         <v>432</v>
       </c>
       <c r="V166" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A166:T166)</f>
+        <f t="shared" si="2"/>
         <v>532,428,853,141,789,809,295,63,944,424,727,929,361,457,274,147,82,747,397,432</v>
       </c>
     </row>
@@ -39273,7 +40395,7 @@
         <v>153</v>
       </c>
       <c r="V167" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A167:T167)</f>
+        <f t="shared" si="2"/>
         <v>572,194,701,314,266,560,844,898,209,462,631,283,109,716,901,69,320,931,289,153</v>
       </c>
     </row>
@@ -39339,7 +40461,7 @@
         <v>935</v>
       </c>
       <c r="V168" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A168:T168)</f>
+        <f t="shared" si="2"/>
         <v>822,583,223,249,845,157,595,844,945,93,676,892,696,557,610,866,411,369,799,935</v>
       </c>
     </row>
@@ -39405,7 +40527,7 @@
         <v>997</v>
       </c>
       <c r="V169" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A169:T169)</f>
+        <f t="shared" si="2"/>
         <v>529,267,371,558,490,64,83,122,211,242,291,487,862,949,676,243,878,862,479,997</v>
       </c>
     </row>
@@ -39471,7 +40593,7 @@
         <v>75</v>
       </c>
       <c r="V170" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A170:T170)</f>
+        <f t="shared" si="2"/>
         <v>749,201,700,656,584,790,842,411,598,826,135,620,317,298,713,623,756,405,648,75</v>
       </c>
     </row>
@@ -39537,7 +40659,7 @@
         <v>209</v>
       </c>
       <c r="V171" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A171:T171)</f>
+        <f t="shared" si="2"/>
         <v>501,224,297,621,784,812,702,867,573,877,290,60,499,243,283,349,495,384,897,209</v>
       </c>
     </row>
@@ -39603,7 +40725,7 @@
         <v>157</v>
       </c>
       <c r="V172" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A172:T172)</f>
+        <f t="shared" si="2"/>
         <v>941,904,67,723,232,435,809,675,241,695,487,154,394,564,602,934,423,590,602,157</v>
       </c>
     </row>
@@ -39669,7 +40791,7 @@
         <v>480</v>
       </c>
       <c r="V173" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A173:T173)</f>
+        <f t="shared" si="2"/>
         <v>569,80,314,857,132,757,309,123,395,919,598,461,141,723,245,795,213,54,227,480</v>
       </c>
     </row>
@@ -39735,7 +40857,7 @@
         <v>828</v>
       </c>
       <c r="V174" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A174:T174)</f>
+        <f t="shared" si="2"/>
         <v>386,298,54,248,289,889,689,125,108,399,699,494,353,554,291,497,323,124,142,828</v>
       </c>
     </row>
@@ -39801,7 +40923,7 @@
         <v>590</v>
       </c>
       <c r="V175" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A175:T175)</f>
+        <f t="shared" si="2"/>
         <v>57,392,748,371,749,379,302,814,891,295,731,599,863,865,840,857,132,801,813,590</v>
       </c>
     </row>
@@ -39867,7 +40989,7 @@
         <v>435</v>
       </c>
       <c r="V176" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A176:T176)</f>
+        <f t="shared" si="2"/>
         <v>353,708,745,292,406,461,107,271,945,658,561,403,408,497,419,225,71,945,274,435</v>
       </c>
     </row>
@@ -39933,7 +41055,7 @@
         <v>898</v>
       </c>
       <c r="V177" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A177:T177)</f>
+        <f t="shared" si="2"/>
         <v>554,265,329,139,117,778,844,52,66,555,459,866,839,728,796,413,696,369,75,898</v>
       </c>
     </row>
@@ -39999,7 +41121,7 @@
         <v>353</v>
       </c>
       <c r="V178" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A178:T178)</f>
+        <f t="shared" si="2"/>
         <v>912,714,326,210,536,461,313,356,70,227,762,108,948,494,561,603,215,525,207,353</v>
       </c>
     </row>
@@ -40065,7 +41187,7 @@
         <v>137</v>
       </c>
       <c r="V179" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A179:T179)</f>
+        <f t="shared" si="2"/>
         <v>734,581,51,621,655,405,278,148,398,822,719,102,126,868,835,61,484,125,279,137</v>
       </c>
     </row>
@@ -40131,7 +41253,7 @@
         <v>325</v>
       </c>
       <c r="V180" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A180:T180)</f>
+        <f t="shared" si="2"/>
         <v>295,299,486,299,808,712,809,280,266,172,495,832,788,269,903,59,315,331,211,325</v>
       </c>
     </row>
@@ -40197,7 +41319,7 @@
         <v>356</v>
       </c>
       <c r="V181" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A181:T181)</f>
+        <f t="shared" si="2"/>
         <v>546,489,981,818,245,482,401,807,330,590,270,596,847,401,94,66,762,895,839,356</v>
       </c>
     </row>
@@ -40263,7 +41385,7 @@
         <v>562</v>
       </c>
       <c r="V182" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A182:T182)</f>
+        <f t="shared" si="2"/>
         <v>293,439,944,603,351,723,423,336,240,342,390,931,385,458,855,622,367,484,836,562</v>
       </c>
     </row>
@@ -40329,7 +41451,7 @@
         <v>714</v>
       </c>
       <c r="V183" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A183:T183)</f>
+        <f t="shared" si="2"/>
         <v>302,90,531,622,790,585,797,282,228,412,100,441,474,104,209,118,656,678,556,714</v>
       </c>
     </row>
@@ -40395,7 +41517,7 @@
         <v>586</v>
       </c>
       <c r="V184" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A184:T184)</f>
+        <f t="shared" si="2"/>
         <v>249,662,494,535,481,319,72,63,277,385,146,523,237,564,703,839,386,862,88,586</v>
       </c>
     </row>
@@ -40461,7 +41583,7 @@
         <v>596</v>
       </c>
       <c r="V185" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A185:T185)</f>
+        <f t="shared" si="2"/>
         <v>65,75,727,754,804,80,292,232,55,147,602,826,320,781,200,414,709,623,403,596</v>
       </c>
     </row>
@@ -40527,7 +41649,7 @@
         <v>601</v>
       </c>
       <c r="V186" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A186:T186)</f>
+        <f t="shared" si="2"/>
         <v>99,290,484,538,525,302,202,837,300,689,797,307,440,616,334,322,939,784,726,601</v>
       </c>
     </row>
@@ -40593,7 +41715,7 @@
         <v>278</v>
       </c>
       <c r="V187" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A187:T187)</f>
+        <f t="shared" si="2"/>
         <v>759,484,324,225,855,128,674,933,60,183,893,902,146,948,615,890,823,656,835,278</v>
       </c>
     </row>
@@ -40659,7 +41781,7 @@
         <v>941</v>
       </c>
       <c r="V188" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A188:T188)</f>
+        <f t="shared" si="2"/>
         <v>580,108,441,60,624,352,125,626,84,381,127,273,226,548,657,409,396,806,560,941</v>
       </c>
     </row>
@@ -40725,7 +41847,7 @@
         <v>277</v>
       </c>
       <c r="V189" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A189:T189)</f>
+        <f t="shared" si="2"/>
         <v>128,487,404,980,340,112,298,843,249,756,178,711,899,930,402,231,123,818,248,277</v>
       </c>
     </row>
@@ -40791,7 +41913,7 @@
         <v>603</v>
       </c>
       <c r="V190" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A190:T190)</f>
+        <f t="shared" si="2"/>
         <v>637,145,557,792,54,69,817,348,708,130,897,225,145,57,941,554,280,204,140,603</v>
       </c>
     </row>
@@ -40857,7 +41979,7 @@
         <v>461</v>
       </c>
       <c r="V191" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A191:T191)</f>
+        <f t="shared" si="2"/>
         <v>793,818,172,311,319,213,695,185,599,58,714,942,459,159,614,394,384,610,263,461</v>
       </c>
     </row>
@@ -40923,7 +42045,7 @@
         <v>61</v>
       </c>
       <c r="V192" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A192:T192)</f>
+        <f t="shared" si="2"/>
         <v>501,140,704,795,330,223,432,314,333,761,340,481,570,120,730,620,388,249,825,61</v>
       </c>
     </row>
@@ -40989,7 +42111,7 @@
         <v>414</v>
       </c>
       <c r="V193" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A193:T193)</f>
+        <f t="shared" ref="V193:V236" si="3">+_xlfn.TEXTJOIN(",",TRUE,A193:T193)</f>
         <v>858,842,458,900,332,317,802,875,250,613,938,377,675,827,585,228,484,891,356,414</v>
       </c>
     </row>
@@ -41055,7 +42177,7 @@
         <v>729</v>
       </c>
       <c r="V194" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A194:T194)</f>
+        <f t="shared" si="3"/>
         <v>684,328,570,67,369,497,565,314,814,325,53,781,214,71,430,746,866,307,188,729</v>
       </c>
     </row>
@@ -41121,7 +42243,7 @@
         <v>841</v>
       </c>
       <c r="V195" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A195:T195)</f>
+        <f t="shared" si="3"/>
         <v>428,823,677,67,337,122,489,676,815,84,129,270,270,502,835,930,58,765,613,841</v>
       </c>
     </row>
@@ -41187,7 +42309,7 @@
         <v>20</v>
       </c>
       <c r="V196" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A196:T196)</f>
+        <f t="shared" si="3"/>
         <v>762,782,186,572,109,607,398,204,210,750,833,618,62,396,558,579,242,408,485,20</v>
       </c>
     </row>
@@ -41253,7 +42375,7 @@
         <v>81</v>
       </c>
       <c r="V197" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A197:T197)</f>
+        <f t="shared" si="3"/>
         <v>860,398,675,413,412,869,178,83,113,758,82,98,197,546,438,749,97,108,899,81</v>
       </c>
     </row>
@@ -41319,7 +42441,7 @@
         <v>528</v>
       </c>
       <c r="V198" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A198:T198)</f>
+        <f t="shared" si="3"/>
         <v>571,484,104,571,125,585,811,411,273,813,659,461,848,463,682,630,214,317,107,528</v>
       </c>
     </row>
@@ -41385,7 +42507,7 @@
         <v>617</v>
       </c>
       <c r="V199" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A199:T199)</f>
+        <f t="shared" si="3"/>
         <v>611,461,595,206,102,696,460,620,434,600,834,244,698,262,233,386,713,604,859,617</v>
       </c>
     </row>
@@ -41451,7 +42573,7 @@
         <v>297</v>
       </c>
       <c r="V200" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A200:T200)</f>
+        <f t="shared" si="3"/>
         <v>597,804,584,138,606,596,327,245,128,601,105,580,220,536,598,388,621,572,605,297</v>
       </c>
     </row>
@@ -41517,7 +42639,7 @@
         <v>570</v>
       </c>
       <c r="V201" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A201:T201)</f>
+        <f t="shared" si="3"/>
         <v>325,314,866,929,854,876,124,285,249,76,595,857,179,434,6,272,304,179,621,570</v>
       </c>
     </row>
@@ -41583,7 +42705,7 @@
         <v>676</v>
       </c>
       <c r="V202" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A202:T202)</f>
+        <f t="shared" si="3"/>
         <v>149,694,698,609,729,870,862,316,596,501,975,562,411,384,674,408,55,799,58,676</v>
       </c>
     </row>
@@ -41649,7 +42771,7 @@
         <v>731</v>
       </c>
       <c r="V203" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A203:T203)</f>
+        <f t="shared" si="3"/>
         <v>832,702,8,85,354,398,723,157,226,560,799,945,609,789,233,390,492,590,305,731</v>
       </c>
     </row>
@@ -41715,7 +42837,7 @@
         <v>61</v>
       </c>
       <c r="V204" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A204:T204)</f>
+        <f t="shared" si="3"/>
         <v>756,704,397,946,203,352,812,394,568,719,828,599,922,612,234,311,695,717,696,61</v>
       </c>
     </row>
@@ -41781,7 +42903,7 @@
         <v>680</v>
       </c>
       <c r="V205" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A205:T205)</f>
+        <f t="shared" si="3"/>
         <v>265,401,396,813,898,978,603,430,391,78,131,524,322,716,370,751,658,424,606,680</v>
       </c>
     </row>
@@ -41847,7 +42969,7 @@
         <v>69</v>
       </c>
       <c r="V206" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A206:T206)</f>
+        <f t="shared" si="3"/>
         <v>947,280,941,533,151,599,895,89,407,316,524,270,127,213,375,550,600,764,631,69</v>
       </c>
     </row>
@@ -41913,7 +43035,7 @@
         <v>88</v>
       </c>
       <c r="V207" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A207:T207)</f>
+        <f t="shared" si="3"/>
         <v>873,411,244,814,123,393,305,264,247,235,132,553,327,827,696,622,225,0,766,88</v>
       </c>
     </row>
@@ -41979,7 +43101,7 @@
         <v>731</v>
       </c>
       <c r="V208" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A208:T208)</f>
+        <f t="shared" si="3"/>
         <v>245,373,102,58,933,660,237,858,128,585,126,615,614,407,627,693,674,548,835,731</v>
       </c>
     </row>
@@ -42045,7 +43167,7 @@
         <v>325</v>
       </c>
       <c r="V209" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A209:T209)</f>
+        <f t="shared" si="3"/>
         <v>598,875,206,130,275,334,622,800,412,624,932,99,284,871,593,759,930,359,675,325</v>
       </c>
     </row>
@@ -42111,7 +43233,7 @@
         <v>461</v>
       </c>
       <c r="V210" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A210:T210)</f>
+        <f t="shared" si="3"/>
         <v>730,891,101,58,487,326,61,153,819,305,558,894,558,578,731,323,270,138,980,461</v>
       </c>
     </row>
@@ -42177,7 +43299,7 @@
         <v>265</v>
       </c>
       <c r="V211" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A211:T211)</f>
+        <f t="shared" si="3"/>
         <v>560,94,685,595,858,897,459,304,428,116,750,355,91,563,709,424,534,938,399,265</v>
       </c>
     </row>
@@ -42243,7 +43365,7 @@
         <v>835</v>
       </c>
       <c r="V212" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A212:T212)</f>
+        <f t="shared" si="3"/>
         <v>808,263,832,567,386,758,564,929,869,589,418,406,114,434,209,85,309,849,295,835</v>
       </c>
     </row>
@@ -42309,7 +43431,7 @@
         <v>570</v>
       </c>
       <c r="V213" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A213:T213)</f>
+        <f t="shared" si="3"/>
         <v>938,855,937,459,385,706,326,846,696,839,318,479,75,801,71,399,858,444,943,570</v>
       </c>
     </row>
@@ -42375,7 +43497,7 @@
         <v>604</v>
       </c>
       <c r="V214" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A214:T214)</f>
+        <f t="shared" si="3"/>
         <v>864,627,81,233,796,751,156,285,533,147,216,893,847,703,133,797,291,124,135,604</v>
       </c>
     </row>
@@ -42441,7 +43563,7 @@
         <v>81</v>
       </c>
       <c r="V215" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A215:T215)</f>
+        <f t="shared" si="3"/>
         <v>868,599,337,765,119,564,850,566,489,731,198,104,532,493,396,677,571,722,113,81</v>
       </c>
     </row>
@@ -42507,7 +43629,7 @@
         <v>284</v>
       </c>
       <c r="V216" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A216:T216)</f>
+        <f t="shared" si="3"/>
         <v>405,727,561,245,703,551,340,658,783,640,750,848,588,320,583,725,571,370,280,284</v>
       </c>
     </row>
@@ -42573,7 +43695,7 @@
         <v>501</v>
       </c>
       <c r="V217" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A217:T217)</f>
+        <f t="shared" si="3"/>
         <v>579,215,849,126,568,484,151,53,828,833,639,934,289,461,785,493,891,807,111,501</v>
       </c>
     </row>
@@ -42639,7 +43761,7 @@
         <v>148</v>
       </c>
       <c r="V218" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A218:T218)</f>
+        <f t="shared" si="3"/>
         <v>283,841,600,760,211,844,338,731,628,853,947,934,525,150,821,79,774,396,74,148</v>
       </c>
     </row>
@@ -42705,7 +43827,7 @@
         <v>431</v>
       </c>
       <c r="V219" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A219:T219)</f>
+        <f t="shared" si="3"/>
         <v>349,188,314,551,335,249,790,808,341,248,141,298,446,279,242,352,807,301,579,431</v>
       </c>
     </row>
@@ -42771,7 +43893,7 @@
         <v>234</v>
       </c>
       <c r="V220" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A220:T220)</f>
+        <f t="shared" si="3"/>
         <v>58,803,935,263,712,535,128,891,831,870,758,850,178,726,61,841,663,870,785,234</v>
       </c>
     </row>
@@ -42837,7 +43959,7 @@
         <v>292</v>
       </c>
       <c r="V221" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A221:T221)</f>
+        <f t="shared" si="3"/>
         <v>699,818,574,844,616,933,492,54,624,137,369,719,298,934,169,786,529,933,273,292</v>
       </c>
     </row>
@@ -42903,7 +44025,7 @@
         <v>861</v>
       </c>
       <c r="V222" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A222:T222)</f>
+        <f t="shared" si="3"/>
         <v>388,680,840,211,329,397,160,798,395,821,272,275,948,930,158,794,978,529,932,861</v>
       </c>
     </row>
@@ -42969,7 +44091,7 @@
         <v>899</v>
       </c>
       <c r="V223" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A223:T223)</f>
+        <f t="shared" si="3"/>
         <v>616,706,497,433,275,858,439,126,561,492,328,990,530,389,789,584,231,938,625,899</v>
       </c>
     </row>
@@ -43035,7 +44157,7 @@
         <v>701</v>
       </c>
       <c r="V224" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A224:T224)</f>
+        <f t="shared" si="3"/>
         <v>593,594,196,584,715,134,768,317,306,816,298,613,87,840,705,531,594,530,457,701</v>
       </c>
     </row>
@@ -43101,7 +44223,7 @@
         <v>98</v>
       </c>
       <c r="V225" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A225:T225)</f>
+        <f t="shared" si="3"/>
         <v>400,813,838,803,565,349,529,822,248,541,610,302,500,802,811,534,929,348,72,98</v>
       </c>
     </row>
@@ -43167,7 +44289,7 @@
         <v>125</v>
       </c>
       <c r="V226" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A226:T226)</f>
+        <f t="shared" si="3"/>
         <v>597,13,124,58,146,265,857,939,531,745,201,298,159,538,411,601,678,395,246,125</v>
       </c>
     </row>
@@ -43233,7 +44355,7 @@
         <v>876</v>
       </c>
       <c r="V227" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A227:T227)</f>
+        <f t="shared" si="3"/>
         <v>458,87,435,932,244,597,58,722,234,308,789,551,240,223,768,153,311,440,697,876</v>
       </c>
     </row>
@@ -43299,7 +44421,7 @@
         <v>783</v>
       </c>
       <c r="V228" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A228:T228)</f>
+        <f t="shared" si="3"/>
         <v>725,815,491,68,391,96,305,816,65,490,483,146,548,583,715,682,920,494,151,783</v>
       </c>
     </row>
@@ -43365,7 +44487,7 @@
         <v>96</v>
       </c>
       <c r="V229" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A229:T229)</f>
+        <f t="shared" si="3"/>
         <v>535,928,117,838,561,856,367,244,591,898,71,318,590,325,496,716,129,318,69,96</v>
       </c>
     </row>
@@ -43431,7 +44553,7 @@
         <v>147</v>
       </c>
       <c r="V230" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A230:T230)</f>
+        <f t="shared" si="3"/>
         <v>489,764,761,51,500,267,858,869,786,626,499,522,753,624,73,584,281,196,237,147</v>
       </c>
     </row>
@@ -43497,7 +44619,7 @@
         <v>558</v>
       </c>
       <c r="V231" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A231:T231)</f>
+        <f t="shared" si="3"/>
         <v>793,791,577,870,411,814,336,712,816,874,367,60,521,135,66,298,855,616,582,558</v>
       </c>
     </row>
@@ -43563,7 +44685,7 @@
         <v>549</v>
       </c>
       <c r="V232" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A232:T232)</f>
+        <f t="shared" si="3"/>
         <v>259,102,136,423,310,752,486,486,229,456,371,246,725,585,869,406,430,703,456,549</v>
       </c>
     </row>
@@ -43629,7 +44751,7 @@
         <v>746</v>
       </c>
       <c r="V233" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A233:T233)</f>
+        <f t="shared" si="3"/>
         <v>390,82,485,86,899,23,264,946,529,819,901,868,846,67,932,873,149,385,761,746</v>
       </c>
     </row>
@@ -43695,7 +44817,7 @@
         <v>349</v>
       </c>
       <c r="V234" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A234:T234)</f>
+        <f t="shared" si="3"/>
         <v>334,892,658,657,584,725,998,703,436,609,308,756,683,556,794,403,753,764,622,349</v>
       </c>
     </row>
@@ -43761,7 +44883,7 @@
         <v>629</v>
       </c>
       <c r="V235" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A235:T235)</f>
+        <f t="shared" si="3"/>
         <v>602,391,715,479,116,762,148,269,403,151,768,263,857,184,762,749,95,231,934,629</v>
       </c>
     </row>
@@ -43827,8 +44949,1893 @@
         <v>399</v>
       </c>
       <c r="V236" t="str">
-        <f>+_xlfn.TEXTJOIN(",",TRUE,A236:T236)</f>
+        <f t="shared" si="3"/>
         <v>303,337,657,69,622,839,603,95,294,675,803,787,628,424,55,459,421,766,323,399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776E475D-84D7-439A-921D-EA0D3F714249}">
+  <dimension ref="A1:C373"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>6104</v>
+      </c>
+      <c r="C2" t="str">
+        <f>+"["""&amp;_xlfn.TEXTJOIN(""",""",FALSE,A1:A373)&amp;"""]"</f>
+        <v>["5 + 9 + 5 + 9 * 9","5 * (9 * 3 * (6 + 8 + 2 + 5) * 2)","4 + (6 + 9) + ((9 * 7 * 5 * 9 * 9 * 8) + 6 + 2 * (7 * 7) * (9 + 7 * 9 + 4))","8 + (7 + 4 * 7 * 5 * 9) + 9 * 6 + 9 * 3","4 * (8 + 8 * (9 + 3 + 6 * 8) * 4 * 2 * 6)","(2 + 9) + (5 * 7 * 7 * (5 * 6) * 7 * 2)","4 + ((8 + 3 * 6) * 7 * 4)","(9 + 5 + 6 + 8) + (3 * 6) * 6","5 + 3 + (8 * 8 * 8 * 6 + (6 + 4 + 6 * 2 * 3) + 5) + 3 * 7","(4 * 7 + 8 * (2 * 5)) * 8 + 2 * (9 + 5 * 4 * (4 * 9 * 2) + 5 + 3) * 8","3 * 6 + (7 + (5 + 2 * 8 * 5) * 9 * (2 * 4 * 4 + 6 + 5 + 8)) * 9 * 5 * (2 * 4)","((4 * 3 * 5 * 2 * 5 + 6) + 3 * 6 * 7) + 6 + 8 + ((7 + 6 + 2 * 2 + 8) + 9 + 8 * 2 + (5 + 4 + 9 + 3))","4 + (5 * 2) * (3 + 7 * 7 + 9 * 6 * (9 + 4 * 8 + 7 * 6 * 8))","(3 + (8 + 8 * 7 + 8 + 4)) + 2 + 2 * (7 * 8) * (8 * 7 + 9)","(3 + 5 + (2 * 6 + 7 + 5 * 7)) + (4 + (5 + 3 * 7 + 8 * 9) * 7 * (9 * 7 * 9 + 3)) + 4","(8 * 5 + 3 * (5 + 8) + 6) * 2 + (9 + 2 + 7 * 4) * 6","2 + (5 * 7 + 8) + (8 + (3 * 3 + 4 * 2 * 2 * 2) * (5 * 8 + 6 * 6) + 8 + 5 + 8) + ((4 * 6 * 8) * 5 + 2 * 8) * 5 * 5","(7 + (3 + 4 + 3) * 6 + 2 * (9 * 3)) + 5 * 8 + 3 + 8","((2 * 5 * 8) + 6 * 2 + 8) + 2 + 4","3 + 9 + (3 * 5 * 5 * (4 * 9) * (9 * 8 + 2) + (7 + 3 * 3 + 6 * 7 + 4)) + 4 * (7 + 9 + 5 + (7 * 8 * 7 + 6 * 9 * 3) + (5 + 3 * 5 + 4 * 2) + 9) + 6","3 + 9 + 2 * 5 * 7 + ((5 * 7 * 4 + 3 + 6 * 2) * (9 * 4 * 9 * 3 * 2) * 6)","6 + 9 + 2 + (2 * (8 + 4 + 7 * 5 + 2) * 4 + (4 * 2 * 3 + 3 + 3 + 2) + (8 + 2 + 6 + 2) + 5) + 9 + 4","((2 * 8) * 7) + 4 + 3 + 3","6 + 4 + 3 + (4 * 9 + 6 * 8 * (4 * 6 * 2))","(4 * 7 + 3 + (9 * 2) + 5 + 4) + 8 * 6 * 5 * (4 * (2 + 3) * 5 + 3 + 4)","8 * 8 * 8 * (3 * 8) + ((3 * 6 + 3 * 4 + 2) + 6)","3 + 8 + 8 * ((7 + 8 + 3 * 8) + 7 * 6 + (7 * 6)) + 9","((6 + 8 + 2) * 2 * (7 + 4 * 2 * 6 * 5) + 9 + 8) * 3 + (5 * 4) + 8 * 7","9 * 5 * ((9 * 8) * 3) + ((9 * 4 * 6 * 8 + 9) * 4 + 9) * (6 * 3 + 3 + 9) * 4","(2 + 8 + 9 * 8 * 2 * (7 + 7 * 5 * 4)) * 7 + 8 + 5 * ((8 + 3 * 9 * 4 * 9 * 9) + 7 * (2 * 9 * 7) * 8 * 4)","8 + ((9 + 3 + 3 * 8) + 4)","(4 * 5 + 3 * 7 + 9) + 6 + 7 * 8 + 9","(3 * 8 + 4) * 8 + 5 * (7 * 4 * 5 + 8 + 4) * 4 + 6","2 + 5 * ((3 + 8 + 4 + 9 + 8) + 9 + 9 + 9 + 9 + (5 + 5 * 6)) + (2 + 8 + 3)","((4 * 3 + 7) * 4) + (2 + 3) + 5 + 2","(8 * 5) * 5 + 7 * 8 * 7 * 9","9 * 8 * 9 + 3 + (8 + 6 * 5 + (5 * 8 + 8 * 5 * 3) * 9) + (3 * 3 * 8)","(4 + (6 + 9 * 7 + 8 + 7 + 8) * 2 * 4) * 2 + 8","(3 + 6 + (8 + 3 + 9 + 3) + 5) * 7 + (8 + 9) + 6","(4 * 2 + (8 + 9 * 7 + 6) * 8) * (6 * 5 * (8 * 7 + 2 + 2 * 7 + 3) + (8 + 5 * 9 * 9 * 2 + 4) + (7 * 2 + 4 * 9 * 9 * 6)) + (5 + 6) + 6 + 2 * (9 + (9 * 2) * 9)","2 * (9 + 9 * (4 + 7) * (9 * 5 * 8 * 2 + 3 + 4) + 4) * (6 + 9 + 3 * 4 * 3) + 6","9 + 9 * 7 * ((6 * 6 * 7 * 3 * 9 + 8) * 3) + 4 + 3","3 * (3 * 9 + 7 + 4) + 7 * 5","8 * (6 * 2 * (6 + 6 * 6 * 8) + 6) + (7 + 6 + (8 + 5 * 3 * 2 + 2) + 4 + (2 + 6 * 2)) + 3 + 2 * 7","6 + 6 + 7 * (9 + 7 + 8)","4 * 9 + (6 * 5 * 4 + 3 * (8 + 7 * 3 * 4) * 5) * 4 * 9","2 + (7 + (4 * 8 * 5 * 4 * 6) + 8 * (9 * 5)) * 7 + 4 * 7 + 7","((5 * 3 + 2 * 9 + 3 * 8) * 2 * 6 * 2) + 7 + 9 * 3 * 2","(9 * 6 * 3 * 3) * (3 + 7 + 5) + 2","(4 + 9 * (7 * 2) + 8 + 8 + 8) + (7 + 6 + 4) + 3 * 6 * 7","(8 * 8 * 5) + (6 + 8 + 4) * 5 + (2 + 6 * (5 + 9 + 8 * 7 * 4 * 5) + 8)","((9 * 7 * 6) * (2 + 7) + 5 + 5 * 7 * 7) + 6 * (6 + (2 * 6 + 9 + 6 + 7 * 9)) + 3","2 + 8 * (6 + 5 + 8 + 7 * 7 + 9) * 5 * 3","2 + (2 + 9 + 8 * 2) + (6 + 2 + 2 + 7) * 5 * 9 * 3","9 + 6 * 4 * (2 + 7 + 9 + 8 + 8)","2 + 2 + 9 + 9 * (7 + 9 * 9) + (5 * 3)","3 + 9 + 4 * 3","(3 + (8 + 8 + 8)) * 7","8 + 6 + (8 * 8 + 8 + 5 * 3 * 3) + (6 + 8 + 5 + 6 + 9 * 7) + 2 + (3 + 2 + 2)","((2 * 9 + 7 * 6 + 5) + 6 + 7 * 8 + 4) * 2","((9 * 6 * 3) * 8 + 6 + 9 * 6 * 2) + ((9 + 4 + 9 + 9 + 4) * 5 + (3 + 5 * 4 + 4 * 7) * (4 * 2 * 2))","2 + (5 + 5) + 2 * 7 + 6 * 9","3 * 6 * ((4 + 2 + 9) * 4 + 6 * 6 * 9) * ((4 * 8 + 2 * 4) + 8 + 2)","8 * 4 * ((2 * 7 * 9) * 2)","3 * (7 + 9) + 6 + 3 + 4","6 * 8 + (6 + 8 * 9) + (9 + 7 + 9 * 3 * 7 * 3) * 5","3 * 8 * 6 + (6 + 5) + 4","5 + 6 + (8 + 3 * 7 * 8) + 8 * 7 + (4 * 5 + 4)","(2 + 6 + 3 + 8 * 6 + 4) * (5 + 3 + 9 * 5 * 7) + 6 * 5 + (3 * 7 * 5 + 7 * 2) * 7","3 * (2 * 4)","(7 * 3 + 4) * 3 + 2 + 2 * 9 * 3","((6 + 8 * 3 * 3 * 3 * 3) * 2 * (8 + 3 * 2 + 5 * 2 + 5) * (8 + 7 * 8 * 7) + 9 + (5 + 8 + 7 * 2)) + 4","5 + 4 * 9 * 7 + ((8 * 4 * 8 + 2 + 5 * 4) * 6 + 6 + 3 * 3)","7 + (2 * 2 * 5 + 7 + 6 + (9 * 8 * 2 + 5)) * 2","(2 * (8 * 4) + 8 + 8 * (2 + 4 + 4 * 4 + 4 + 4) * 5) * 7 + 8 * ((7 + 8 + 4) * 6 + 8 + 7 + 2 * 9)","7 + 5 + 6 * 4 * (2 * 3 * 8 * 2 + 4)","(5 * 2 * 6 * 5 * 8) + 2 * 9 * (3 + 4 * 9 * 4 + (3 * 8 + 5 + 3) + 8) + 4","4 + 5","3 * ((3 + 6) * 7 * 5 * 9 + 6 * (3 + 4 * 3 * 5 + 2 + 3)) * 6 + 4 + 2","9 + ((6 + 2 + 5 + 8) * (3 * 8 + 8 * 2 * 9) + (9 + 2 + 6 + 5 + 9)) * 9","7 * (6 + 6 * 7 * 5 * 3 + 8) + 7","(9 * 8 * 3 + 4) * 4 + (4 + 2 + 7) * 8 + 9","3 * 7 * (3 + (5 + 6 + 7) * 5 * 8) + 7 * 6 + ((8 + 8 + 8 * 2 * 2) + 2 + 6)","((9 + 5 * 6 + 2 * 7 * 6) + 9 + 2 * 4 * 8 * 5) * 8","(7 * (8 * 5) * 7) + 9 * (7 * (8 * 5) + 2 * 9) * 7","(7 + (9 * 3 * 3 + 3)) + (3 * 7) + 3 * 2 * (4 * 9 * 5) + 6","7 + 6 * (4 + 7 + 6 * 3 * 8 * 3) + ((5 * 8 + 8 + 2) * 8) * ((2 + 4 * 8 * 9 * 5) * 2 + 3 + 7 + 2) + 5","((7 * 8 * 6 * 5 * 9 + 7) + 3) + (3 + 4 * 2) * 2","4 * 5 * (3 + 2) + 7 * 8 + (7 + 7 * 5 + 2)","(6 + (7 + 9) + 6 + 4 * 9) * 7 + 7 + 7 + 9","(4 + 7 + (7 + 3 * 3 * 8 * 9 * 7) * 6 * 4 * 2) + 8 * 9 + 2 * (8 + 2 + (2 + 9)) * (2 * 6 + 2 + 4 + 3)","9 * 5 + 3 * (4 + (5 * 4 + 6 + 8 + 6 + 6) * (8 * 3) + (5 * 9 + 2 + 2)) * ((9 + 8 * 3 * 6) + 3)","8 + 7 * 2 * (5 + 2 * 4 * 8 + (9 * 4 * 6 * 8) * 4) + 3","5 * 6 + 5 + 9 + (4 + 6 * 6 * 2 + 9 + 7)","3 * (2 + 9) + 2 * 5","(5 * 9 * 7 + 7) + (9 * 3 + 5 * 6)","2 * 9 + (7 + 4 + (8 + 8 + 7)) + (3 + 4 + 5 + 6)","7 * ((9 * 7 * 7) * (8 * 8) * 3 * 3) * 3","9 + (6 * 7) + 7","(5 + (2 + 5 * 8 + 8) * 3 + 7) + 2","(8 * 9 * (5 * 3 * 9 * 8 + 5)) + (6 * 7 * 6 + 3 + 7 + 6) * 5 + 9 + 5 + (3 + (9 * 3 * 3 * 3 * 3 * 5) + 5 + (4 + 8 * 3) * 2 + 2)","3 * 6 + 3 + 8 + (8 + 9) + 2","7 + 9 * 5 + (8 * 8 * 5 * 9) * (3 * 5 + 3) + 9","2 + 5 + 8 + (2 * 5 * (4 * 9 + 3 + 9)) + 9 + 4","3 * 8 + (6 * 4 + 5 * 2 * 5 * 2)","(3 * 3 + 5 * (6 + 4 + 9 * 5 * 2) * 6) + 9 + 5 * 4 * 6 + 6","4 * 6 * (2 * 9) * 7 + (4 * 2 * 5 + 7) * 3","(6 * 7 + 3) * 2 + (9 + 4 + 7)","9 + ((7 + 2 + 3 + 2 + 3) * 6 * (9 + 2) + 9 + 2 * 9) + 7 + 3","8 + 2 + 2","5 * (2 + (3 + 3 * 8 + 2) * 9 + 7 * 9) + 5 * 4 * 6 + 3","9 * 4 + (4 + (7 * 2 + 4 + 7) * (5 * 2 + 5 + 8) * 8) * (7 * 5)","9 + (2 * 8 * 5 + 3 + 9 + 4) * (9 + 2 * 3) + 9","((9 + 8 + 7 * 2) * 2 * 9 * (2 * 2 + 6 + 5) * 6 * 9) * 4 * (3 + 5 * 2 + 6 + 2 * 6) + 3 * (9 * 4 + 9) * 9","7 * (3 + 5 * 9 * (6 * 2 * 4 + 3)) * 7","5 + (9 + (5 + 3 * 9 + 4 * 7) + 8 + (9 + 8 * 7) * 6) + 5 * 2 * 8","9 * 9 * 5 * 9 + (7 * 3 + (6 * 3 * 9) * 7 + (5 * 8 + 5)) + 7","(6 * 9 + (5 * 6 + 3 * 5 + 5) + (8 + 9 + 3) + 2) + (9 + 3 + 4) * 6","((9 + 3 + 4 * 4 * 8) * 8 * 4 * 8 * 6) + 6 + 8","(8 * (8 * 6) + 8) + (3 + 3) + 9","5 * 2 * 2 + 6 + 9","7 * 4 * (4 * 7 + 7 * 2 + 5 + 8) * 2 + (7 * 9 + 2 + 9 + 6 + 2)","7 * (2 * (4 * 2 * 4 + 7 + 5)) * 6","((8 * 5 + 2 * 2) * (9 * 2) + (8 + 9 * 2 + 3 * 9) * 8 + 7) * 6","4 * (9 * 2 * 4 + 8) + (8 + 3 * 7) + 6 * 9","5 * 9 * ((2 + 4) * 6 * 6) + 6 + 2","(3 + 5 + 8 + 7 * 5 + 8) * 6 * (2 + 9 * 8 + 8) + (9 * 2 * (3 + 2)) * 3","(9 + 4 + 3 * 7 + 8 + 3) * 6 * 6 + 2 * 2 + 8","5 * (8 + (3 * 8) * 4 * 9) + 6 + (8 + 3 + 2 * 3 * 3 * (6 * 5)) + 2 + 5","(5 * 8 + 7 * 2 + 7) + 2 + 3 * 5 * 8 + 6","9 + 6 * 4 * (4 + 4) + 8 + 9","5 * (5 * (4 * 8 * 2 * 9 + 3 * 2) * 9 + 3 + 9 + (7 * 4 + 4 + 7)) + 3 * 8","(5 + (7 + 5 + 8 * 8)) * 2 + 8 + (6 + 5 + 8 + 9 + 3 + (5 * 4 + 8 + 9 + 4)) + 3 * (3 * 5 + 2 + 3 * 7)","((8 * 3) * 3 + 3 * 7 * 8) + 2 * 5 + 3","(6 + 8) * 2 * 9 + 2","9 + ((8 + 4 * 5) + 8)","2 + 4 + ((9 * 2) * 7 * 9 * 6) * 3","3 * (9 + (3 * 9 + 9 * 8 + 8 * 2)) * 3 * 3","2 + (6 + (4 * 9 + 7)) * 2","5 * (5 * 3) + 3 + (7 * 4 * 4)","8 + (6 * 7 * (7 + 9 * 8)) + 5","9 * 5 * 3 + 6 + 2 + ((4 + 5 + 7) * (8 * 5 * 6 + 8 + 4))","9 + 4 * 4 + (3 + 6 + 6 * 5) + 5 * 7","4 * 7 + (5 + 2 * 9 + 3 + 8) * 5 * 3 * 2","3 * ((3 + 2 + 6) * 2 + (8 + 8)) * 8 + 5 * 9 * 4","8 * 2 + 9 + ((5 * 7 * 6 * 4 * 8 + 6) * (3 + 2 + 7 + 8) + 7)","5 * (7 * 5 * 6 * 4)","6 * 5 * 5","9 * 6 + (9 + 9 + 4 + 9 + (9 * 4)) + 8 * (4 + 3 * 5 + 8 * 5) * 8","3 + 7 + 6 + (6 + 6 + (9 * 8 + 4 + 3 * 4) + 4 + 4) * 5 + 7","4 + 8","(7 + 6 + 3 + 2 + 4 + 8) + 5 + 8 + (6 * 5 + 3 * (9 * 6 + 6 + 9 * 7) * 9) * 9 + 6","(5 + 4 * 8 * 2 + (4 + 4 * 9 * 9 * 4)) + (8 * 5) * 6 * 5 * 5","2 + (6 + (4 + 7) * 4 * (5 * 8 + 5) + (5 * 7 + 4 + 3 + 2 + 9) + 3) * 6 + 2 + (4 * 2) * 2","7 * 5 + 9 * 8 + ((6 * 4 * 6 * 6) + 7 + 2) * 9","5 + (2 * 8 * 2 * 9 + 7 * 2) * 3 + 6 * 3","6 * 9 * 3","8 * ((7 * 7 + 4) * 9) + 5 * 8 * (7 + 6 + 8 + 3)","(3 * 9 * 9 + 6 * 6) * 5 * ((2 + 3 * 2 + 2 + 6) * 7) * 6","(7 * 8 * 9 + (9 * 6 + 3) * 8) * 7 + 8","8 * 8 + 5 + ((4 + 7 * 4 + 9 + 9) + (2 * 9) + 9 * 3) + (9 + 2) * (3 + 7 * 6 * 5 * 9)","6 * 5 + 6 * 9 * ((3 + 9 + 7 * 6 + 9) * 4 * 7 * 4) + (9 + 9 + 3 + 7 + (7 * 7 + 9 * 7))","2 + 9 * (3 + 3 * (8 + 8 * 7))","5 + 8 * 2 * 8 + 2","6 * 2 * 2 + 4 + 6 * 8","7 * 7 * 7","2 * (7 * 9 * 9) + 8 + 8 * 4 * 8","(6 + 3 * 9 * 8 + 8 * 8) * (6 + 9 * 3 * (8 * 5 * 6))","(3 + 2 + 7 + 3 + (8 * 5 + 2 * 8 * 2 * 9)) + 3 * 8 * 2","4 * 7 + 9 + 8 + 6 + (8 + 8)","5 * (8 * (9 + 3 * 2 + 6 + 7 * 6) + 8 + 8 + 5 + 7) + 8 + 6 + 9","4 + 4 * ((3 + 8 * 8) * (3 + 8 + 7 + 8 * 6) * 8 * 8 * 9) * 9","(8 * 4 + 2 * (5 * 6 + 8 * 8) * 8) + 6","9 * ((2 + 9 + 9 * 5 * 3 * 3) + 2 + 5 + 3 * (4 + 4 * 7 + 6 * 9) + 7) + 3 * 4","(2 + 8 + 6 + 7 * 5) * 8 * (9 + 3 + 7) + ((6 + 3 + 4) + 6 + 5 + 4 * 2) + ((2 + 5 * 5 * 5 + 7) + 8) * 7","(6 * 7) + 4","5 + 2 + 6 * 6 * ((2 * 9) + (9 * 4 * 7 * 3)) + (2 + 5)","2 + 7 + 9 + (4 + 4 * 4 * 4 * 5) * 6","(8 * (5 * 4 * 8 * 2)) * (4 * 4 + 2 + (7 * 4 + 6 + 6))","6 * 4 * 4 * ((6 + 9 * 8) * 3 * 8 + 9 * 2) * 9 + (9 * (3 * 9 * 8 + 4 * 2 + 7) + 8 * 3 * 4 * 4)","6 + (6 + (8 + 4 * 4) * (7 + 5 * 9 * 3) * 4)","5 + (4 * 6 + 7) * 8 + 4","4 + 4 + 4 + (8 + 2 + (3 + 4)) * 7 + 8","3 + 6","2 * (2 * 8 * 2 * 3 * (8 + 4 + 3)) + 8 + (3 * 5 + 5 * 5 + 9) * 2","(2 + 9 * 5) * 8 + 5 + 9 * (5 + (6 * 8 + 4 * 7 * 5) * 2 * 3 + (9 + 5 + 5 + 7 * 6))","(8 + (3 + 8 * 7) + 3 + 7 * (6 * 5 * 7 * 7) * 5) + 4 + 2","9 + ((2 + 7 * 8 + 4) + 3 * 7 * 2 * 2 + (4 + 5)) * 6 + 7 * 7","2 + (7 + 7 * 3 * 6 + 4 * (6 * 6 * 9 * 4 + 3 * 2)) + (2 + 2)","4 * 2 * (2 + 8 * 2 * 8 + 3)","(5 * 4 * 8 * 9) + (9 * 7) * ((9 * 5 + 9 + 3 + 9 * 5) + 6 * 8 + 9) * (6 + 8 * 7 + (7 * 4 + 5)) + 9","((9 + 7 * 8 * 4) + 4) * 6 + 7 * 8 * 7 + (7 * (5 + 3 + 8 * 8 * 7) * 4 * 8 * 3 + 7)","7 * 3 + (3 + 3) * 6 * 9","2 + (2 * (2 * 5 + 2 + 8 * 9) * 9 * 5 + 9) * 7 + 5 + (7 + 4 * 8)","(9 * (4 * 3)) + 9 + 3","8 * 4 + (2 * 8 * (6 * 4 + 2 + 3 + 8 * 3)) * 5 * ((4 + 7) * 5 * 9)","2 * ((9 + 5 * 3) + 3 + 5 + 5 + 9) + (9 + 6 * 2 + (7 * 6 * 2 * 9 + 3 + 5)) + 7","(5 + 4 * 8 * 3 * 4 + 9) * 9 + 4 + 8 * 2","6 + (8 * 6 + 9 + 5 + (7 * 3 + 2 + 8))","3 * (3 + (8 + 8 + 9 * 4 + 5)) + 5 * 9","6 + 5 + (9 * (5 + 4) + 9 + 2 + 7 * 5)","(7 + 4 + 2 * 5) * ((4 * 9) + 4 * 5 + 7 + 2 * (6 + 2)) + 2 + 5 * 8","(2 + 8 * 8 + (4 * 9 * 4 * 2 * 3) + 3 * (7 * 6)) * 7 * (5 + 8 + 3 * 4) * 3","8 * 7 + ((8 + 9 * 9) * (4 * 7 + 8 + 8 * 5) + (8 + 9 + 9 + 8 + 6)) * 8","3 + (2 * 3 * 7 * 8 * 6) * (7 * 5 * 5 * 3) * (2 * 7 * 7 + 2 * 9) * (9 * 4 * 6 + 7 * 4)","4 + 8 * 4 + ((6 + 4 + 2 * 3) * 2 * 3 * 5 + 3 + 2) * 7 + 7","((4 + 4 + 6 * 6) + 9 + 3 + (8 + 6 * 5 + 7 + 4 + 2) * 7 * 6) + 2 * 4 + 3 * (7 + (7 + 4 * 2))","9 + (4 + (7 + 3 * 9 * 9 + 4 * 9) + 5 * 4 * 9) * 9","7 * ((7 * 5 * 7 + 2 * 2) * 2 + 3 + 8 * 9) * 6 * 5 * 6 * 3","9 * ((5 * 4 * 4 * 6 * 2 + 6) + 2) + (5 * 7 * 2) * (3 * (8 * 3 + 2 * 7 + 7) + 3 * 8) + 4","5 * 8 * 8 + 7","6 * 7 + 3 * 2 * (7 * 5 * 3 + (3 * 4 * 3 * 3 + 4)) * 6","8 + 7 * 9 * 2 + (8 + 6 + 4 * 5 + (6 + 2 + 2 + 7 * 6 + 7) + (9 * 5 * 9 * 3)) * (5 * 5 + 3 + 3 * (9 * 8 + 6 + 2))","9 + 8 + 4 * (4 * 9 + (8 * 2 * 3) * 3 + (4 + 9)) * (6 * 5 + 7) * (6 + 6 * 9)","6 + 6 + (7 + 7 + 8) + ((5 + 6 + 4 * 3 + 7) * 4) * 8","2 + (9 + 2 * 6 * (5 * 5 + 7 * 5 * 6 + 3) + 4 + 2) + (3 + 3 + 7 * (4 + 8 * 3 + 3 + 6 + 2)) * 8 + 9","((8 + 7 + 2 * 4 * 4) * 2 * 2 + 5 * 7) * 7 * 9 + 3 * (9 + 2 * (4 + 7 * 4)) + 3","7 * (2 * 5 + 4 + 3 * 7) * 7 * 3","2 + (3 + (4 + 7 + 6 * 8) + 8 * 8 * 4 * 4) * 3 + 5","(8 * 8 + 8 * 8 + 7) * 6 + ((8 * 8 * 8 + 8) + 3 * 5 * 8 + 3)","6 * 9 * 7 + 2 + 8 + ((3 + 3 + 5 + 5 * 9) * 7)","3 + 6 * (8 + 9)","8 + 7 + 8 * (2 * 7 + 7 + 3 * (2 * 6 + 9 + 2 * 4)) + 8 + ((5 * 6 + 8 + 8) * (5 * 6 + 7 + 7) + 5 + 6 * 6 * 2)","4 * 2 + (2 * (6 + 2 * 9))","3 + 5 + ((9 * 7) + 7 * 9 * 6 * 4) * 2 + 4 * 7","(5 * (9 * 9) * 2 * 4 + 6 * 6) * (8 * 6 * (4 + 9) * 5 + 8 * 6) + 6 + 9 * 9","8 + (7 + 7 * 8) + 6","(3 * 2 + (5 * 6) * 3 * 5) + 3","(2 + 8 * 6 + 6 + 4 + 7) * 7 * (3 * 9 + 2 * 8) + 3 * 5","4 * (2 * (4 * 5 + 3 * 7 * 5 + 8) + 8 * 2) * 9","(5 * 2 * 7 * 5) * 8 * 2","3 * (3 * 7 * (4 + 4 * 3 * 9 + 8) + 9)","6 * (9 * 3 * 9 + 7 + 2) * 2 + 9 * 3","6 * 3","(7 + 5) + 9 + 8 + ((4 + 7 + 3 * 5 + 7) + 7 + 2 * (7 * 2) * 8) + 6 + 8","6 * 5 * 9 * 4 * 8 * 4","7 + (6 * 7 + 6 * 6 + 4) + 6 + (5 * 9) + 4 + 9","(9 + 5 + (2 * 2 + 2) * 2 + (5 + 8 + 3 * 9 + 9 + 3) + 9) + (6 + 4 + 9 + 3 * (2 + 3) + 2) + (9 + (3 + 8 * 8 * 2) * 3 + 3 + 9 + 5) + (5 * 7 * 5) * 5 * 6","3 * 2 * (8 * 4 * 2) * 7 * (8 * (8 + 2 * 4 + 2 * 9) * (2 + 5 + 5 * 5 + 6)) * ((5 + 3 * 3 * 5 * 6 + 5) * 3 * 7)","7 * 8 + 8","4 + (8 * (8 * 3 * 2) + 3 + 3 * 4) * 3 + 7 * 8 * 6","2 * (2 * 6 + 4)","7 + (4 + 9 * (3 + 5 * 2)) + 5 + 6","(7 + 5 + 2 + 4) + 6","6 + 2 * 7 * 6 * (2 + (2 * 5 * 6))","3 * 3 * 6 + (2 * (6 + 9 + 2))","(2 + 5 * 6 * 3 + 2 * (6 + 4 * 9 * 5 * 7)) + 9 + (3 + 8 + 4 + 4 + 2 * 9) * 4 * 8 * (3 + 8 + 5)","7 * 5 + (9 * (7 * 2 * 4) + 5 * (4 + 9)) + 3 + 4 * (4 * (3 * 5 + 2 + 4 * 6) * 7 * (6 + 2 * 4 + 9) + 9)","(8 + 9 + 9 * 3 * 6 + 5) + 4 * 5 + 3","8 + 4 + (4 + 3 * 4) + 7","(4 + 8 + 8 + (8 + 7 * 6 + 8 + 5)) * 2 * 9 + (3 + 8) * 7 + 5","6 + (6 + 3) + (9 * 9 * (8 + 5) * 3) * (5 + 8 * 4 + 6 + 4)","((4 + 2 + 9 + 7 * 9 * 5) + 7 * 2 * (7 * 7 * 2) + 2) * ((7 * 3 + 5) + 9 + (7 * 4 * 8) + 4) + 2 * 8 + (3 + 3 + 6 * 9) * (6 * 2)","9 + 6 + 3 + 5 + (3 * (7 + 5 + 4 + 4) + 5 * (6 + 5 + 7 * 6 * 4 * 3) + 7 + 5) * 8","(3 + 6 * 5 + 9 + 8 + 8) * 6 + 6 + ((2 * 5 * 8 * 4 + 7 * 9) * (9 + 6 + 7 + 4 + 3) * 6 + 5 * (5 * 3 + 9 + 3 + 2))","(3 * (3 + 8)) * 2","2 * 4 + (9 * 6 + 4 * 5 * 9) * 3 + (6 + 6 + 4 * 9 + 5) * 6","3 + 8 * ((6 * 4 * 9 + 2) * 8 * 3 * 6) + 5 * 3 + 8","2 + (3 * 5 * (2 + 8) + 4 * (6 + 9 * 9) * 9) * 6 + 6 + 6","4 * 5 * (3 + 9 + (2 * 7 * 3 * 9 * 5) + 8 + 7)","2 + 6 + (7 * 4 * (8 * 8 + 7 * 5) * 9 + 7) + 3 + 2 + 6","6 + 6 * 4 * 6 * (3 + 4 + (9 + 9) + 5) + 7","8 + 6 * 8 + 4 * (2 + 8 + 5 * (4 * 9 + 5 * 4) * (6 * 4) * 2) + 9","8 * (5 + 4 * (6 + 7 + 6 + 2 * 3) + (3 * 9) * 9) * 8 * 4 * 3","(7 * 4 * 2 * 6) * (9 + 8 + 5 * (3 + 5) * 9 * 3) + (3 * 7) * 8 * 3 + 4","2 * 8 + 4 + 8 + 9 + 2","5 + (7 * 2 + 8) * 7 * 9 + 8","((3 * 7 + 9 * 4) * 2 + (8 + 8 * 2 * 5 + 4 * 6)) * 3","(3 * 5 * 4 + 5 * 6) * (5 + 7 * 4) * 3 * ((7 + 2 * 2 * 6) * 8 + 7 * 3) * 8 + 9","2 + (5 + 4 + 4 * (2 + 5 * 3 * 2 * 2) + (7 + 9 * 3 * 2) * (3 + 2 * 9)) * 2","(4 + 5 * 3 + 9 * 3) * (3 + 7 * 4 + 2 + 5 + (3 + 5 + 2 + 2 + 9)) * (5 * 2 * 5) + 4 * 2 + (5 + 9 + 7 + 5 * 5 * 2)","2 + (9 * 3 * 5 + 8) + 8 + 7 + (8 + 9 + 6 + 2 * 3) * 2","2 * 8 + 3 * (5 * 8 + (2 * 9 * 2)) + (4 + 4 + (7 + 3)) + 6","3 * ((9 * 8 * 6 + 7 * 6 * 5) + 9 + (5 + 5)) + 2","4 + 5 + 8 + (5 + 9 + (9 * 9 + 6 + 3 + 3 * 7) + (7 * 8 * 9 * 9 + 4) * 2) * 2","(4 * 8 * 8) * 3 + 9","((4 * 6 + 9) + 2 * 3 * 8 * 4 + (9 + 3 + 7 * 4)) * 3 * (8 + 7 * 2) + 2 + 3 + (2 * 6 * 9 * 6 * (5 * 8) * (4 * 3 + 3 + 4 * 6 + 9))","3 * (8 * 8 * 7 + 4 * 5 + (2 + 6 * 4 + 4 + 9 * 8)) + (9 + 9 + 8 + 6 + (8 * 6) + 3) * 6","6 * 2 + 3 * 5 + (2 * 7 * 7 * (7 * 9 + 6 + 2 + 5 + 7) + 6)","5 * 2 + 4 + 5 + (7 * 3 * 7 + 3 * 6 + 4) + 8","7 * (8 * 3 * 7 * (6 * 6 + 5 * 3 * 3) * 6) * 4 * 3 * 8 * 4","(3 + 9 * 7 * 3) + 5 + 7 * 2","6 * 4 * 5 + 2","8 * 7 + (5 * 8 * 2 * 3) * (8 + 7) + 3","6 * (2 + 9 * 2 + (5 * 6 * 9 + 4 + 9 * 8)) + 6 * 8 * 2","7 * ((3 * 2) + 3 + 4 + 4 + 7) * 7","8 * 9 * (3 * 7 * (9 + 4 * 7 + 6 * 7) * 8) * 8 * 9 * 4","(6 * 3 * (4 + 5 + 8 * 5) * 5 * 4) * 2 + 3 * 2","6 + (7 * 4 + 4 + 3) + 2 + 8 * 4 + 6","3 * 8","(7 + (2 * 5 * 5 * 4 + 7) * 7 * (5 + 2 * 4 * 5 + 8 * 4) * 8 + 2) * 7 * 7","(7 + 6 + 8) * (9 + 8) + 3 + 7","(6 + 5 * 3 + 6 * (3 * 5 + 9 * 6) * (7 * 9 + 8 * 4 + 2 + 4)) * 3 * 6 * 7 * 4 + 9","((3 * 8) + (8 * 4 + 8 * 5 * 7 + 4) + (9 + 9 + 5 + 8) * 2) * 2 + 7","8 * (8 + 2 + (2 + 8) + 7) * 4 + (6 + 8 * 8) + 5","(3 + 5 + 3 + 9 + 3) * 5 + 2","3 + 4 * ((6 * 8 + 8 + 5) + 9 + 6 + 3) * (2 + 8 + 4 * 6)","(9 + 9 * (6 * 3 * 5) * 6 + 7 * 6) + 8 + 9","2 * ((9 + 8 + 3 * 6 + 6 + 3) * 5) * 7 + 9 * 3 * 4","4 + (4 * 8 * 6 * 6 * 8) * 7 * (2 * 4 + 6) * 5 * 8","((3 + 6) * 9 + 9 * 8 + 3) * 8 + 2 * (5 * (8 * 8 + 2) * 6 + 4 * 3 * 2) + (2 + (6 + 7 + 3 * 3) + 5 * 5 * 7)","(3 + 5) * 9 + 9","(8 * 2 * 9) * (7 * 6 + 9 * (2 * 4 + 2 * 5 * 7)) * 5","3 * 6 * (9 + 7) * 3","(9 * 4 + 6 + (5 + 2 * 7 + 5)) + 7 * (5 + 7) * 9 + (4 * 9 * 7 * 8 + 3 + 7) * ((4 * 9) * 8)","((4 * 2 * 5) * 2 + 4 + 6 * 3) * (9 + 2) + 9 + 6 + (5 + 6 * 7 * 5)","((7 * 7 + 2 + 2 * 8) + 7 + (9 * 3 + 8 * 7) + 3) + 3","9 + (6 + 5 * (4 * 3) + 9 * 5) * 2 + ((7 + 5 + 3 * 8 * 8) * (2 * 7 + 4 * 6 * 7 * 2)) + (9 + (9 + 8 * 5 + 5 + 5 * 4) + (6 + 8 * 7 * 8 + 8 * 7)) + 4","6 + 2 + (2 + 4 * 6) + 4 * 3","5 + 5 + 3 * 9 + 2","(9 + 7 * 3) * 7","7 * 6 * 9 * 5 + 8 * 2","(7 + (9 * 9 * 3)) * (5 * (8 * 9) + 9 + 7 * 5) + 3 + 4 * 4","9 + 2 * (3 + 4 + 8 + 2)","5 + 2 * (9 * 3 + (7 + 3 + 8 * 2 + 7 + 8)) + 4 * (8 + 4 * 9 * (6 + 7 * 2 * 3 + 3 + 3))","(6 * 2 * (3 + 6 + 7 * 3) * 4) + 5 + 6 + 6 * 3 + 6","6 + (4 * 4 + 8 + 2) * 2 + 4 * 5","3 * 5 + 9 * (4 * (3 * 9 + 7 * 7) + 8 * 8)","((3 * 8 + 3) * 5 * 6) * 8 * 7 + (9 * 8 * 8 * 2 * (5 * 4 * 2 + 2 * 6 + 6) * 6)","4 * 7 + (3 * 4 + 3)","9 + (2 * (9 * 7 + 4 * 6 * 9 + 7)) + 5","9 * (6 * (5 * 3)) + 9 * 4 + 3","9 + 5 * 3 * 3 * 3 + 2","3 + (7 + (3 + 2 * 6)) + 3 + 9 * 6 * 3","5 + 6 + 8 * 7","4 + ((7 + 6) * (8 * 5 * 6 * 7 + 8) + 2 * 3 + 7) * 6 * 4 * 8","((5 + 9 + 7 * 3 * 7) + (8 + 5 * 5 * 9 + 6 * 3) + 4 * 9 + 8 + 5) + ((9 + 4 + 2 + 3) * 2 + 5 * (2 * 5 * 5 * 4)) * 6 * 5","4 + (2 * (5 * 7 * 8 * 5 * 5))","(7 * 9) * 7 + (9 + 7) + 4 * 7 + (3 + 7 + 6)","(8 + 9 + 5 + 4 + 4) + 6 * 6 + 6","7 * 5 * (7 * 2 + 3 + (2 * 9 * 4 + 3 + 8 + 4) + 8 * 4) * 7 * 3","6 + 2 * 7 * 4 * 6 + ((6 * 2 * 8 + 4) + 6 * 9 * 4 + 6 + 5)","9 + 3 + 2 * (5 * 2 * 6 + 6 * 4) + 9 * 7","9 * 3 + 2 + 4 * 6","(2 * 3 + 2 * 3 + 4) * 8 + 8 + (2 * 2 * 6 + 9 + 2) * 8 + 3","2 + 4 * 3 + 5 * 4 + (3 * (9 + 4 * 7) + 7 * 5)","(2 + (7 * 5 + 7 * 4) * 8 * (2 + 9 * 5 + 7 * 7) + 5 + (8 + 9 + 5)) + 2 + (7 * 5 * 9 * 6 * 3 + (9 * 8 + 9 * 7 + 3)) + (3 + 5 + 7 + (5 + 2 + 2 + 9)) + 9 + 8","(9 * (7 + 6 * 4 + 3 * 8 + 4) * 4 + 2) * (9 * 2 * 2 * 6 * 2) + (5 + 5 + 8 + (8 * 3 + 9 * 9 + 6 * 5) * 8 * 7) + 8","7 + 7 * (3 + 8 * 6) * 2 * 8 + 2","(2 + 8 * 2 * 7 + 8 + 4) + ((5 + 9 * 2 * 8 + 9) * 6 * 2) + 4","8 + ((2 + 3) * 2) + 8 * 2","9 * 3 + 3 * 6","5 * 9 + (6 + 9 + 4 + 7) * ((4 + 4 + 4 * 3) * 6 + 4)","((9 * 7) * 9 + 8 + 5 + 7 * 8) * 9 + (2 + 8) * (6 * (2 * 4 * 7 + 2 * 6 + 9) + (7 * 5 * 3 + 9) * 9 + 5) * 6","6 + 3 * 6 + (2 * (7 * 5 + 4 * 9 + 7) + 5 * 2 + 8)","4 + 7 + (8 + (8 * 6)) * 6 + 6","6 * ((5 * 9 + 8 + 3 * 8) * (7 + 6 + 9) * (2 * 6 + 7 * 4 + 5) * (7 * 9 + 6)) + (2 + 5 * 7 * 6 + 9) * 3","5 * (9 + (3 + 4)) + 9 * (7 * 6 * 6 + 9)","6 * 5 * 2 + ((3 * 7 * 9 + 3) + (2 * 9 * 9 + 5) * 7) + 7 + 3","(6 * 3 + (6 + 8 + 3) + 5 + 6) + 4","6 * (8 * 8 * 9 * 6) * 9","7 + (6 + 2 + 2 * 8 * 4) * 9","3 + (8 * 8 + 6 + 4 + (2 + 9 + 8))","9 * (8 + 5 + (2 + 2 * 3 + 5 + 6) * 4) + 3 * 2 * ((5 * 8) + 6 + 2 + 6 + 8 * 7) + 4","9 + 8 * ((7 + 6) * 5 * (7 + 9) + 3 + 7) * ((7 + 7 * 2) + 6 + 7)","(5 + (2 + 3 + 2) * 8 * 4 * 5) * (3 * 8) * 8 * (7 + 8 + 3 + 2) + (7 + 3 * (6 + 7 + 3 + 2 * 8))","3 + 9 + (6 + 7 + (7 * 4 + 8 + 8 * 3) + 7)","8 + (7 + 5 * (8 * 6 * 6 * 9 + 8 + 9) * 6) * 9 * 5 * (5 * 7 + (2 + 3 + 2 * 7 + 5) * 5) * 3","7 * 3 * (7 * 5 + (2 * 7 + 9) + 6) + 3 * ((2 * 4) * 5 + 5 + 7 + (2 + 9 * 2 * 6 + 9 + 3))","7 * 9 * 6 + 2 * (5 + 2 * 7 + 7 * 3) * (2 * 5 + 3 * (5 * 8) + 8)","5 + (4 * 2 * (5 + 2 + 3 + 4 * 3) + (3 + 6 * 5 * 6) + 4) * 3","8 + (3 * 7 + (7 + 8 + 7) + 9) * 6 * 7 * (5 * 2 * 4 * 5)","(2 + (3 * 6 * 7) * 6) + 5 * 7 + 6","((5 + 7 * 3 * 9 + 3 + 8) * 5) * (2 + 5 + 7 + (9 * 3 * 8 + 4 * 2)) * (4 * 3 + 5 + 4) + 6 * 5 + 2","9 + 7 * ((3 + 6 * 2 * 4) * 6) * 9","3 + 8 * 3 + 3 * 3 * (7 + 4 + 3 + 4 + 9 + 7)","9 + 7 + (7 + (3 + 8 + 9)) + 8 * 4","(7 + 2 * 8 + 9) * 6 + 4 * (3 + (7 * 6 * 7 + 4) * 9 * 2)","(8 + 7 * 3 + 7 * 4 * 7) * 6","3 + 9 * ((4 + 5 * 8) + 5 * 3 * 2 * (6 * 6 * 6 + 3 + 7 * 3) * 7) * 9 * 6 * 2","4 * 7 * (9 + 2 * 5 * 3 * (7 * 9 + 8 * 2 * 7)) + 3 + (6 * 5 + (4 * 5) + 9 * 6 * 4)","7 + (7 * 7 * 7) + (9 * 9 + (9 + 3 + 8 * 3) * 2 * (7 + 7 * 8)) * 3","(8 * 2 + 9) * (9 * 2 + 5) + 7 * (2 * 2 * 9 + 9 + 7) * 2"]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>6106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>6117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>6121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>6133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>6135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>6137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>6138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>6139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>6142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>6143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>6146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>6147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>6148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>6149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>6151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>6156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>6158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>6163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>6165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>6167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>6168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>6171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>6173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>6177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>6179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>6185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>6189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>6193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>6197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>6198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>6199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>6206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2" t="s">
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>6212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>6213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>6215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>6216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>6217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2" t="s">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2" t="s">
+        <v>6221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2" t="s">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2" t="s">
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2" t="s">
+        <v>6224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2" t="s">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2" t="s">
+        <v>6226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2" t="s">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="s">
+        <v>6228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2" t="s">
+        <v>6229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2" t="s">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2" t="s">
+        <v>6231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2" t="s">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2" t="s">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2" t="s">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2" t="s">
+        <v>6235</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2" t="s">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2" t="s">
+        <v>6237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2" t="s">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2" t="s">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2" t="s">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2" t="s">
+        <v>6241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2" t="s">
+        <v>6242</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2" t="s">
+        <v>6243</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2" t="s">
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2" t="s">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2" t="s">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="2" t="s">
+        <v>6247</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="2" t="s">
+        <v>6248</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="2" t="s">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="2" t="s">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="2" t="s">
+        <v>6251</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="2" t="s">
+        <v>6252</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="2" t="s">
+        <v>6253</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="2" t="s">
+        <v>6254</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="2" t="s">
+        <v>6255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="2" t="s">
+        <v>6256</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="2" t="s">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="2" t="s">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="2" t="s">
+        <v>6259</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="2" t="s">
+        <v>6260</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="2" t="s">
+        <v>6261</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="2" t="s">
+        <v>6262</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2" t="s">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="2" t="s">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="2" t="s">
+        <v>6265</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="2" t="s">
+        <v>6266</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2" t="s">
+        <v>6267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="2" t="s">
+        <v>6268</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="2" t="s">
+        <v>6269</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2" t="s">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2" t="s">
+        <v>6271</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="2" t="s">
+        <v>6272</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2" t="s">
+        <v>6273</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="2" t="s">
+        <v>6274</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2" t="s">
+        <v>6275</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="2" t="s">
+        <v>6276</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2" t="s">
+        <v>6277</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="2" t="s">
+        <v>6278</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2" t="s">
+        <v>6279</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="2" t="s">
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="2" t="s">
+        <v>6281</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="2" t="s">
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2" t="s">
+        <v>6283</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2" t="s">
+        <v>6284</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="2" t="s">
+        <v>6285</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2" t="s">
+        <v>6286</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="2" t="s">
+        <v>6287</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="2" t="s">
+        <v>6288</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2" t="s">
+        <v>6289</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2" t="s">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="2" t="s">
+        <v>6291</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="2" t="s">
+        <v>6292</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2" t="s">
+        <v>6293</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2" t="s">
+        <v>6294</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2" t="s">
+        <v>6295</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2" t="s">
+        <v>6296</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2" t="s">
+        <v>6297</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2" t="s">
+        <v>6298</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2" t="s">
+        <v>6299</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2" t="s">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="2" t="s">
+        <v>6301</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2" t="s">
+        <v>6302</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="2" t="s">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="2" t="s">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="2" t="s">
+        <v>6305</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="2" t="s">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="2" t="s">
+        <v>6307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="2" t="s">
+        <v>6308</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="2" t="s">
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="2" t="s">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="2" t="s">
+        <v>6311</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="2" t="s">
+        <v>6312</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="2" t="s">
+        <v>6313</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="2" t="s">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="2" t="s">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="2" t="s">
+        <v>6316</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="2" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="2" t="s">
+        <v>6318</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="2" t="s">
+        <v>6319</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="2" t="s">
+        <v>6320</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="2" t="s">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="2" t="s">
+        <v>6322</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="2" t="s">
+        <v>6323</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="2" t="s">
+        <v>6324</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="2" t="s">
+        <v>6325</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="2" t="s">
+        <v>6326</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="2" t="s">
+        <v>6327</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="2" t="s">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="2" t="s">
+        <v>6329</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="2" t="s">
+        <v>6330</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="2" t="s">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="2" t="s">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="2" t="s">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="2" t="s">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="2" t="s">
+        <v>6335</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="2" t="s">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="2" t="s">
+        <v>6337</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="2" t="s">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="2" t="s">
+        <v>6339</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="2" t="s">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="2" t="s">
+        <v>6341</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="2" t="s">
+        <v>6342</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="2" t="s">
+        <v>6343</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="2" t="s">
+        <v>6344</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="2" t="s">
+        <v>6345</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="2" t="s">
+        <v>6346</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="2" t="s">
+        <v>6347</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="2" t="s">
+        <v>6348</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="2" t="s">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="2" t="s">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="2" t="s">
+        <v>6351</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="2" t="s">
+        <v>6352</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="2" t="s">
+        <v>6353</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="2" t="s">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="2" t="s">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="2" t="s">
+        <v>6356</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="2" t="s">
+        <v>6357</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="2" t="s">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="2" t="s">
+        <v>6359</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="2" t="s">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="2" t="s">
+        <v>6361</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="2" t="s">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="2" t="s">
+        <v>6363</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="2" t="s">
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="2" t="s">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="2" t="s">
+        <v>6366</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="2" t="s">
+        <v>6367</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="2" t="s">
+        <v>6368</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="2" t="s">
+        <v>6369</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="2" t="s">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="2" t="s">
+        <v>6371</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="2" t="s">
+        <v>6372</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="2" t="s">
+        <v>6373</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="2" t="s">
+        <v>6374</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="2" t="s">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="2" t="s">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="2" t="s">
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="2" t="s">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="2" t="s">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="2" t="s">
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="2" t="s">
+        <v>6381</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="2" t="s">
+        <v>6382</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="2" t="s">
+        <v>6383</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="2" t="s">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="2" t="s">
+        <v>6385</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="2" t="s">
+        <v>6386</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="2" t="s">
+        <v>6387</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="2" t="s">
+        <v>6388</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="2" t="s">
+        <v>6389</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="2" t="s">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="2" t="s">
+        <v>6391</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="2" t="s">
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="2" t="s">
+        <v>6393</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="2" t="s">
+        <v>6394</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="2" t="s">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="2" t="s">
+        <v>6396</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="2" t="s">
+        <v>6397</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="2" t="s">
+        <v>6398</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="2" t="s">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="2" t="s">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="2" t="s">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="2" t="s">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="2" t="s">
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="2" t="s">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="2" t="s">
+        <v>6405</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="2" t="s">
+        <v>6406</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="2" t="s">
+        <v>6407</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="2" t="s">
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="2" t="s">
+        <v>6409</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="2" t="s">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="2" t="s">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="2" t="s">
+        <v>6412</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="2" t="s">
+        <v>6413</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="2" t="s">
+        <v>6414</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="2" t="s">
+        <v>6415</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="2" t="s">
+        <v>6416</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="2" t="s">
+        <v>6417</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="2" t="s">
+        <v>6418</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="2" t="s">
+        <v>6419</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="2" t="s">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="2" t="s">
+        <v>6421</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="2" t="s">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="2" t="s">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="2" t="s">
+        <v>6424</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="2" t="s">
+        <v>6425</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="2" t="s">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="2" t="s">
+        <v>6427</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="2" t="s">
+        <v>6428</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="2" t="s">
+        <v>6429</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="2" t="s">
+        <v>6430</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="2" t="s">
+        <v>6431</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="2" t="s">
+        <v>6432</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="2" t="s">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="2" t="s">
+        <v>6434</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="2" t="s">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="2" t="s">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="2" t="s">
+        <v>6437</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="2" t="s">
+        <v>6438</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="2" t="s">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="2" t="s">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="2" t="s">
+        <v>6441</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="2" t="s">
+        <v>6442</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="2" t="s">
+        <v>6443</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="2" t="s">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="2" t="s">
+        <v>6445</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="2" t="s">
+        <v>6446</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="2" t="s">
+        <v>6447</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="2" t="s">
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="2" t="s">
+        <v>6449</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="2" t="s">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="2" t="s">
+        <v>6451</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="2" t="s">
+        <v>6452</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="2" t="s">
+        <v>6453</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="2" t="s">
+        <v>6454</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="2" t="s">
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="2" t="s">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="2" t="s">
+        <v>6457</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="2" t="s">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="2" t="s">
+        <v>6459</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="2" t="s">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="2" t="s">
+        <v>6461</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="2" t="s">
+        <v>6462</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="2" t="s">
+        <v>6463</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="2" t="s">
+        <v>6464</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="2" t="s">
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="2" t="s">
+        <v>6466</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="2" t="s">
+        <v>6467</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="2" t="s">
+        <v>6468</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="2" t="s">
+        <v>6469</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="2" t="s">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="2" t="s">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="2" t="s">
+        <v>6472</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="2" t="s">
+        <v>6473</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="2" t="s">
+        <v>6474</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="2" t="s">
+        <v>6475</v>
       </c>
     </row>
   </sheetData>

--- a/aoc/inputs.xlsx
+++ b/aoc/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa_\Desktop\advent-of-code-2020\aoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194245DD-8D15-4D0B-B52F-60F9DCC5139D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7A90A7-1D30-41C3-8D98-EDDDBF033B04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="16" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="16" xr2:uid="{A0D34D6D-63E3-4BFB-96C8-C1778D293801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
